--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AN-EN-Tags-NEW\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748AC7C-8563-48E4-8641-8FBB5654F0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6352FBC-CB26-4C2C-BB3C-61FA9C6765E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="259">
   <si>
     <t>Op</t>
   </si>
@@ -61,39 +61,12 @@
     <t>kw</t>
   </si>
   <si>
-    <t>Crownslayer</t>
-  </si>
-  <si>
-    <t>After deployment, ATK+{} and gain {} of Physical and Arts Evasion</t>
-  </si>
-  <si>
-    <t>When skill is active, generate a smokescreen around Crownslayer, {} Physical and Arts Accuracy of ground enemies within</t>
-  </si>
-  <si>
-    <t>Deal {} Physical damage increased against enemies that haven't dealt damage to Crownslayer</t>
-  </si>
-  <si>
-    <t>Figurino</t>
-  </si>
-  <si>
-    <t>Increase damage dealt when attacking enemies not blocked by self by {}</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
-    <t>Skyranger</t>
-  </si>
-  <si>
     <t>Archetype</t>
   </si>
   <si>
-    <t>Contrail</t>
-  </si>
-  <si>
     <t>ba.vup</t>
   </si>
   <si>
@@ -517,45 +490,12 @@
     <t>Includes the following Operators: Marcille, Laios, Senshi, Chilchuck</t>
   </si>
   <si>
-    <t>After&lt;$ba.fly&gt;Flying Up&lt;/&gt;, can block 2 aerial enemies</t>
-  </si>
-  <si>
-    <t>After deployment, &lt;@ba.vdown&gt;stop attacking&lt;/&gt; enemies for {} seconds. Reduce Taunt level and increase effect of the First Talent by {}. When the skill ends, deal {} ATK as Physical damage to all ground enemies within the smokescreen.</t>
-  </si>
-  <si>
-    <t>&lt;@ba.vdown&gt;Figurino stops attacking&lt;/&gt;, immediately &lt;$ba.root&gt;Bind&lt;/&gt; {} enemies nearby, dealing {} of ATK as Physical damage every second. During skill activation, {} DP are gradually consumed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When on the ground, DEF +{}. After &lt;$ba.fly&gt;Flying Up&lt;/&gt;, deal {} increased damage to enemies </t>
-  </si>
-  <si>
-    <t>After deployment, immediately &lt;$ba.fly&gt;Flying Up&lt;/&gt;. Attack Range &lt;@ba.vup&gt;expand&lt;/&gt;, ATK +{} and gain {} Physical Evasion</t>
-  </si>
-  <si>
-    <t>Immediately &lt;$ba.fly&gt;Flying Up&lt;/&gt;. Attack Range &lt;@ba.vup&gt;expand&lt;/&gt;, ATK+{}. Can attack 2 enemies simultaneously as well as 1 additional aerial enemy. When attacking aerial enemies, &lt;$ba.sluggish&gt;Slow&lt;/&gt; them for {} seconds</t>
-  </si>
-  <si>
-    <t>After deployment, the effect area of the First talent &lt;@ba.vup&gt;expand&lt;/&gt;. Crownslayer disappears into the smoke, gaining &lt;$ba.invisible&gt;Invisibility&lt;/&gt; and &lt;@ba.vdown&gt;reducing Block Count to 0&lt;/&gt;. Every {} seconds, Crownslayer appears and deals {} ATK as Physical damage {} times to a ground enemy within the smokescreen, &lt;$ba.stun&gt;Stun&lt;/&gt; the target for {} seconds (can only attack the same target once every {} seconds)</t>
-  </si>
-  <si>
-    <t>Can block 3 enemies\nCan deal &lt;@ba.kw&gt;Elemental damage&lt;/&gt;</t>
-  </si>
-  <si>
     <t>magic</t>
   </si>
   <si>
-    <t>Primal Protector</t>
-  </si>
-  <si>
-    <t>Philae</t>
-  </si>
-  <si>
     <t>&lt;$ba.dt.apoptosis&gt;Necrosis Damage&lt;/&gt;</t>
   </si>
   <si>
-    <t>Reduce Elemental damage taken by {}. When taking &lt;$ba.dt.apoptosis&gt;Necrosis Damage&lt;/&gt;, recover {} SP</t>
-  </si>
-  <si>
     <t>&lt;$ba.epbarrier&gt;Protective Barrier&lt;/&gt;</t>
   </si>
   <si>
@@ -655,18 +595,6 @@
     <t>&lt;$ba.laiosteam&gt;Laios' Party&lt;/&gt;</t>
   </si>
   <si>
-    <t>&lt;@ba.vdown&gt;stop attacking&lt;/&gt; enemies, Max HP {}. When attacked, deal {} of ATK as Arts damage and &lt;$ba.dt.apoptosis2&gt;Necrosis Damage&lt;/&gt; to nearby ground enemies (can only activate once every {} seconds). When receiving &lt;$ba.dt.element&gt;Elemental damage&lt;/&gt; within the skill duration, ATK{} until the skill ends</t>
-  </si>
-  <si>
-    <t>HP {}, recover all &lt;$ba.dt.element&gt;Elemental damage&lt;/&gt; and gain {} &lt;$ba.epbarrier&gt;Protective Barrier&lt;/&gt;</t>
-  </si>
-  <si>
-    <t>Vulpisfoglia</t>
-  </si>
-  <si>
-    <t>When deployed, increase the natural rate of DP regeneration by {}. If Vulpisfoglia has not received damage for {} seconds, recover {} HP every second</t>
-  </si>
-  <si>
     <t>&lt;@ba.vup&gt;{0}&lt;/&gt;</t>
   </si>
   <si>
@@ -710,148 +638,15 @@
   </si>
   <si>
     <t>&lt;$ba.cold&gt;Cold&lt;/&gt;</t>
-  </si>
-  <si>
-    <t>Immediately gain {} DP. Attack Range &lt;@ba.vup&gt;expand&lt;/&gt;, ATK{}. Massively increase Attack Speed, however the increase gradually decays to 0. Attack multiple enemies equal to Block Count and every attack &lt;$ba.stun&gt;Stun&lt;/&gt; the target for {} seconds.
-\nIf an enemy is defeated within the skill duration, gain Camouflage when the skill ends, lasting until the next skill activation</t>
-  </si>
-  <si>
-    <t>Attack range +1, ATK+ {}
-\n&lt;@ba.rem&gt;Unlimited duration&lt;/&gt;</t>
-  </si>
-  <si>
-    <t>Immediately gain {} DP and the next attack deals additional {} of ATK as Arts damage
-\n&lt;@ba.rem&gt;Can hold charges&lt;/&gt;</t>
-  </si>
-  <si>
-    <t>Immediately gain {} DP. Deal {} of ATK as Arts damage to nearby enemies and &lt;$ba.sluggish&gt;Slow&lt;/&gt; them for {} seconds. If the enemies are already &lt;$ba.sluggish&gt;Slowed&lt;/&gt;, &lt;$ba.stun&gt;Stun&lt;/&gt; them for {} seconds
-\n&lt;@ba.rem&gt;Can hold charges&lt;/&gt;</t>
-  </si>
-  <si>
-    <t>Lappland the Decadenza</t>
-  </si>
-  <si>
-    <t>When deployed, Drones periodically gain one of the following effects in order:
-&lt;/br&gt;Increase upper damage limit {}
-&lt;/br&gt;When dealing damage, Silence the target for {} seconds
-&lt;/br&gt;Drone +{}</t>
-  </si>
-  <si>
-    <t>When in squad, all [Siracusa] operators initial SP + {}</t>
-  </si>
-  <si>
-    <t>Passive: Drone +{}\n
-Active:Can switch between the default state and the following state:&lt;/br&gt;
-ATK {}. Release the Drones to randomly lock-on to and attack immobile enemies across the battlefield. When the target moves or is defeated, lock-on to a new enemy</t>
   </si>
   <si>
     <t>Can continue recovering SP after reaching the maximum. When SP reaches double the maximum, enters Charged state.
 Skills have additional effects when activated in Charged state (All SP will be consumed whenever the skill is activated)</t>
   </si>
   <si>
-    <t>Drone +{}, Attack Range &lt;@ba.vup&gt;expand&lt;/&gt;, ATK +{}. Release Drones to randomly lock-on to and attack enemies. When attacking, Drones have {} chance to inflict &lt;$ba.fear&gt;Fear&lt;/&gt; for {} seconds
-\n&lt;@ba.rem&gt;The Drones will lock-on to a new enemy after the enemy is killed or the skill ends&lt;/&gt;</t>
-  </si>
-  <si>
-    <t>Drones + {} , ATK +{}. Send out Drones in a special form, each of which then pursues the nearest enemy across the battlefield. Upon reaching their target, inflict&lt;$ba.fear&gt;Fear&lt;/&gt; for {} seconds, then lock-on and attack the target. Enemies nearby the Drones will have reduced Movement Speed by {} and receive {} of ATK as Arts damage every second
-\n&lt;@ba.rem&gt;The Drones will lock-on to a new enemy after the enemy is killed or the skill ends&lt;/&gt;</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Virtuosa</t>
-  </si>
-  <si>
-    <t>Enemies within attack range take {} more &lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;. While enemies take &lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt; apply {} &lt;$ba.elementfragile&gt;Elemental Fragility&lt;/&gt; to them</t>
-  </si>
-  <si>
-    <t>Enemies within attack range take {} more &lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt; &lt;@ba.talpu&gt;(+2%)&lt;/&gt;. While enemies take &lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt; apply {} &lt;$ba.elementfragile&gt;Elemental Fragility&lt;/&gt; to them</t>
-  </si>
-  <si>
-    <t>Valarqvin</t>
-  </si>
-  <si>
-    <t>ATK +{}, ASPD +6. When attcking enemy under the burst effect of &lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt; &lt;$ba.sluggish&gt;Slow&lt;/&gt; them for {} seconds</t>
-  </si>
-  <si>
-    <t>ATK +{} &lt;@ba.talpu&gt;(+1%)&lt;/&gt;, ASPD +7 &lt;@ba.talpu&gt;(+1)&lt;/&gt;. When attcking enemy under the burst effect of &lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt; &lt;$ba.sluggish&gt;Slow&lt;/&gt; them for {} seconds</t>
-  </si>
-  <si>
-    <t>Bobbing</t>
-  </si>
-  <si>
-    <t>RIT - X</t>
-  </si>
-  <si>
     <t>Mod Trait</t>
   </si>
   <si>
-    <t>Increase Elemental damage taken by Elite/Boss enemies by 18%</t>
-  </si>
-  <si>
-    <t>The first hit on each enemy deal {} of ATK as &lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt; for 5 seconds</t>
-  </si>
-  <si>
-    <t>The first hit on each enemy deal {}&lt;@ba.talpu&gt;(+2%)&lt;/&gt; of ATK as &lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt; for 5 seconds</t>
-  </si>
-  <si>
-    <t>When in squad, all [Siracusa] operators initial SP +5. When using skill for the first time, ASPD+{}</t>
-  </si>
-  <si>
-    <t>After dealing damage to an enemy for the first time, for 10 seconds, Vulpisfoglia deals addition {} of ATK as Arts damage when dealing damage to them</t>
-  </si>
-  <si>
-    <t>Lessing</t>
-  </si>
-  <si>
-    <t>Rosmontis</t>
-  </si>
-  <si>
-    <t>When blocking, take 35% less Physical and Arts damage from enemies not blocked by this unit. When attack enemies blocked by self, ignore {} DEF</t>
-  </si>
-  <si>
-    <t>When blocking, take {} less Physical and Arts damage from enemies not blocked by this unit. When attack enemies blocked by selff, ignore {} DEF</t>
-  </si>
-  <si>
-    <t>IS Mod Trait</t>
-  </si>
-  <si>
-    <t>Rosmon IS Mod</t>
-  </si>
-  <si>
-    <t>Angie IS Mod</t>
-  </si>
-  <si>
-    <t>In [Integrated Strategies], attack deal addition 100% of ATK as Arts damage</t>
-  </si>
-  <si>
-    <t>When deployed, grants +8% ATK to this unit and a random deployed Caster Operator ;\n
-In &lt;@ba.kw&gt;[Integrated Strategies]&lt;/&gt;, Rosmontis also receive effect from [Caster]-related collectibles, when deploy [Sniper] and [Caster] operater, deploy 1 Tactical Equipment in deploying operator 's Attack Range</t>
-  </si>
-  <si>
-    <t>When deployed, grants +8% ATK to this unit and a random deployed Caster Operator ;\n
-In &lt;@ba.kw&gt;[Integrated Strategies]&lt;/&gt;, Rosmontis also receive effect from [Caster]-related collectibles, when deploy [Sniper] and [Caster] operater, deploy 1 stronger Tactical Equipment with special effect in deploying operator 's Attack Range</t>
-  </si>
-  <si>
-    <t>Angelina</t>
-  </si>
-  <si>
-    <t>In [Integrated Strategies], All enemies -1 Weight Level</t>
-  </si>
-  <si>
-    <t>All allies' ASPD +8 &lt;@ba.talpu&gt;(+1)&lt;/&gt;; when enemies being shifted or in &lt;$ba.levitate&gt;Levitate&lt;/&gt; state, receive {} of ATK as Arts damage every 0.5 second</t>
-  </si>
-  <si>
-    <t>All allies' ASPD +7; While enemies being shifted or in &lt;$ba.levitate&gt;Levitate&lt;/&gt; state, receive {} of ATK as Arts damage every 0.5 second</t>
-  </si>
-  <si>
-    <t>All allies' ASPD +7; While enemies being shifted or in &lt;$ba.levitate&gt;Levitate&lt;/&gt; state, receive {} of ATK as Arts damage every 0.5 second. When skill is active, Angelina &lt;$ba.levitate&gt;Levitate&lt;/&gt; enemies for {} seconds, when attacking &lt;$ba.levitate&gt;Levitated&lt;/&gt; enemies, refresh &lt;$ba.levitate&gt;Levitate&lt;/&gt; effect duration</t>
-  </si>
-  <si>
-    <t>All allies' ASPD +8 &lt;@ba.talpu&gt;(+1)&lt;/&gt;; when enemies being shifted or in &lt;$ba.levitate&gt;Levitate&lt;/&gt; state, receive {} of ATK as Arts damage every 0.5 second. When skill is active, Angelina &lt;$ba.levitate&gt;Levitate&lt;/&gt; enemies for {} seconds, when attacking &lt;$ba.levitate&gt;Levitated&lt;/&gt; enemies, refresh &lt;$ba.levitate&gt;Levitate&lt;/&gt; effect duration</t>
-  </si>
-  <si>
     <t>ba.liftoff</t>
   </si>
   <si>
@@ -862,13 +657,1416 @@
   </si>
   <si>
     <t>&lt;$ba.fly&gt;Takes off&lt;/&gt;</t>
+  </si>
+  <si>
+    <t>Thorns the Lodestar</t>
+  </si>
+  <si>
+    <t>Tecno</t>
+  </si>
+  <si>
+    <t>Rose Salt</t>
+  </si>
+  <si>
+    <t>Shaper Caster</t>
+  </si>
+  <si>
+    <t>Arts Fighter X</t>
+  </si>
+  <si>
+    <t>Arts Fighter Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, allies within Attack Range receive increased healing amount by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Attack Interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;@ba.vup&gt;reduced&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Physical and Arts damage taken by allies within Attack Range is converted into HP loss over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The next heal recovers HP equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK&lt;/br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Can hold </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>charges&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Tecno 's summon</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When there are other operators within Attack Range, increase the duration of Alchemical units by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Throws an Alchemical unit at an ally. All allies within the 8 surrounding tiles of the impact location DEF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and recovering </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP every second</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Throws an Alchemical unit, reducing the healing received of ground enemies near the impact location by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage every second for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds; Additionally, allies recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP every second. The Alchemical unit slowly moves further and gradually expands effect range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Arts Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ???</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Passive: Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Active: Throws Alchemical units at multiple allies with the lowest Block Count. For </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds, enemies within the encircled area have ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, DEF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and RES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (does not stack), and receive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage every second. The effect gradually strengthens (reaching a maximum after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds)</t>
+    </r>
+  </si>
+  <si>
+    <t>Surtr</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RES</t>
+    </r>
+  </si>
+  <si>
+    <t>Viviana</t>
+  </si>
+  <si>
+    <t>Vina Victoria</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Arts Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; When not blocking enemies, ASPD +8</t>
+    </r>
+  </si>
+  <si>
+    <t>Arts Fighter D</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Arts Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Inflict 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.magicfragile&gt;Arts Fragility&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to enemies block by self</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Arts Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can create Summons by defeating enemies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can attack enemies blocked by own Summons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reduce Physical damage recieved by self and ally within 8 surrounding tiles by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and each ally increase Vina ATK by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reduce Physical damage recieved by self and ally within 8 surrounding tiles by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and each ally increase Vina ATK by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1%)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Amiya (Guard)</t>
+  </si>
+  <si>
+    <t>Astesia</t>
+  </si>
+  <si>
+    <r>
+      <t>All allied units on the battlefield gain +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK and DEF, doubled when this unit's skill is active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For every 20 seconds Astesia stays on the battlefield, ASPD +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, DEF +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stacking up to 5 times</t>
+    </r>
+  </si>
+  <si>
+    <t>Sideroca</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Has a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to attack twice in a row when attacking</t>
+    </r>
+  </si>
+  <si>
+    <t>Mousse</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK -5%, allies within Attack Range receive increased healing amount by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK -5%, allies within Attack Range receive increased healing amount by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Exusiai</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASPD +12; Continuous attacks gradually ignore increasing amounts of the target's DEF, up to a maximum of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of its DEF (each attack increases the DEF ignored by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, additive). This bonus is lost when no attacks have been made within </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies, Sideroca gains +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASPD and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.buffres&gt;status resistance&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(-2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies, Sideroca gains +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASPD and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.buffres&gt;status resistance&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Has a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to attack twice in a row when attacking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASPD +15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+3)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Continuous attacks gradually ignore increasing amounts of the target's DEF, up to a maximum of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of its DEF (each attack increases the DEF ignored by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, additive). This bonus is lost when no attacks have been made within </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Arts Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; When target is under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.burning2&gt;Burn Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, deal an additional 15% ATK as Elemental damage</t>
+    </r>
+  </si>
+  <si>
+    <t>Deal +8% Arts damage , take -8% Physical and Arts damage and inflict {0%} of damage dealt as &lt;$ba.dt.burning2&gt;Burn Damage&lt;/&gt;. Double effect if there is an elite or leader enemy within attack range</t>
+  </si>
+  <si>
+    <t>Deal +9% &lt;@ba.talpu&gt;(+1%)&lt;/&gt; Arts damage, take -9% &lt;@ba.talpu&gt;(-1%)&lt;/&gt; Physical and Arts damage and inflict {0%} of damage dealt as &lt;$ba.dt.burning2&gt;Burn Damage&lt;/&gt;. Double effect if there is an elite or leader enemy within attack range</t>
+  </si>
+  <si>
+    <t>When a ground enemy within Attack Range is defeated, create a Dance Puppet at its location ({max count}). Puppet Dancer deal Arts damage</t>
+  </si>
+  <si>
+    <t>ATK +{0%}. Puppet Dancer Block Count +{0}, Max HP +{0%}, DEF +{0%}</t>
+  </si>
+  <si>
+    <t>Attack Range &lt;@ba.kw&gt;expand&lt;/&gt;, Tecno and her Puppet Dancer Attack Speed +{0}. Puppet Dancer attack change to Ranged, attacks enemies in Tecno's Attack Range
+When the skill ends, recall all Puppet Dancer on deployable ground tiles near Tecno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +2105,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0FF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1060,7 +2286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1117,9 +2343,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,12 +2360,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,14 +2376,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="37">
     <dxf>
       <font>
         <b val="0"/>
@@ -1190,11 +2407,48 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
         <right style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </right>
@@ -1204,6 +2458,335 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </vertical>
@@ -1224,7 +2807,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF00B0FF"/>
+        <color theme="0"/>
         <name val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1235,14 +2818,12 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </top>
@@ -1280,7 +2861,7 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -1325,7 +2906,33 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -1339,6 +2946,25 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </vertical>
@@ -1370,7 +2996,7 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -1393,10 +3019,324 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
         <bottom style="thin">
-          <color theme="0"/>
+          <color theme="0" tint="-0.499984740745262"/>
         </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1432,6 +3372,13 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1466,783 +3413,14 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0098FF"/>
       <color rgb="FF00B0FF"/>
       <color rgb="FFF49800"/>
       <color rgb="FFFF6237"/>
-      <color rgb="FF0098FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2257,69 +3435,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C16CB9E1-C747-45DF-B3A2-348B6D400693}" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C16CB9E1-C747-45DF-B3A2-348B6D400693}" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
   <autoFilter ref="A1:E51" xr:uid="{373BD71A-3DF4-4BC2-B1FE-B89A538D34FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1BDC0A72-6D09-4EE6-A806-0E6B91CABBAA}" name="Keyword" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{07C2DF2B-28B9-440F-BAE8-1CBC9A743A7E}" name="Type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C0AE2D09-B9F4-4996-A1F9-3C21AB7EDA04}" name="kw" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2D825A5B-8764-4E3E-8043-70A50DB4AB22}" name="Color" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{7C465D26-20BE-4736-A643-089B09CA7FD8}" name="Details" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1BDC0A72-6D09-4EE6-A806-0E6B91CABBAA}" name="Keyword" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{07C2DF2B-28B9-440F-BAE8-1CBC9A743A7E}" name="Type" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C0AE2D09-B9F4-4996-A1F9-3C21AB7EDA04}" name="kw" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{2D825A5B-8764-4E3E-8043-70A50DB4AB22}" name="Color" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{7C465D26-20BE-4736-A643-089B09CA7FD8}" name="Details" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6968D02B-2C35-4522-99E1-BA51530B4553}" name="Table2" displayName="Table2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:C10" xr:uid="{71236087-20BC-4953-BFDF-0CA4834863A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6968D02B-2C35-4522-99E1-BA51530B4553}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:C5" xr:uid="{71236087-20BC-4953-BFDF-0CA4834863A9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D84A1065-D5C9-46A0-A7AB-4B9ADC68B4C5}" name="Op" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{38256F81-A768-4F88-935E-457B88738A34}" name="Talent" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{54030400-8D62-49B2-BCCF-83684F84DEAA}" name="Details" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{D84A1065-D5C9-46A0-A7AB-4B9ADC68B4C5}" name="Op" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{38256F81-A768-4F88-935E-457B88738A34}" name="Talent" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{54030400-8D62-49B2-BCCF-83684F84DEAA}" name="Details" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C16" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
-  <autoFilter ref="A1:C16" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:C8" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{212359CB-4A30-4872-99A6-07552DAAAE97}" name="Details" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{212359CB-4A30-4872-99A6-07552DAAAE97}" name="Details" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:D29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A1:D29" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C31" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:C31" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
     <sortCondition ref="A2:A21"/>
     <sortCondition ref="B2:B21"/>
-    <sortCondition ref="C2:C21"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{50F70B67-1B23-4DF7-8DD7-86DD00BC566C}" name="No." dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{224BD11C-823E-43C3-A2EF-F8A264F71916}" name="Detail" dataDxfId="17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{224BD11C-823E-43C3-A2EF-F8A264F71916}" name="Detail" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCADEFEA-1805-4979-9482-D8E3D6498FC3}" name="Table5" displayName="Table5" ref="A1:D6" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCADEFEA-1805-4979-9482-D8E3D6498FC3}" name="Table5" displayName="Table5" ref="A1:D6" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D6" xr:uid="{3AD9D22D-2502-4D5C-8AA0-534854093817}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7324A2AE-1F85-4F21-8A09-2886AAE0CF24}" name="New" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A602D952-3063-4C60-8090-59FB6704A6C8}" name="From" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{249AEA3B-3B79-45AF-B657-BEED4FAD9C80}" name="Type" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{3FC14EBF-5FC4-4805-820A-A79DFFCA0084}" name="Detail" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{7324A2AE-1F85-4F21-8A09-2886AAE0CF24}" name="New" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A602D952-3063-4C60-8090-59FB6704A6C8}" name="From" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{249AEA3B-3B79-45AF-B657-BEED4FAD9C80}" name="Type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3FC14EBF-5FC4-4805-820A-A79DFFCA0084}" name="Detail" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2590,9 +3766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E696680-5C0C-47EA-B8F5-3DDA6BE989A2}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2616,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -2624,64 +3800,64 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -2692,784 +3868,784 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D13" s="15">
         <v>0</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D15" s="15">
         <v>0</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D17" s="15">
         <v>0</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D18" s="15">
         <v>0</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D19" s="15">
         <v>0</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D20" s="15">
         <v>0</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D22" s="15">
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D23" s="15">
         <v>0</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D24" s="15">
         <v>0</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D25" s="15">
         <v>0</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D26" s="15">
         <v>0</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D27" s="15">
         <v>0</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D28" s="15">
         <v>0</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D29" s="15">
         <v>0</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D31" s="15">
         <v>0</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D32" s="15">
         <v>0</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D34" s="15">
         <v>0</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D36" s="15">
         <v>0</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D38" s="15">
         <v>0</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D39" s="15">
         <v>0</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D40" s="15">
         <v>0</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D44" s="15">
         <v>0</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D46" s="15">
         <v>0</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D47" s="15">
         <v>0</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D48" s="15">
         <v>0</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D50" s="15">
         <v>0</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="D51" s="15">
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3483,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -3510,101 +4686,44 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3618,10 +4737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3633,610 +4752,457 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="25">
+      <c r="A2" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>11</v>
+      <c r="C2" s="25" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25">
+      <c r="A3" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>163</v>
+      <c r="C3" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="25">
+      <c r="A4" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="C4" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="C5" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="24">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>164</v>
+      <c r="C6" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="25">
+      <c r="A7" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="24">
         <v>1</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="C7" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="24">
         <v>2</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="25">
-        <v>1</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="25">
-        <v>2</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="25">
-        <v>1</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="25">
-        <v>2</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13" s="25">
-        <v>3</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="25">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="25">
-        <v>2</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" s="28">
-        <v>3</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>237</v>
+      <c r="C8" s="25" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="255.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B14" s="19">
+        <v>2</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="19">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C15" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="19">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="19">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="19">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="C18" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="19">
         <v>2.5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B20" s="19">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="C20" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="19">
         <v>3.5</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="C21" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C22" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="19">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="19">
+        <v>3</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="19">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="C28" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="19">
         <v>2.5</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="C29" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="19">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="C30" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="35">
         <v>3.5</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="19">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="19">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
-        <v>4</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="19">
-        <v>2</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
-        <v>4</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="19">
-        <v>3</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
-        <v>5</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="19">
-        <v>2</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="C31" s="8" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
-        <v>5</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="19">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>6</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="19">
-        <v>2</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
-        <v>7</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="19">
-        <v>3</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
-        <v>8</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="38">
-        <v>2</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
-        <v>8</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="19">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
-        <v>9</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="38">
-        <v>2</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>9</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="19">
-        <v>3</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
-        <v>10</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="38">
-        <v>2</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="38">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="38">
-        <v>10</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="19">
-        <v>3</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
-        <v>10</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C29" s="38">
-        <v>3.5</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4253,100 +5219,100 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="66" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>162</v>
+      <c r="A2" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>169</v>
+      <c r="A3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>260</v>
+      <c r="A4" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>264</v>
+      <c r="A6" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AN-EN-Tags-NEW\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB25F47-A36D-4421-A19E-6ABEDE3F7B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75CE7B1-AB28-4D21-9A63-57D2970595FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="249">
   <si>
     <t>Op</t>
   </si>
@@ -494,17 +494,133 @@
     <t>Takes off</t>
   </si>
   <si>
-    <t>Entelechia</t>
-  </si>
-  <si>
-    <t>Nowell</t>
-  </si>
-  <si>
-    <t>When this unit's HP falls beneath 25%, restores 50% HP (one time only) and gain 10% Physical damage reduction</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack </t>
+    <r>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;@ba.vdown&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;@ba.rem&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;@ba.kw&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;@ba.talpu&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.sluggish&gt;</t>
     </r>
     <r>
       <rPr>
@@ -514,6 +630,1731 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Slow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.root&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.stun&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.buffres&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Status Resistance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.invisible&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Invisible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.camou&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camouflage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.fragile&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fragile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.shield&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.protect&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sanctuary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.cold&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.frozen&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frozen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.sleep&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.inspire&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inspiration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.binding&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.neural&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nervous Impairment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.charged&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Charged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vigor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.erosion&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Corrosion Damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.burning&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burn Damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.float&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Low-Altitude Hovering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.refraction&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Refraction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.element&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elemental Damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.overdrive&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Overload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.apoptosis&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Necrosis Damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.debuff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Negative Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.levitate&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Levitate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.physhield&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Physical Shield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.magicfragile&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arts Fragility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.elementfragile&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elemental Fragility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dying&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Critically Wounded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.barrier&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Barrier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.weightless&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weightless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.berserk&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tenacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.steal&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.weaken&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enfeeble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.apoptosis2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Necrosis Damage - Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.epbarrier&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protective Barrier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.tremble&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frighten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.burning2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burn damage - Ally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.fear&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.addash&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.magicpoint&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.chant&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chanting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.laiosteam&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Laios' Party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.fly&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Takes off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Cannot be blocked and runs off uncontrollably</t>
+  </si>
+  <si>
+    <t>ba.physicfragile</t>
+  </si>
+  <si>
+    <t>Physical Fragility</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.physicfragile&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Physical Fragility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Amplifies all Physical damage taken by the corresponding amount (only the strongest effect of this type applies)</t>
+  </si>
+  <si>
+    <t>Cannot leave the field; will deploy at the target location with the current HP</t>
+  </si>
+  <si>
+    <t>Necrass</t>
+  </si>
+  <si>
+    <t>Wulfenite</t>
+  </si>
+  <si>
+    <t>Brigid</t>
+  </si>
+  <si>
+    <t>Thorns the Lodestar</t>
+  </si>
+  <si>
+    <t>Tin Man</t>
+  </si>
+  <si>
+    <t>Gnosis</t>
+  </si>
+  <si>
+    <t>Vigil</t>
+  </si>
+  <si>
+    <t>Saileach</t>
+  </si>
+  <si>
+    <t>Pozyomka</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks from the 'Typewriter' reduce the target's DEF by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds; if the 'Typewriter' is placed within the 4 tiles adjacent to Pozëmka, this effect increases to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks from the 'Typewriter' reduce the target's DEF by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds; if the 'Typewriter' is placed within the 4 tiles adjacent to Pozëmka, this effect increases to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(+2%)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Flagbearer</t>
+  </si>
+  <si>
+    <t>Alchemist</t>
+  </si>
+  <si>
+    <t>Mod Y</t>
+  </si>
+  <si>
+    <t>Mod X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Physical Dodge after attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times</t>
+    </r>
+  </si>
+  <si>
+    <t>Necrass Tok skill</t>
+  </si>
+  <si>
+    <t>When there are alchemical units on the field, increase SP recovery rate by +0.1 SP/sec</t>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When there are other operators within Attack Range, increase the duration of Alchemical units by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+4%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When there are other operators within Attack Range, increase the duration of Alchemical units by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increases the continuous damage dealt to ground enemies in range of Tin Man's Alchemical Units by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increases the continuous damage dealt to ground enemies in range of Tin Man's Alchemical Units by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When a trap is triggered, if there are 2 or more enemies in trap range, increase damage by/to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{%}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.buffres&gt;Resist&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Karlan Trade]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Operators after Gnosis has been deployed for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vigil and the Wolfpack's attacks ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>175</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF when attacking enemies blocked by the Wolfpack and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
     </r>
     <r>
@@ -529,22 +2370,52 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP from the target (Caps at </t>
+      <t>{def_steal}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF from the target (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -554,17 +2425,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) and deal </t>
+      <t>{def_steal_max}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vigil and the Wolfpack's attacks ignore </t>
     </r>
     <r>
       <rPr>
@@ -574,17 +2460,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage every second for </t>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+25)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF when attacking enemies blocked by the Wolfpack and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -594,22 +2530,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> second</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increase healing amount by </t>
+      <t>{def_steal}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF from the target (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -619,17 +2570,137 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when heal operators under </t>
+      <t>{def_steal_max}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After deployment, the next Operator has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP Cost. If the next Operator is a Melee Operator, gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP</t>
+    </r>
+  </si>
+  <si>
+    <t>When Necrass or The Servant of Laments attack enemies with less than {%} HP, ATK + {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can deploy up to 8 Rocky Chomper traps (Can store up to 10); The first enemy that steps on a trap will trigger its effect </t>
+  </si>
+  <si>
+    <t>Immediately puts up to &lt;@ba.vup&gt;{max_target}&lt;/&gt; enemies within Attack Range to &lt;$ba.sleep&gt;Sleep&lt;/&gt; and deal &lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt; ATK as Arts damage every &lt;@ba.vup&gt;{interval}&lt;/&gt; second. If the targets are defeated within the skill duration, summon &lt;@ba.vup&gt;{additional_token_cnt}&lt;/&gt; additional Servant of Laments</t>
+  </si>
+  <si>
+    <t>Passive: Each time The Servant of Lament is summoned or levelled up, deal &lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt; ATK as Arts damage to nearby enemies\n
+Active: Immediately resummon all Servant of Laments. If there are no Servant of Laments currently on the field, summon 1 Servant of Laments instead</t>
+  </si>
+  <si>
+    <t>When an enemy within Attack Range is defeated, summon The Servant of Lament at its location (up to 3). If no more Servant of Laments can be summoned, upgrade one Servant of Lament instead (increase Block Count, HP, ATK and DEF)</t>
+  </si>
+  <si>
+    <t>Passive: Up to 1 Servant of Lament change into a special form which can only upgrade through skill up to a {attack@max_stack_cnt} times\n
+Active: Immediately deal @ba.vup&gt;{attack@atk_scale:0%}&lt;/&gt; ATK as Arts damage to all enemies within range, then consume 1 Servant of Lament to upgrade the special Servant and recover &lt;@ba.vup&gt;{attack@hp_ratio:0%}&lt;/&gt; HP (If The Servant of Lament is already levelled, this effect is doubled). After a The Servant of Lament is consumed, can repeat &lt;@ba.vup&gt;{attack@necras_s_3[attack_cnt].max_stack_cnt}&lt;/&gt; times</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Passive Effect: When a trap is triggered, deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage to all enemies in range and </t>
     </r>
     <r>
       <rPr>
@@ -639,21 +2710,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.debuff&gt;negative statuses&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> effect</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>&lt;$ba.stun&gt;stun&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{stun}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> second(s)\nActive Effect: Immediately gets 1 trap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Passive Effect: When a trap is triggered, deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
@@ -664,22 +2765,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;@ba.vdown&gt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage &lt;@ba.vup&gt;twice&lt;/&gt; to all enemies in range and inflicts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -689,22 +2805,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>-{-def:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;@ba.rem&gt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF (does not stack) to the targets for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -714,22 +2845,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>{duration}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;@ba.kw&gt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds\nActive Effect: Immediately gets 1 trap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The next attack deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -739,22 +2890,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>{attack@atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;@ba.talpu&gt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage, and repeatedly bounce between enemies (up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{times}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -764,22 +2955,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>+{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.sluggish&gt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, projectiles stick on target </t>
     </r>
     <r>
       <rPr>
@@ -789,22 +2985,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Slow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.root&gt;</t>
+      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{attack@sluggish}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds and slash them for &lt;@ba.vup&gt;4&lt;/&gt; additional times</t>
+    </r>
+  </si>
+  <si>
+    <t>When there are elite or leader enemies within Attack Range, increase SP recovery rate by +0.25 SP/sec</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cannot block enemies but gain </t>
     </r>
     <r>
       <rPr>
@@ -814,1447 +3033,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.stun&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.buffres&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Status Resistance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.invisible&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Invisible</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.camou&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Camouflage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.fragile&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fragile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.shield&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Shield</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.protect&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sanctuary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.cold&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cold</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.frozen&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frozen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.sleep&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sleep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.inspire&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inspiration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.binding&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tied</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.neural&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nervous Impairment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.charged&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Charged</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.strong&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vigor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.erosion&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Corrosion Damage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.burning&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Burn Damage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.float&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Low-Altitude Hovering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.refraction&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Refraction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.element&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Elemental Damage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.overdrive&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Overload</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.apoptosis&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Necrosis Damage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.debuff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Negative Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.levitate&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Levitate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.physhield&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Physical Shield</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.magicfragile&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Arts Fragility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.elementfragile&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Elemental Fragility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dying&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Critically Wounded</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.barrier&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Barrier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.weightless&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Weightless</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.berserk&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tenacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.steal&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.weaken&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enfeeble</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.apoptosis2&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Necrosis Damage - Player</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.epbarrier&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Protective Barrier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.tremble&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frighten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.burning2&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Burn damage - Ally</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.fear&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.addash&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.magicpoint&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mana</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.chant&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chanting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.laiosteam&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Laios' Party</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.fly&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Takes off</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Cannot be blocked and runs off uncontrollably</t>
-  </si>
-  <si>
-    <t>ba.physicfragile</t>
-  </si>
-  <si>
-    <t>Physical Fragility</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.physicfragile&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Physical Fragility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Amplifies all Physical damage taken by the corresponding amount (only the strongest effect of this type applies)</t>
-  </si>
-  <si>
-    <t>Cannot leave the field; will deploy at the target location with the current HP</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ATK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+{atk:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, ASPD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+{attack_speed}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, prioritizes healing units with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.debuff&gt;negative statuses&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The ATK of next attack increases to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, attacking twice consecutively</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Stop attacking, summon Blood Scythes on herself and &lt;@ba.vup&gt;1&lt;/&gt; other ground units, slice all nearby enemies every &lt;@ba.vup&gt;0.5&lt;/&gt; second dealing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ATK &lt;@ba.vup&gt;+{atk:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, ASPD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+{attack_speed}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, summon corresponding Heart Candles up to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;@ba.vup&gt;3&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ground enemies with the highest HP within Attack Range. When attacking the Heart Candles, deals at least </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK damage every attack. Each Heart Candle inherit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vdown&gt;{attack@max_hp_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the target's current HP, when attacked the target also receive the same amount of damage. \n&lt;@ba.rem&gt;Heart Candles can only be attacked by Entelechia&lt;/&gt;"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Causes the 2 targets (prioritizes units with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.debuff&gt;negative statuses&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) to receive healing equal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{heal_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Nowell 's ATK every second and gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.buffres&gt;Status Resistance&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{status_resistance[limit]}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
+      <t>&lt;$ba.camou&gt;camouflage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during the skill duration</t>
     </r>
   </si>
 </sst>
@@ -2333,7 +3122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2449,21 +3238,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2537,13 +3339,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2574,6 +3372,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3600,8 +4411,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0098FF"/>
       <color rgb="FF00B0FF"/>
-      <color rgb="FF0098FF"/>
       <color rgb="FFFF6237"/>
       <color rgb="FFF49800"/>
     </mruColors>
@@ -3632,8 +4443,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6968D02B-2C35-4522-99E1-BA51530B4553}" name="Table2" displayName="Table2" ref="A1:C7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:C7" xr:uid="{71236087-20BC-4953-BFDF-0CA4834863A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6968D02B-2C35-4522-99E1-BA51530B4553}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:C5" xr:uid="{71236087-20BC-4953-BFDF-0CA4834863A9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D84A1065-D5C9-46A0-A7AB-4B9ADC68B4C5}" name="Op" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{38256F81-A768-4F88-935E-457B88738A34}" name="Talent" dataDxfId="24"/>
@@ -3644,8 +4455,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C6" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:C6" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C9" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:C9" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="17"/>
@@ -3656,8 +4467,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:C9" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:C23" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
     <sortCondition ref="A2:A9"/>
     <sortCondition ref="B2:B9"/>
@@ -3950,8 +4761,8 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3985,11 +4796,11 @@
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -4002,11 +4813,11 @@
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -4019,11 +4830,11 @@
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -4036,11 +4847,11 @@
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D5" s="14">
         <v>0</v>
@@ -4053,11 +4864,11 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -4070,11 +4881,11 @@
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
@@ -4087,11 +4898,11 @@
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D8" s="14">
         <v>0</v>
@@ -4104,11 +4915,11 @@
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D9" s="14">
         <v>0</v>
@@ -4121,11 +4932,11 @@
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D10" s="14">
         <v>0</v>
@@ -4138,11 +4949,11 @@
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
@@ -4155,11 +4966,11 @@
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D12" s="14">
         <v>0</v>
@@ -4172,11 +4983,11 @@
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D13" s="14">
         <v>0</v>
@@ -4189,11 +5000,11 @@
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
@@ -4206,11 +5017,11 @@
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D15" s="14">
         <v>0</v>
@@ -4223,11 +5034,11 @@
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D16" s="14">
         <v>0</v>
@@ -4240,11 +5051,11 @@
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
@@ -4257,11 +5068,11 @@
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D18" s="14">
         <v>0</v>
@@ -4274,11 +5085,11 @@
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D19" s="14">
         <v>0</v>
@@ -4291,11 +5102,11 @@
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D20" s="14">
         <v>0</v>
@@ -4308,11 +5119,11 @@
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D21" s="14">
         <v>0</v>
@@ -4325,11 +5136,11 @@
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D22" s="14">
         <v>0</v>
@@ -4342,11 +5153,11 @@
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D23" s="14">
         <v>0</v>
@@ -4359,11 +5170,11 @@
       <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D24" s="14">
         <v>0</v>
@@ -4376,11 +5187,11 @@
       <c r="A25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
@@ -4393,11 +5204,11 @@
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
@@ -4410,11 +5221,11 @@
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D27" s="14">
         <v>0</v>
@@ -4427,11 +5238,11 @@
       <c r="A28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="39" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D28" s="14">
         <v>0</v>
@@ -4444,11 +5255,11 @@
       <c r="A29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D29" s="14">
         <v>0</v>
@@ -4461,11 +5272,11 @@
       <c r="A30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="39" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D30" s="14">
         <v>0</v>
@@ -4478,11 +5289,11 @@
       <c r="A31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
@@ -4495,11 +5306,11 @@
       <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="39" t="s">
         <v>96</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D32" s="14">
         <v>0</v>
@@ -4512,11 +5323,11 @@
       <c r="A33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D33" s="14">
         <v>0</v>
@@ -4529,11 +5340,11 @@
       <c r="A34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D34" s="14">
         <v>0</v>
@@ -4546,11 +5357,11 @@
       <c r="A35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D35" s="14">
         <v>0</v>
@@ -4563,11 +5374,11 @@
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="39" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D36" s="14">
         <v>0</v>
@@ -4580,11 +5391,11 @@
       <c r="A37" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D37" s="14">
         <v>0</v>
@@ -4597,11 +5408,11 @@
       <c r="A38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="39" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D38" s="14">
         <v>0</v>
@@ -4614,11 +5425,11 @@
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="39" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D39" s="14">
         <v>0</v>
@@ -4631,11 +5442,11 @@
       <c r="A40" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="39" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D40" s="14">
         <v>0</v>
@@ -4648,11 +5459,11 @@
       <c r="A41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="39" t="s">
         <v>123</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D41" s="14">
         <v>0</v>
@@ -4665,11 +5476,11 @@
       <c r="A42" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="39" t="s">
         <v>126</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D42" s="14">
         <v>0</v>
@@ -4682,11 +5493,11 @@
       <c r="A43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="39" t="s">
         <v>129</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D43" s="14">
         <v>0</v>
@@ -4699,11 +5510,11 @@
       <c r="A44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>132</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D44" s="14">
         <v>0</v>
@@ -4716,11 +5527,11 @@
       <c r="A45" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D45" s="14">
         <v>0</v>
@@ -4733,45 +5544,45 @@
       <c r="A46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="39" t="s">
         <v>138</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D46" s="14">
         <v>0</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="39" t="s">
         <v>140</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D47" s="14">
         <v>0</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="39" t="s">
         <v>142</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D48" s="14">
         <v>0</v>
@@ -4784,11 +5595,11 @@
       <c r="A49" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="39" t="s">
         <v>145</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D49" s="14">
         <v>0</v>
@@ -4801,11 +5612,11 @@
       <c r="A50" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="39" t="s">
         <v>148</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D50" s="14">
         <v>0</v>
@@ -4818,11 +5629,11 @@
       <c r="A51" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="39" t="s">
         <v>153</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D51" s="14">
         <v>0</v>
@@ -4832,20 +5643,20 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>211</v>
+      <c r="A52" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>206</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D52" s="14">
         <v>0</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4859,17 +5670,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="203.875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="203.875" style="35" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4880,57 +5691,53 @@
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>157</v>
+      <c r="C2" s="33" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>156</v>
+      <c r="C3" s="33" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>158</v>
+      <c r="C4" s="33" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="35"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="36"/>
+      <c r="A5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4943,17 +5750,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" activeCellId="1" sqref="C6 C10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="196.375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="196.375" style="37" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4964,64 +5771,93 @@
       <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B3" s="21">
         <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B4" s="21">
         <v>3</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="B6" s="21">
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>219</v>
-      </c>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="44">
+        <v>2</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -5035,17 +5871,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="194.75" style="39" customWidth="1"/>
+    <col min="3" max="3" width="208.75" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5056,19 +5892,19 @@
       <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="B2" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>156</v>
+      <c r="C2" s="33" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5076,8 +5912,8 @@
       <c r="B3" s="18">
         <v>2.5</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>156</v>
+      <c r="C3" s="33" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5085,8 +5921,8 @@
       <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>156</v>
+      <c r="C4" s="33" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5094,19 +5930,19 @@
       <c r="B5" s="18">
         <v>3.5</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>156</v>
+      <c r="C5" s="33" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>158</v>
+      <c r="C6" s="33" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5114,8 +5950,8 @@
       <c r="B7" s="18">
         <v>2.5</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>158</v>
+      <c r="C7" s="33" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5123,8 +5959,8 @@
       <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>158</v>
+      <c r="C8" s="33" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5132,8 +5968,144 @@
       <c r="B9" s="18">
         <v>3.5</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>158</v>
+      <c r="C9" s="33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="18">
+        <v>2</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="18">
+        <v>3</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="18">
+        <v>3</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="18">
+        <v>2</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="18">
+        <v>3</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5149,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA072BA0-A74B-4D64-9677-E60E9F767C6E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5177,27 +6149,46 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AN-EN-Tags-NEW\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75CE7B1-AB28-4D21-9A63-57D2970595FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFF9348-A4E8-4BB8-868A-3F74C336F893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="244">
   <si>
     <t>Op</t>
   </si>
@@ -1784,35 +1784,81 @@
     <t>Cannot leave the field; will deploy at the target location with the current HP</t>
   </si>
   <si>
-    <t>Necrass</t>
-  </si>
-  <si>
-    <t>Wulfenite</t>
-  </si>
-  <si>
-    <t>Brigid</t>
-  </si>
-  <si>
-    <t>Thorns the Lodestar</t>
-  </si>
-  <si>
-    <t>Tin Man</t>
-  </si>
-  <si>
-    <t>Gnosis</t>
-  </si>
-  <si>
-    <t>Vigil</t>
-  </si>
-  <si>
-    <t>Saileach</t>
-  </si>
-  <si>
-    <t>Pozyomka</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks from the 'Typewriter' reduce the target's DEF by </t>
+    <t>Mon3tr</t>
+  </si>
+  <si>
+    <t>Alanna</t>
+  </si>
+  <si>
+    <t>Windscoot</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>Cantabile</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>Surfer</t>
+  </si>
+  <si>
+    <t>Logos</t>
+  </si>
+  <si>
+    <t>Mudrock</t>
+  </si>
+  <si>
+    <t>Mod Trait</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The first hit on each enemy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.root&gt;Binds&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the target for 5 seconds and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steals&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1822,7 +1868,357 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>18%</t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK (effect expires when enemy is defeated or Ines retreats)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The first hit on each enemy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.root&gt;Binds&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the target for 5 seconds and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steals&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+10)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK (effect expires when enemy is defeated or Ines retreats)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASPD +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when not blocking an enemy, ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% when blocking an enemy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASPD +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when not blocking an enemy, ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when blocking an enemy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, recover 2 additional SP and reduce movement speed for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds when hitting an enemy with full HP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, recover 2 additional SP and reduce movement speed for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds when hitting an enemy with full HP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When deployed, if there are no operators within the adjacent 4 tiles, gain 2 DP and ASPD + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
     </r>
     <r>
       <rPr>
@@ -1842,17 +2238,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds; if the 'Typewriter' is placed within the 4 tiles adjacent to Pozëmka, this effect increases to </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When deployed, if there are no operators within the adjacent 4 tiles, gain 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP and ASPD + </t>
     </r>
     <r>
       <rPr>
@@ -1862,12 +2283,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>23%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks from the 'Typewriter' reduce the target's DEF by </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
     </r>
     <r>
       <rPr>
@@ -1877,7 +2303,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20%</t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attacking a target, there is a 40% chance to deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage to 2 random targets in attack range and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it for 0.8s.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attacking a target, there is a 40% chance to deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
     </r>
     <r>
       <rPr>
@@ -1897,17 +2393,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
+      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage to 2 random targets in attack range and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it for 0.8s.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Takes </t>
     </r>
     <r>
       <rPr>
@@ -1917,7 +2438,227 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> less damage from Sarkaz enemies and increase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> damage to non-Sarkaz enemies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, target 2 enemies simultaneously. Attacks deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage and ignores their Physical Dodge </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASPD + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and DEF + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When Trait effect reach maximum value, deals extra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage on every attack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ASPD + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Talent effect. Gain 1 Support Device when the skill ends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;reduced&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Redeployment Time, can use ranged attacks; Reduce the first retreat redeployment time by 35% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carries </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
     </r>
     <r>
       <rPr>
@@ -1932,22 +2673,172 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Support Devices&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deployed at once). Each </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Support Devices&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF ignore to an operator for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds (Effects do not stack)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Passive: Support Devices also grant ASPD+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The Devices last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds longer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increases the heal amount of the next heal to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds; if the 'Typewriter' is placed within the 4 tiles adjacent to Pozëmka, this effect increases to </t>
+      <t>&lt;@ba.vup&gt;{heal_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK, heal bounces </t>
     </r>
     <r>
       <rPr>
@@ -1957,1094 +2848,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(+2%)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Flagbearer</t>
-  </si>
-  <si>
-    <t>Alchemist</t>
-  </si>
-  <si>
-    <t>Mod Y</t>
-  </si>
-  <si>
-    <t>Mod X</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gains </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Physical Dodge after attack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times</t>
-    </r>
-  </si>
-  <si>
-    <t>Necrass Tok skill</t>
-  </si>
-  <si>
-    <t>When there are alchemical units on the field, increase SP recovery rate by +0.1 SP/sec</t>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When there are other operators within Attack Range, increase the duration of Alchemical units by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+4%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When there are other operators within Attack Range, increase the duration of Alchemical units by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increases the continuous damage dealt to ground enemies in range of Tin Man's Alchemical Units by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increases the continuous damage dealt to ground enemies in range of Tin Man's Alchemical Units by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When a trap is triggered, if there are 2 or more enemies in trap range, increase damage by/to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{%}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.buffres&gt;Resist&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and ATK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Karlan Trade]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Operators after Gnosis has been deployed for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vigil and the Wolfpack's attacks ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>175</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF when attacking enemies blocked by the Wolfpack and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{def_steal}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF from the target (Caps at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{def_steal_max}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vigil and the Wolfpack's attacks ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+25)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF when attacking enemies blocked by the Wolfpack and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{def_steal}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF from the target (Caps at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{def_steal_max}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After deployment, the next Operator has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP Cost. If the next Operator is a Melee Operator, gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP</t>
-    </r>
-  </si>
-  <si>
-    <t>When Necrass or The Servant of Laments attack enemies with less than {%} HP, ATK + {}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can deploy up to 8 Rocky Chomper traps (Can store up to 10); The first enemy that steps on a trap will trigger its effect </t>
-  </si>
-  <si>
-    <t>Immediately puts up to &lt;@ba.vup&gt;{max_target}&lt;/&gt; enemies within Attack Range to &lt;$ba.sleep&gt;Sleep&lt;/&gt; and deal &lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt; ATK as Arts damage every &lt;@ba.vup&gt;{interval}&lt;/&gt; second. If the targets are defeated within the skill duration, summon &lt;@ba.vup&gt;{additional_token_cnt}&lt;/&gt; additional Servant of Laments</t>
-  </si>
-  <si>
-    <t>Passive: Each time The Servant of Lament is summoned or levelled up, deal &lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt; ATK as Arts damage to nearby enemies\n
-Active: Immediately resummon all Servant of Laments. If there are no Servant of Laments currently on the field, summon 1 Servant of Laments instead</t>
-  </si>
-  <si>
-    <t>When an enemy within Attack Range is defeated, summon The Servant of Lament at its location (up to 3). If no more Servant of Laments can be summoned, upgrade one Servant of Lament instead (increase Block Count, HP, ATK and DEF)</t>
-  </si>
-  <si>
-    <t>Passive: Up to 1 Servant of Lament change into a special form which can only upgrade through skill up to a {attack@max_stack_cnt} times\n
-Active: Immediately deal @ba.vup&gt;{attack@atk_scale:0%}&lt;/&gt; ATK as Arts damage to all enemies within range, then consume 1 Servant of Lament to upgrade the special Servant and recover &lt;@ba.vup&gt;{attack@hp_ratio:0%}&lt;/&gt; HP (If The Servant of Lament is already levelled, this effect is doubled). After a The Servant of Lament is consumed, can repeat &lt;@ba.vup&gt;{attack@necras_s_3[attack_cnt].max_stack_cnt}&lt;/&gt; times</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Passive Effect: When a trap is triggered, deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk_scale:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage to all enemies in range and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.stun&gt;stun&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> them for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{stun}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> second(s)\nActive Effect: Immediately gets 1 trap</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Passive Effect: When a trap is triggered, deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk_scale:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage &lt;@ba.vup&gt;twice&lt;/&gt; to all enemies in range and inflicts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-{-def:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF (does not stack) to the targets for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{duration}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds\nActive Effect: Immediately gets 1 trap</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The next attack deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@atk_scale:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage, and repeatedly bounce between enemies (up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{times}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ATK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, projectiles stick on target </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> them for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{attack@sluggish}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds and slash them for &lt;@ba.vup&gt;4&lt;/&gt; additional times</t>
-    </r>
-  </si>
-  <si>
-    <t>When there are elite or leader enemies within Attack Range, increase SP recovery rate by +0.25 SP/sec</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cannot block enemies but gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.camou&gt;camouflage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> during the skill duration</t>
-    </r>
+      <t>&lt;@ba.vup&gt;+{attack@chain.extra_value}&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Can summon a Reconstruct on a ground tile within Attack Range and can only be healed by Mon3tr. Allies around the Reconstruct ATK + {}. When the Reconstruct receives heals from itself or Mon3tr, bounces addition heal with same healing amount</t>
+  </si>
+  <si>
+    <t>When Mon3tr or the Reconstruct heals a target, self and the target's ASPD + {} for {} seconds (does not stack)</t>
+  </si>
+  <si>
+    <t>Prioritize healing the Reconstruct during skill. The Reconstruct also perform a bouncing heal when healed by Mon3tr. Increase the effect of the seconds talent to {}x</t>
+  </si>
+  <si>
+    <t>Attack Range change, &lt;$ba.addash&gt;move&lt;/&gt; to the Reconstruct position, ATK + {}, reduce Attack Interval {}, block count + {}, Max HP + {}, gradually lose {} HP, attacks all blocked enemies as True damage. Attacks recover HP by {} ATK. &lt;@ba.rem&gt;When skill ends or defeated, returns to original position.&lt;/&gt;</t>
   </si>
 </sst>
 </file>
@@ -3265,7 +3082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3331,9 +3148,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3375,9 +3190,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4412,9 +4224,9 @@
   <colors>
     <mruColors>
       <color rgb="FF0098FF"/>
+      <color rgb="FFF49800"/>
       <color rgb="FF00B0FF"/>
       <color rgb="FFFF6237"/>
-      <color rgb="FFF49800"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4455,8 +4267,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C9" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:C9" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:C10" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="17"/>
@@ -4467,8 +4279,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:C23" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C29" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:C29" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
     <sortCondition ref="A2:A9"/>
     <sortCondition ref="B2:B9"/>
@@ -4483,8 +4295,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCADEFEA-1805-4979-9482-D8E3D6498FC3}" name="Table5" displayName="Table5" ref="A1:D4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D4" xr:uid="{3AD9D22D-2502-4D5C-8AA0-534854093817}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCADEFEA-1805-4979-9482-D8E3D6498FC3}" name="Table5" displayName="Table5" ref="A1:D3" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D3" xr:uid="{3AD9D22D-2502-4D5C-8AA0-534854093817}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7324A2AE-1F85-4F21-8A09-2886AAE0CF24}" name="New" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A602D952-3063-4C60-8090-59FB6704A6C8}" name="From" dataDxfId="2"/>
@@ -4761,8 +4573,8 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4796,7 +4608,7 @@
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4813,7 +4625,7 @@
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4830,7 +4642,7 @@
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4847,7 +4659,7 @@
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4864,7 +4676,7 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4881,7 +4693,7 @@
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4898,7 +4710,7 @@
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -4915,7 +4727,7 @@
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4932,7 +4744,7 @@
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -4949,7 +4761,7 @@
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4966,7 +4778,7 @@
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4983,7 +4795,7 @@
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -5000,7 +4812,7 @@
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -5017,7 +4829,7 @@
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -5034,7 +4846,7 @@
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -5051,7 +4863,7 @@
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -5068,7 +4880,7 @@
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -5085,7 +4897,7 @@
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -5102,7 +4914,7 @@
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -5119,7 +4931,7 @@
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -5136,7 +4948,7 @@
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -5153,7 +4965,7 @@
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -5170,7 +4982,7 @@
       <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -5187,7 +4999,7 @@
       <c r="A25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -5204,7 +5016,7 @@
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -5221,7 +5033,7 @@
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -5238,7 +5050,7 @@
       <c r="A28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -5255,7 +5067,7 @@
       <c r="A29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="37" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -5272,7 +5084,7 @@
       <c r="A30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -5289,7 +5101,7 @@
       <c r="A31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>93</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -5306,7 +5118,7 @@
       <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>96</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -5323,7 +5135,7 @@
       <c r="A33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -5340,7 +5152,7 @@
       <c r="A34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>102</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -5357,7 +5169,7 @@
       <c r="A35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -5374,7 +5186,7 @@
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="37" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -5391,7 +5203,7 @@
       <c r="A37" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="37" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -5408,7 +5220,7 @@
       <c r="A38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="37" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -5425,7 +5237,7 @@
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -5442,7 +5254,7 @@
       <c r="A40" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -5459,7 +5271,7 @@
       <c r="A41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -5476,7 +5288,7 @@
       <c r="A42" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="37" t="s">
         <v>126</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5493,7 +5305,7 @@
       <c r="A43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="37" t="s">
         <v>129</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -5510,7 +5322,7 @@
       <c r="A44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="37" t="s">
         <v>132</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -5527,7 +5339,7 @@
       <c r="A45" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="37" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -5544,7 +5356,7 @@
       <c r="A46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="37" t="s">
         <v>138</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -5561,7 +5373,7 @@
       <c r="A47" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="37" t="s">
         <v>140</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -5578,7 +5390,7 @@
       <c r="A48" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="37" t="s">
         <v>142</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -5595,7 +5407,7 @@
       <c r="A49" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -5612,7 +5424,7 @@
       <c r="A50" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="37" t="s">
         <v>148</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -5629,7 +5441,7 @@
       <c r="A51" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="37" t="s">
         <v>153</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -5643,10 +5455,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="38" t="s">
         <v>206</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -5673,14 +5485,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="203.875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="203.875" style="33" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5691,7 +5503,7 @@
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5702,8 +5514,8 @@
       <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>241</v>
+      <c r="C2" s="31" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5713,8 +5525,8 @@
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>237</v>
+      <c r="C3" s="31" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5724,8 +5536,8 @@
       <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>238</v>
+      <c r="C4" s="31" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5735,8 +5547,8 @@
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>225</v>
+      <c r="C5" s="31" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5750,17 +5562,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="196.375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="196.375" style="35" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5771,11 +5583,11 @@
       <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>210</v>
       </c>
@@ -5783,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>210</v>
       </c>
@@ -5794,21 +5606,21 @@
         <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B4" s="21">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>211</v>
       </c>
@@ -5816,10 +5628,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>211</v>
       </c>
@@ -5827,37 +5639,40 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>212</v>
       </c>
       <c r="B7" s="21">
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="41">
         <v>2</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>246</v>
+      <c r="C8" s="42" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -5871,9 +5686,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -5881,7 +5696,7 @@
   <cols>
     <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="208.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.625" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5892,7 +5707,7 @@
       <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5903,35 +5718,41 @@
       <c r="B2" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>228</v>
+      <c r="C2" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="B3" s="18">
         <v>2.5</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>229</v>
+      <c r="C3" s="31" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>228</v>
+      <c r="C4" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="B5" s="18">
         <v>3.5</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>229</v>
+      <c r="C5" s="31" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5941,172 +5762,250 @@
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>230</v>
+      <c r="C6" s="31" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="B7" s="18">
         <v>2.5</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>231</v>
+      <c r="C7" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>230</v>
+      <c r="C8" s="31" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="B9" s="18">
         <v>3.5</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>231</v>
+      <c r="C9" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>211</v>
+      <c r="A10" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="B10" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>232</v>
+      <c r="C10" s="32" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="28" t="s">
+        <v>215</v>
+      </c>
       <c r="B11" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="C12" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="18">
-        <v>2</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
       <c r="B13" s="18">
-        <v>3</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>233</v>
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>234</v>
+      <c r="C14" s="32" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="B15" s="18">
         <v>2.5</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>235</v>
+      <c r="C15" s="32" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="B16" s="18">
         <v>3</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>234</v>
+      <c r="C16" s="32" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="28" t="s">
+        <v>216</v>
+      </c>
       <c r="B17" s="18">
         <v>3.5</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>235</v>
+      <c r="C17" s="32" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>217</v>
       </c>
       <c r="B18" s="18">
         <v>2</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>236</v>
+      <c r="C18" s="32" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="B19" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="18">
         <v>3</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="C20" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B22" s="18">
         <v>2</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="18">
+      <c r="C22" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="18">
+        <v>3</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="18">
+        <v>2</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="18">
         <v>2.5</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="18">
+      <c r="C25" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="18">
         <v>3</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="18">
+      <c r="C26" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="18">
         <v>3.5</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>220</v>
-      </c>
+      <c r="C27" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6119,10 +6018,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA072BA0-A74B-4D64-9677-E60E9F767C6E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6135,54 +6034,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>227</v>
+      <c r="A2" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="24" t="s">
-        <v>247</v>
-      </c>
+      <c r="A3" s="43"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AN-EN-Tags-NEW\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFF9348-A4E8-4BB8-868A-3F74C336F893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A93E073-3F85-4BBF-BB04-7BD48BD2770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="289">
   <si>
     <t>Op</t>
   </si>
@@ -283,9 +283,6 @@
     <t>ba.dt.element</t>
   </si>
   <si>
-    <t>Elemental Damage</t>
-  </si>
-  <si>
     <t>Includes &lt;$ba.dt.neural&gt;Nervous Impairment&lt;/&gt;, &lt;$ba.dt.erosion&gt;Corrosion Damage&lt;/&gt;, &lt;$ba.dt.burning&gt;Burn Damage&lt;/&gt;, and &lt;$ba.dt.apoptosis&gt;Necrosis Damage&lt;/&gt;</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>Elemental Fragility</t>
   </si>
   <si>
-    <t>Amplifies all Elemental damage taken by the corresponding amount (only the strongest effect of this type applies)</t>
-  </si>
-  <si>
     <t>ba.dying</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>Protective Barrier</t>
   </si>
   <si>
-    <t>Absorbs a certain amount of &lt;$ba.dt.element&gt;Elemental Damage&lt;/&gt;.</t>
-  </si>
-  <si>
     <t>ba.tremble</t>
   </si>
   <si>
@@ -439,9 +430,6 @@
     <t>Burn damage - Ally</t>
   </si>
   <si>
-    <t>Explodes when at max (1000 for Normal and Elite, 2000 for Leaders), dealing 7000 Elemental damage and temporarily inflicting -20 RES. 10s cooldown.</t>
-  </si>
-  <si>
     <t>ba.fear</t>
   </si>
   <si>
@@ -460,25 +448,16 @@
     <t>Mana</t>
   </si>
   <si>
-    <t>特殊技力，整场战斗继承</t>
-  </si>
-  <si>
     <t>ba.chant</t>
   </si>
   <si>
     <t>Chanting</t>
   </si>
   <si>
-    <t>Stops attacking then try to activate a skill. If interrupted, the skill is cancelled</t>
-  </si>
-  <si>
     <t>ba.laiosteam</t>
   </si>
   <si>
     <t>Laios' Party</t>
-  </si>
-  <si>
-    <t>Includes the following Operators: Marcille, Laios, Senshi, Chilchuck</t>
   </si>
   <si>
     <t>Can continue recovering SP after reaching the maximum. When SP reaches double the maximum, enters Charged state.
@@ -488,12 +467,6 @@
     <t>ba.liftoff</t>
   </si>
   <si>
-    <t>Cannot block ground enemies and cannot be attacked by ground enemies. Can block aerial enemies</t>
-  </si>
-  <si>
-    <t>Takes off</t>
-  </si>
-  <si>
     <r>
       <t>&lt;@ba.vup&gt;</t>
     </r>
@@ -1145,7 +1118,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.dt.element&gt;</t>
+      <t>&lt;$ba.overdrive&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1155,7 +1128,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Elemental Damage</t>
+      <t>Overload</t>
     </r>
     <r>
       <rPr>
@@ -1170,7 +1143,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.overdrive&gt;</t>
+      <t>&lt;$ba.dt.apoptosis&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1153,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Overload</t>
+      <t>Necrosis Damage</t>
     </r>
     <r>
       <rPr>
@@ -1195,7 +1168,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.dt.apoptosis&gt;</t>
+      <t>&lt;$ba.debuff&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1205,7 +1178,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Necrosis Damage</t>
+      <t>Negative Status</t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1193,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.debuff&gt;</t>
+      <t>&lt;$ba.levitate&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1230,7 +1203,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Negative Status</t>
+      <t>Levitate</t>
     </r>
     <r>
       <rPr>
@@ -1245,7 +1218,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.levitate&gt;</t>
+      <t>&lt;$ba.physhield&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1255,7 +1228,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Levitate</t>
+      <t>Physical Shield</t>
     </r>
     <r>
       <rPr>
@@ -1270,7 +1243,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.physhield&gt;</t>
+      <t>&lt;$ba.magicfragile&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1280,7 +1253,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Physical Shield</t>
+      <t>Arts Fragility</t>
     </r>
     <r>
       <rPr>
@@ -1295,7 +1268,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.magicfragile&gt;</t>
+      <t>&lt;$ba.elementfragile&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1305,7 +1278,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Arts Fragility</t>
+      <t>Elemental Fragility</t>
     </r>
     <r>
       <rPr>
@@ -1320,7 +1293,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.elementfragile&gt;</t>
+      <t>&lt;$ba.dying&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1330,7 +1303,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Elemental Fragility</t>
+      <t>Critically Wounded</t>
     </r>
     <r>
       <rPr>
@@ -1345,7 +1318,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.dying&gt;</t>
+      <t>&lt;$ba.barrier&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1355,7 +1328,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Critically Wounded</t>
+      <t>Barrier</t>
     </r>
     <r>
       <rPr>
@@ -1370,7 +1343,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.barrier&gt;</t>
+      <t>&lt;$ba.weightless&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1353,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Barrier</t>
+      <t>Weightless</t>
     </r>
     <r>
       <rPr>
@@ -1395,7 +1368,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.weightless&gt;</t>
+      <t>&lt;$ba.berserk&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1405,7 +1378,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Weightless</t>
+      <t>Tenacity</t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1393,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.berserk&gt;</t>
+      <t>&lt;$ba.steal&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1430,7 +1403,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tenacity</t>
+      <t>Steal</t>
     </r>
     <r>
       <rPr>
@@ -1445,7 +1418,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.steal&gt;</t>
+      <t>&lt;$ba.weaken&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1455,7 +1428,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Steal</t>
+      <t>Enfeeble</t>
     </r>
     <r>
       <rPr>
@@ -1470,7 +1443,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.weaken&gt;</t>
+      <t>&lt;$ba.dt.apoptosis2&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1480,7 +1453,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Enfeeble</t>
+      <t>Necrosis Damage - Player</t>
     </r>
     <r>
       <rPr>
@@ -1495,7 +1468,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.dt.apoptosis2&gt;</t>
+      <t>&lt;$ba.epbarrier&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1505,7 +1478,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Necrosis Damage - Player</t>
+      <t>Protective Barrier</t>
     </r>
     <r>
       <rPr>
@@ -1520,7 +1493,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.epbarrier&gt;</t>
+      <t>&lt;$ba.tremble&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1530,7 +1503,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Protective Barrier</t>
+      <t>Frighten</t>
     </r>
     <r>
       <rPr>
@@ -1545,7 +1518,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.tremble&gt;</t>
+      <t>&lt;$ba.dt.burning2&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1555,7 +1528,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Frighten</t>
+      <t>Burn damage - Ally</t>
     </r>
     <r>
       <rPr>
@@ -1570,7 +1543,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.dt.burning2&gt;</t>
+      <t>&lt;$ba.fear&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1553,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Burn damage - Ally</t>
+      <t>Fear</t>
     </r>
     <r>
       <rPr>
@@ -1595,7 +1568,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;$ba.fear&gt;</t>
+      <t>&lt;$ba.magicpoint&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1605,7 +1578,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fear</t>
+      <t>Mana</t>
     </r>
     <r>
       <rPr>
@@ -1620,6 +1593,111 @@
   </si>
   <si>
     <r>
+      <t>&lt;$ba.chant&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chanting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.laiosteam&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Laios' Party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Cannot be blocked and runs off uncontrollably</t>
+  </si>
+  <si>
+    <t>ba.physicfragile</t>
+  </si>
+  <si>
+    <t>Physical Fragility</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.physicfragile&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Physical Fragility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Amplifies all Physical damage taken by the corresponding amount (only the strongest effect of this type applies)</t>
+  </si>
+  <si>
+    <t>Cannot leave the field; will deploy at the target location with the current HP</t>
+  </si>
+  <si>
+    <t>Exusiai The New Covenant</t>
+  </si>
+  <si>
+    <t>Lemuen</t>
+  </si>
+  <si>
+    <t>Miksaparato</t>
+  </si>
+  <si>
+    <t>Gracebearer</t>
+  </si>
+  <si>
+    <t>Confess-47</t>
+  </si>
+  <si>
+    <r>
       <t>&lt;$ba.addash&gt;</t>
     </r>
     <r>
@@ -1630,7 +1708,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dash</t>
+      <t>Move</t>
     </r>
     <r>
       <rPr>
@@ -1644,8 +1722,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;$ba.magicpoint&gt;</t>
+    <t>A special form of SP that persists throughout battle</t>
+  </si>
+  <si>
+    <t>Stops attacking for a period of time, then attempts to activate skill; interruptions during this period will stop the chant</t>
+  </si>
+  <si>
+    <t>Includes Marcille, Senshi, Laios, and Chilchuck</t>
+  </si>
+  <si>
+    <t>Elemental Injury</t>
+  </si>
+  <si>
+    <t>&lt;$ba.dt.element&gt;Elemental Injury&lt;/&gt;</t>
+  </si>
+  <si>
+    <t>Amplifies all Elemental Damage taken by the corresponding amount (only the strongest effect of this type applies)</t>
+  </si>
+  <si>
+    <t>Absorbs a certain amount of &lt;$ba.dt.element&gt;Elemental Injury&lt;/&gt;.</t>
+  </si>
+  <si>
+    <t>Explodes when at max (1000 for Normal and Elite, 2000 for Leaders), dealing 7000 Elemental Damage and temporarily inflicting -20 RES. 10s cooldown.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.fly&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1655,7 +1757,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Mana</t>
+      <t>Take Off</t>
     </r>
     <r>
       <rPr>
@@ -1669,8 +1771,211 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;$ba.chant&gt;</t>
+    <t>Take Off</t>
+  </si>
+  <si>
+    <t>Cannot block ground enemies and will not be attacked by them; can block flying enemies</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t>Windscoot</t>
+  </si>
+  <si>
+    <t>Muelsyse</t>
+  </si>
+  <si>
+    <t>Mod Trait</t>
+  </si>
+  <si>
+    <t>Thorns</t>
+  </si>
+  <si>
+    <t>Mizuki</t>
+  </si>
+  <si>
+    <t>Archetto</t>
+  </si>
+  <si>
+    <t>ba.dt.neural2</t>
+  </si>
+  <si>
+    <r>
+      <t>Increase ATK of operators with Ammo-based skill by +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%. Increase to +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% for [Laterano] operators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When dealing damage, DEF+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. Can stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If this unit hasn't attacked for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds,  gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP </t>
     </r>
     <r>
       <rPr>
@@ -1680,7 +1985,674 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Chanting</t>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, The timer resets when the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is lost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When dealing damage, DEF+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. Can stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times; When max stacked, [Laterano] operators cannot have their ASPD lower than BAT</t>
+    </r>
+  </si>
+  <si>
+    <t>Młynar</t>
+  </si>
+  <si>
+    <t>VG Robot</t>
+  </si>
+  <si>
+    <t>Primal Guard</t>
+  </si>
+  <si>
+    <t>LIB-X</t>
+  </si>
+  <si>
+    <t>ISW-A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when attacking. If there are 3 or more enemies nearby, ATK increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> less damage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when attacking. If there are 3 or more enemies nearby, ATK increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> less damage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When skill is inactive, deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% of Tequila's ATK as Arts damage to the attacker when Tequila and operator behind is attacked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When skill is inactive, deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Tequila's ATK as Arts damage to the attacker when Tequila and operator behind is attacked </t>
+    </r>
+  </si>
+  <si>
+    <t>Crownslayer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When in squad, all [Rhine Lab] Operators have -2 DP Cost, and the first [Rhine Lab] Operator deployed has an additional -1 DP Cost; When copy [Rhine Lab] operator, Muelsyse gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SP.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When in squad, all [Rhine Lab] Operators have -2 DP Cost, and the first [Rhine Lab] Operator deployed has an additional -2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP Cost; When copy [Rhine Lab] operator, Muelsyse gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SP.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When in squad, all [Rhine Lab] Operators have -2 DP Cost, and the first [Rhine Lab] Operator deployed has an additional -2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP Cost; When copy [Rhine Lab] operator, Muelsyse gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SP. Copied [Rhine Lab] operator gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SP when deploy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When in squad, all [Rhine Lab] Operators have -2 DP Cost, and the first [Rhine Lab] Operator deployed has an additional -1 DP Cost; When copy [Rhine Lab] operator, Muelsyse gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SP. Copied [Rhine Lab] operator gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SP when deploy.</t>
+    </r>
+  </si>
+  <si>
+    <t>Silence the Paradigmatic</t>
+  </si>
+  <si>
+    <t>BLS-Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allies with less than 50% HP within this unit's Attack Range heal HP equal to 5% of this unit's ATK every second; effect doubles for [Rhine Lab] Operators. When allies within Attack Range have HP below 50% Max HP for the First time, gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; effect doubles for [Rhine Lab] Operators.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allies with less than 50% HP within this unit's Attack Range heal HP equal to 6% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of this unit's ATK every second; effect doubles for [Rhine Lab] Operators. When allies within Attack Range have HP below 50% Max HP for the First time, gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; effect doubles for [Rhine Lab] Operators.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nervous Impairment - Player</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.neural2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nervous Impairment - Player</t>
     </r>
     <r>
       <rPr>
@@ -1694,8 +2666,179 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;$ba.laiosteam&gt;</t>
+    <t>LOR-D</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When dealing damage, deals an additional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;10%&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Paralysis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poisons the targets when attacking, dealing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;（+15）&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Arts damage to them per second, lasting 3 seconds (damage is doubled against Ranged enemies). When enemies under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, poison deals double damage as Elemental Damage instead</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poisons the targets when attacking, dealing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Arts damage to them per second, lasting 3 seconds (damage is doubled against Ranged enemies). When enemies under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, poison deals double damage as Elemental Damage instead</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% more Physical damage to ground enemies that has not yet dealt damage to her. Increase </t>
     </r>
     <r>
       <rPr>
@@ -1705,22 +2848,252 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Laios' Party</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>&lt;$ba.stun&gt;Stun&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> duration by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more Physical damage to ground enemies that has not yet dealt damage to her. Increase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.stun&gt;Stun&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> duration by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Normally does not attack and has 0 Block; When skill is inactive, ATK gradually increases up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;+{atk:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;{max_stack_cnt}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. ATK is reset when the skill ends; When deploy, gain 100% ATK trait effect immediately</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ASPD+50,  restores 4% of Max HP every second </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks deal an additional 50% of ATK as Arts damage to the target with the lowest HP; in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, target 2 enemies with the lowest HP instead and drag enemies towards self with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>significant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.fly&gt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> force</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks deal an additional 50% of ATK as Arts damage to the target with the lowest HP; in </t>
     </r>
     <r>
       <rPr>
@@ -1730,31 +3103,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Takes off</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, target 2 enemies with the lowest HP instead and drag enemies towards self with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>significant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>Cannot be blocked and runs off uncontrollably</t>
-  </si>
-  <si>
-    <t>ba.physicfragile</t>
-  </si>
-  <si>
-    <t>Physical Fragility</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.physicfragile&gt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> force, while skill is activated, target 3 enemies with the lowest HP instead</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
     </r>
     <r>
       <rPr>
@@ -1764,61 +3168,175 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Physical Fragility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, for every operators with Offensive Recovery skill on the field, Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;+1&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (up to +3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Every 2.5 seconds when deployed, restores 1 Skill Point to all deployed Sniper allies that have an Offensive Recovery skill; in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, restores 1 Skill Point to all operator that have an Offensive Recovery skill instead. When attacks, restores 1 Skill Point to all operator that have an Offensive Recovery skill.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Every 2.5 seconds when deployed, restores 1 Skill Point to all deployed Sniper allies that have an Offensive Recovery skill; in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, restores 1 Skill Point to all operator that have an Offensive Recovery skill instead. When attacks, restores 1 Skill Point to all operator that have an Offensive Recovery skill. When an operator activated thier Offensive Recovery skill, they gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK</t>
+    </r>
+  </si>
+  <si>
+    <t>Blocks 2 enemies, and can inflict &lt;@ba.kw&gt;Elemental Injury&lt;/&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shoots </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{times}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>Amplifies all Physical damage taken by the corresponding amount (only the strongest effect of this type applies)</t>
-  </si>
-  <si>
-    <t>Cannot leave the field; will deploy at the target location with the current HP</t>
-  </si>
-  <si>
-    <t>Mon3tr</t>
-  </si>
-  <si>
-    <t>Alanna</t>
-  </si>
-  <si>
-    <t>Windscoot</t>
-  </si>
-  <si>
-    <t>Ines</t>
-  </si>
-  <si>
-    <t>Cantabile</t>
-  </si>
-  <si>
-    <t>Puzzle</t>
-  </si>
-  <si>
-    <t>Surfer</t>
-  </si>
-  <si>
-    <t>Logos</t>
-  </si>
-  <si>
-    <t>Mudrock</t>
-  </si>
-  <si>
-    <t>Mod Trait</t>
-  </si>
-  <si>
-    <t>Trait</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The first hit on each enemy </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times in a row in the next attack, dealing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of ATK damage with every shot and reload </t>
     </r>
     <r>
       <rPr>
@@ -1828,17 +3346,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.root&gt;Binds&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the target for 5 seconds and </t>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{recover_cnt}</t>
     </r>
     <r>
       <rPr>
@@ -1848,7 +3366,895 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.steal&gt;Steals&lt;/&gt;</t>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo for nearby [Laterano] operator with Ammo-based skill currently active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, DEF+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When receiving lethel damage, consume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo to block that attack instead.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@trigger_time}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore all ammo to all other [Laterano] operators, MaxHP+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, DEF+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expand&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Stop attacking; When attacked, counterattack to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies in Attack Range. Counterattack interval is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@trigger_time}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Blocks 2 enemies. Not affected by &lt;@ba.kw&gt;Deployment Limit&lt;/&gt;, but has a long Redeployment Time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When Confess-47 block an enemy for the first time gains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP immediately and put enemy to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;Sleep&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, can attack an addition enemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@trigger_time}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When there is Wanted enemy, consume ammo and aiming at Wanted enemy for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds then snipe with ignore Physical Dodge shot (While aiming, gradully increase ATK to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. When ATK higher than sum of Target HP and DEF, snipe immediately)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@trigger_time}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and ammo capacity +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after being deployed for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. Other [Laterano] operators ammo capacity +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elite and Leader enemies who remain within Attack Range of [Laterano] operators for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds are Wanted, taking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> increased damage from [Laterano] operators. Lemuen can attack all Wanted enemies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and ammo capacity +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after being deployed for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when defeat enemies under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Interrupts enemy attacks once per stack. Can stack up to 3 times. Each stack lasts indefinitely until used. Enemies with resist lose 1 stack every 5 seconds.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prioritize aerial enemies. Attacks deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage. If cancelled manually, fire all remaining ammo at random enemies within Attack Range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@trigger_time}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1878,12 +4284,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ATK (effect expires when enemy is defeated or Ines retreats)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The first hit on each enemy </t>
+      <t xml:space="preserve"> ASPD from 1 operator within Attack Range (last until the skill ends or retreat). Exusiai and target operator gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP </t>
     </r>
     <r>
       <rPr>
@@ -1893,17 +4314,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.root&gt;Binds&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the target for 5 seconds and </t>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and gradually depletes. Attack interval </t>
     </r>
     <r>
       <rPr>
@@ -1913,17 +4334,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.steal&gt;Steals&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>&lt;@ba.kw&gt;reduced&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, each attack deals </t>
     </r>
     <r>
       <rPr>
@@ -1943,7 +4364,243 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> ATK as Physical damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@trigger_time}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If Exusiai succeeded in Stealing Attack Speed, gain additional ammo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stop attacking; consume </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo every </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds and lock on enemies one by one. When skill end, bombard at locked-on enemies location dealing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as AOE Physical damage (Deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK at center of impact)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@trigger_time}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When Trait effect reach maximum value, each attack deals 1 additional instance of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% ATK as Physical damage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When Trait effect reach maximum value, each attack deals 1 additional instance of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
     </r>
     <r>
       <rPr>
@@ -1953,22 +4610,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+10)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK (effect expires when enemy is defeated or Ines retreats)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ASPD +</t>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recovers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP whenever an ally operator consumes ammo. Additionally, there is </t>
     </r>
     <r>
       <rPr>
@@ -1988,7 +4665,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> when not blocking an enemy, ATK +</t>
+      <t xml:space="preserve">% to deals </t>
     </r>
     <r>
       <rPr>
@@ -2008,12 +4685,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>% when blocking an enemy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ASPD +</t>
+      <t>% ATK as AOE Physical damage to enemies within that operator's Attack Range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK +</t>
     </r>
     <r>
       <rPr>
@@ -2033,7 +4710,322 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">. Shoots 5 times in a row, dealing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage with every shot. If </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{Delivery Marker}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is present, immediately deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as AOE Physical damage and deploy 1 ground operator with highest remaining redeployment time on that location. The deployed opearator gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Gain 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{Delivery Marker}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after deployment. Skill activation grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@trigger_time}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ammo (each attack consumes 5 ammo) and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage to all surrounding ground enemies. If enemies under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, deals Elemental Damage instead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ct}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> charges&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recovers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP whenever an ally operator spends ammo. Additionally, there is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% to deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% ATK as AOE Physical damage to enemies within that operator's Attack Range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each attack deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage twice and additionally deals </t>
     </r>
     <r>
       <rPr>
@@ -2043,17 +5035,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when not blocking an enemy, ATK +</t>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2068,277 +5050,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when blocking an enemy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ATK increased to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, recover 2 additional SP and reduce movement speed for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds when hitting an enemy with full HP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ATK increased to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, recover 2 additional SP and reduce movement speed for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds when hitting an enemy with full HP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When deployed, if there are no operators within the adjacent 4 tiles, gain 2 DP and ASPD + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When deployed, if there are no operators within the adjacent 4 tiles, gain 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP and ASPD + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When attacking a target, there is a 40% chance to deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage to 2 random targets in attack range and </t>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the damage dealt as </t>
     </r>
     <r>
       <rPr>
@@ -2348,62 +5075,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it for 0.8s.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When attacking a target, there is a 40% chance to deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage to 2 random targets in attack range and </t>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack deals </t>
     </r>
     <r>
       <rPr>
@@ -2413,217 +5090,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it for 0.8s.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Takes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> less damage from Sarkaz enemies and increase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> damage to non-Sarkaz enemies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>expand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, target 2 enemies simultaneously. Attacks deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage and ignores their Physical Dodge </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASPD + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and DEF + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When Trait effect reach maximum value, deals extra </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage on every attack</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ATK + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, ASPD + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and Talent effect. Gain 1 Support Device when the skill ends</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Has </t>
+      <t>&lt;@ba.kw&gt;Arts damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to &lt;@ba.kw&gt;2&lt;/&gt; target; When skill is active, attacks instead restore the HP of &lt;@ba.kw&gt;2&lt;/&gt; allies (heal amount is equal to 75% of ATK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.palsy&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2633,242 +5115,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.kw&gt;reduced&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Redeployment Time, can use ranged attacks; Reduce the first retreat redeployment time by 35% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Carries </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Support Devices&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (max </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deployed at once). Each </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Support Devices&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF ignore to an operator for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds (Effects do not stack)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Passive: Support Devices also grant ASPD+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. The Devices last </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds longer</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increases the heal amount of the next heal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{heal_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK, heal bounces </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+{attack@chain.extra_value}&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Can summon a Reconstruct on a ground tile within Attack Range and can only be healed by Mon3tr. Allies around the Reconstruct ATK + {}. When the Reconstruct receives heals from itself or Mon3tr, bounces addition heal with same healing amount</t>
-  </si>
-  <si>
-    <t>When Mon3tr or the Reconstruct heals a target, self and the target's ASPD + {} for {} seconds (does not stack)</t>
-  </si>
-  <si>
-    <t>Prioritize healing the Reconstruct during skill. The Reconstruct also perform a bouncing heal when healed by Mon3tr. Increase the effect of the seconds talent to {}x</t>
-  </si>
-  <si>
-    <t>Attack Range change, &lt;$ba.addash&gt;move&lt;/&gt; to the Reconstruct position, ATK + {}, reduce Attack Interval {}, block count + {}, Max HP + {}, gradually lose {} HP, attacks all blocked enemies as True damage. Attacks recover HP by {} ATK. &lt;@ba.rem&gt;When skill ends or defeated, returns to original position.&lt;/&gt;</t>
+      <t>Paralysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>ba.palsy</t>
+  </si>
+  <si>
+    <t>Explodes when at max (1000 for Normal and Elite, 2000 for Leaders), dealing 6000 Elemental Damage and inflict 3 &lt;$ba.palsy&gt;Paralysis&lt;/&gt; stack. 10s cooldown.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2924,8 +5195,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2935,6 +5213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3082,7 +5366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3142,16 +5426,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3187,16 +5466,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3222,6 +5510,118 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -3229,7 +5629,9 @@
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
         <top style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </top>
@@ -3304,46 +5706,6 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -3648,93 +6010,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4223,8 +6498,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF49800"/>
       <color rgb="FF0098FF"/>
-      <color rgb="FFF49800"/>
       <color rgb="FF00B0FF"/>
       <color rgb="FFFF6237"/>
     </mruColors>
@@ -4255,8 +6530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6968D02B-2C35-4522-99E1-BA51530B4553}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:C5" xr:uid="{71236087-20BC-4953-BFDF-0CA4834863A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6968D02B-2C35-4522-99E1-BA51530B4553}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:C9" xr:uid="{71236087-20BC-4953-BFDF-0CA4834863A9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D84A1065-D5C9-46A0-A7AB-4B9ADC68B4C5}" name="Op" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{38256F81-A768-4F88-935E-457B88738A34}" name="Talent" dataDxfId="24"/>
@@ -4267,41 +6542,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:C10" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C12" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:C12" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{212359CB-4A30-4872-99A6-07552DAAAE97}" name="Details" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{212359CB-4A30-4872-99A6-07552DAAAE97}" name="Details" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C29" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:C29" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:C45" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
     <sortCondition ref="A2:A9"/>
     <sortCondition ref="B2:B9"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{224BD11C-823E-43C3-A2EF-F8A264F71916}" name="Detail" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{224BD11C-823E-43C3-A2EF-F8A264F71916}" name="Detail" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCADEFEA-1805-4979-9482-D8E3D6498FC3}" name="Table5" displayName="Table5" ref="A1:D3" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D3" xr:uid="{3AD9D22D-2502-4D5C-8AA0-534854093817}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCADEFEA-1805-4979-9482-D8E3D6498FC3}" name="Table5" displayName="Table5" ref="A1:D8" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:D8" xr:uid="{3AD9D22D-2502-4D5C-8AA0-534854093817}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7324A2AE-1F85-4F21-8A09-2886AAE0CF24}" name="New" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A602D952-3063-4C60-8090-59FB6704A6C8}" name="From" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{249AEA3B-3B79-45AF-B657-BEED4FAD9C80}" name="Type" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3FC14EBF-5FC4-4805-820A-A79DFFCA0084}" name="Detail" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7324A2AE-1F85-4F21-8A09-2886AAE0CF24}" name="New" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A602D952-3063-4C60-8090-59FB6704A6C8}" name="From" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{249AEA3B-3B79-45AF-B657-BEED4FAD9C80}" name="Type" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3FC14EBF-5FC4-4805-820A-A79DFFCA0084}" name="Detail" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4570,17 +6845,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E696680-5C0C-47EA-B8F5-3DDA6BE989A2}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="200.375" style="3" bestFit="1" customWidth="1"/>
@@ -4608,11 +6883,11 @@
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -4625,11 +6900,11 @@
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -4642,11 +6917,11 @@
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -4659,11 +6934,11 @@
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D5" s="14">
         <v>0</v>
@@ -4676,11 +6951,11 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -4693,11 +6968,11 @@
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
@@ -4710,11 +6985,11 @@
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D8" s="14">
         <v>0</v>
@@ -4727,11 +7002,11 @@
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D9" s="14">
         <v>0</v>
@@ -4744,11 +7019,11 @@
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D10" s="14">
         <v>0</v>
@@ -4761,11 +7036,11 @@
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D11" s="14">
         <v>0</v>
@@ -4778,11 +7053,11 @@
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D12" s="14">
         <v>0</v>
@@ -4795,11 +7070,11 @@
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D13" s="14">
         <v>0</v>
@@ -4812,11 +7087,11 @@
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
@@ -4829,11 +7104,11 @@
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D15" s="14">
         <v>0</v>
@@ -4846,11 +7121,11 @@
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D16" s="14">
         <v>0</v>
@@ -4863,11 +7138,11 @@
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
@@ -4880,11 +7155,11 @@
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D18" s="14">
         <v>0</v>
@@ -4897,11 +7172,11 @@
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D19" s="14">
         <v>0</v>
@@ -4914,11 +7189,11 @@
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D20" s="14">
         <v>0</v>
@@ -4931,11 +7206,11 @@
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D21" s="14">
         <v>0</v>
@@ -4948,28 +7223,28 @@
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D22" s="14">
         <v>0</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D23" s="14">
         <v>0</v>
@@ -4982,11 +7257,11 @@
       <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="34" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D24" s="14">
         <v>0</v>
@@ -4999,11 +7274,11 @@
       <c r="A25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
@@ -5016,11 +7291,11 @@
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
@@ -5033,11 +7308,11 @@
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D27" s="14">
         <v>0</v>
@@ -5050,425 +7325,459 @@
       <c r="A28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>84</v>
+      <c r="B28" s="34" t="s">
+        <v>207</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="D28" s="14">
         <v>0</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>87</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D29" s="14">
         <v>0</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>90</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D30" s="14">
         <v>0</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="C31" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>96</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D32" s="14">
         <v>0</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>99</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D33" s="14">
         <v>0</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>102</v>
-      </c>
       <c r="C34" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D34" s="14">
         <v>0</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>105</v>
-      </c>
       <c r="C35" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D35" s="14">
         <v>0</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D36" s="14">
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>109</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D37" s="14">
         <v>0</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D38" s="14">
         <v>0</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D39" s="14">
         <v>0</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D40" s="14">
         <v>0</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>121</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D41" s="14">
         <v>0</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D42" s="14">
         <v>0</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D43" s="14">
         <v>0</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>129</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D44" s="14">
         <v>0</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D45" s="14">
         <v>0</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D46" s="14">
         <v>0</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D47" s="14">
         <v>0</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D48" s="14">
         <v>0</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D49" s="14">
         <v>0</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D50" s="14">
         <v>0</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D51" s="14">
         <v>0</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>206</v>
+      <c r="A52" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D52" s="14">
         <v>0</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5482,17 +7791,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="203.875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="203.875" style="30" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5503,52 +7815,96 @@
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>210</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>240</v>
+      <c r="C2" s="28" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>210</v>
+      <c r="A3" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>241</v>
+      <c r="C3" s="28" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>211</v>
+      <c r="A4" s="42" t="s">
+        <v>199</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>237</v>
+      <c r="C4" s="28" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>212</v>
+      <c r="A5" s="42" t="s">
+        <v>199</v>
       </c>
       <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>234</v>
+      <c r="C6" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="39">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5562,17 +7918,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
-  <dimension ref="A1:C10"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="196.375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="196.375" style="32" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5583,96 +7942,130 @@
       <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="C2" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="C3" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>243</v>
+      <c r="C4" s="37" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="A5" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="C5" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="C6" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="39">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="41">
+      <c r="C8" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="39">
         <v>2</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
+      <c r="C9" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="39">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -5686,17 +8079,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="164.625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.625" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5707,305 +8100,393 @@
       <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="18">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="29"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="41" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="18">
-        <v>3</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="18">
-        <v>3</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="18">
-        <v>2</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="18">
-        <v>2</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="18">
-        <v>3</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="18">
-        <v>3</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="18">
-        <v>2</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="18">
-        <v>3</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="18">
-        <v>2</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" s="18">
-        <v>3</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="32"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="28"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="28" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6018,54 +8499,132 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA072BA0-A74B-4D64-9677-E60E9F767C6E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="115.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="177" style="32" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B4" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="23"/>
+      <c r="C6" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AN-EN-Tags-NEW\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A93E073-3F85-4BBF-BB04-7BD48BD2770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47A0F7-25B7-4FE7-B7BA-B0AEC575D252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="260">
   <si>
     <t>Op</t>
   </si>
@@ -1682,21 +1682,6 @@
     <t>Cannot leave the field; will deploy at the target location with the current HP</t>
   </si>
   <si>
-    <t>Exusiai The New Covenant</t>
-  </si>
-  <si>
-    <t>Lemuen</t>
-  </si>
-  <si>
-    <t>Miksaparato</t>
-  </si>
-  <si>
-    <t>Gracebearer</t>
-  </si>
-  <si>
-    <t>Confess-47</t>
-  </si>
-  <si>
     <r>
       <t>&lt;$ba.addash&gt;</t>
     </r>
@@ -1734,9 +1719,6 @@
     <t>Elemental Injury</t>
   </si>
   <si>
-    <t>&lt;$ba.dt.element&gt;Elemental Injury&lt;/&gt;</t>
-  </si>
-  <si>
     <t>Amplifies all Elemental Damage taken by the corresponding amount (only the strongest effect of this type applies)</t>
   </si>
   <si>
@@ -1777,35 +1759,1001 @@
     <t>Cannot block ground enemies and will not be attacked by them; can block flying enemies</t>
   </si>
   <si>
-    <t>Trait</t>
-  </si>
-  <si>
-    <t>Tequila</t>
-  </si>
-  <si>
-    <t>Windscoot</t>
-  </si>
-  <si>
-    <t>Muelsyse</t>
+    <t>ba.dt.neural2</t>
+  </si>
+  <si>
+    <t>Nervous Impairment - Player</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.neural2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nervous Impairment - Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Paralysis</t>
+  </si>
+  <si>
+    <t>Interrupts enemy attacks once per stack. Can stack up to 3 times. Each stack lasts indefinitely until used. Enemies with resist lose 1 stack every 5 seconds.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.palsy&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paralysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>ba.palsy</t>
+  </si>
+  <si>
+    <t>Explodes when at max (1000 for Normal and Elite, 2000 for Leaders), dealing 6000 Elemental Damage and inflict 3 &lt;$ba.palsy&gt;Paralysis&lt;/&gt; stack. 10s cooldown.</t>
+  </si>
+  <si>
+    <t>Miss Christine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/&gt;, attacks deal an additional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{attack@ep_damage_ratio:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Arts damage as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enemies within Attack Range take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental Damage when they </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stop attacking. Summon cat spirit at target location, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage to neaby enemies every second; if target is under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, deal an additional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{attack@extra_ep_damage_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental Damage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If this unit hasn't attacked for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds, dodge next attack.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tippi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.liftoff&gt;Takes Off&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.liftoff&gt;Takes Off&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Shoots </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{times}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times in a row; Only activated when attacked and dodge that attack</t>
+    </r>
+  </si>
+  <si>
+    <t>Tragodia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Additionally, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to enemies near target.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enemies under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ASPD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{-}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Enemies within Attack Range receive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when attacking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.dt.element&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elemental Injury</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage twice and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.root&gt;bind&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemy for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. While Bound, the target takes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, prioritizing enemies not under a burst effect</t>
+    </r>
+  </si>
+  <si>
+    <t>Lure / Attract</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ATK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and prioritizing enemies not under a burst effect. Enemies that have received </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Tragodia will receive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Neural Impairment every second until Elemental burst; Enemies within Attack Range recover from burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> faster. Whenever a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst effect is triggered, summon/refresh the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cage of Madness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at target location</t>
+    </r>
+  </si>
+  <si>
+    <t>Necrass</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>Tecno</t>
   </si>
   <si>
     <t>Mod Trait</t>
   </si>
   <si>
-    <t>Thorns</t>
-  </si>
-  <si>
-    <t>Mizuki</t>
-  </si>
-  <si>
-    <t>Archetto</t>
-  </si>
-  <si>
-    <t>ba.dt.neural2</t>
-  </si>
-  <si>
-    <r>
-      <t>Increase ATK of operators with Ammo-based skill by +</t>
+    <t>Techno</t>
+  </si>
+  <si>
+    <t>When a ground enemy within Attack Range is defeated, create a stronger Puppet Dancer at its location (up to 5). Puppet Dancers deal Arts damage</t>
+  </si>
+  <si>
+    <t>Ascalon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks inflict the following effect on enemies: Movement Speed reduced by 18% and take 10% of Ascalon's current ATK as Arts damage per second for 25s, stacking up to 3 times. Recover </t>
     </r>
     <r>
       <rPr>
@@ -1825,7 +2773,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>%. Increase to +</t>
+      <t xml:space="preserve"> HP whenever an enemy is defeated while this effect is active.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When an enemy within Attack Range is defeated, ATK +</t>
     </r>
     <r>
       <rPr>
@@ -1845,12 +2798,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>% for [Laterano] operators</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When dealing damage, DEF+</t>
+      <t xml:space="preserve"> for </t>
     </r>
     <r>
       <rPr>
@@ -1870,7 +2818,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and ASPD+</t>
+      <t xml:space="preserve"> seconds and summon The Servant of Lament at its location (up to 3). If no more Servant of Laments can be summoned, upgrade 1 Servant of Lament instead (increase Block Count, higher HP, higher ATK and higher DEF) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When a ground enemy within Attack Range is defeated, create a stronger Puppet Dancer at its location (up to 5). Puppet Dancers deal Arts damage. While a Puppet is present, ATK +</t>
     </r>
     <r>
       <rPr>
@@ -1882,6 +2835,21 @@
       </rPr>
       <t>{}</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>When an enemy within Attack Range is defeated, self and summons ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1910,7 +2878,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seconds. Can stack </t>
+      <t xml:space="preserve"> seconds and summon The Servant of Lament at its location (up to 3). If no more Servant of Laments can be summoned, upgrade 1 Servant of Lament instead (increase Block Count, higher HP, higher ATK and higher DEF) </t>
+    </r>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can deploy up to 8 Resonators (Can store up to </t>
     </r>
     <r>
       <rPr>
@@ -1930,12 +2906,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> times</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If this unit hasn't attacked for </t>
+      <t xml:space="preserve">); The first enemy that steps on a Resonator will trigger its effect. On deployment, immediately deploys </t>
     </r>
     <r>
       <rPr>
@@ -1955,7 +2926,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seconds,  gain </t>
+      <t xml:space="preserve"> Resonators within Attack Range </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can deploy up to 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Resonators (Can store up to </t>
     </r>
     <r>
       <rPr>
@@ -1975,52 +2971,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Max HP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, The timer resets when the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is lost</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When dealing damage, DEF+</t>
+      <t xml:space="preserve">); The first enemy that steps on a Resonator will trigger its effect. On deployment, immediately deploys </t>
     </r>
     <r>
       <rPr>
@@ -2040,7 +2991,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and ASPD+</t>
+      <t xml:space="preserve"> Resonators within Attack Range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can deploy up to 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Resonators (Can store up to </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +3036,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> for </t>
+      <t xml:space="preserve">); The first enemy that steps on a Resonator will trigger its effect. On deployment, immediately deploys </t>
     </r>
     <r>
       <rPr>
@@ -2080,7 +3056,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seconds. Can stack </t>
+      <t xml:space="preserve"> Resonators within Attack Range; Has </t>
     </r>
     <r>
       <rPr>
@@ -2100,27 +3076,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> times; When max stacked, [Laterano] operators cannot have their ASPD lower than BAT</t>
-    </r>
-  </si>
-  <si>
-    <t>Młynar</t>
-  </si>
-  <si>
-    <t>VG Robot</t>
-  </si>
-  <si>
-    <t>Primal Guard</t>
-  </si>
-  <si>
-    <t>LIB-X</t>
-  </si>
-  <si>
-    <t>ISW-A</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ATK increased to </t>
+      <t xml:space="preserve"> chance to deploy an additional trap in Attack Range when deploying a trap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can deploy up to 8 Resonators (Can store up to </t>
     </r>
     <r>
       <rPr>
@@ -2140,7 +3101,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> when attacking. If there are 3 or more enemies nearby, ATK increased to </t>
+      <t xml:space="preserve">); The first enemy that steps on a Resonator will trigger its effect. On deployment, immediately deploys </t>
     </r>
     <r>
       <rPr>
@@ -2160,7 +3121,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, and take </t>
+      <t xml:space="preserve"> Resonators within Attack Range; Has </t>
     </r>
     <r>
       <rPr>
@@ -2180,12 +3141,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> less damage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ATK increased to </t>
+      <t xml:space="preserve"> chance to deploy an additional trap in Attack Range when deploying a trap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can deploy </t>
     </r>
     <r>
       <rPr>
@@ -2200,22 +3161,37 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional trap and trap deployment costs are reduced</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when attacking. If there are 3 or more enemies nearby, ATK increased to </t>
+      <t>&lt;@ba.kw&gt;expands&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2225,27 +3201,245 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>(Check CN text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can attack enemy blocked by own summon; ATK is increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when attacking enemies blocked by own summon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental Injury dealt to Elite and Leader enemies increases by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Check CN text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deals Damage to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;all targets&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> within range\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to dodge Physical and Arts attacks and is less likely to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;targeted&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by enemies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Check CN text)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEF +10%; Physical Dodge +15%; When dodge an attack, next attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.tremble&gt;Frighten&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> target for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ASPD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, and take </t>
+      <t>&lt;@ba.vup&gt;+</t>
     </r>
     <r>
       <rPr>
@@ -2255,6 +3449,96 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>{aspd:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, splash area effect of the first talent increased; Can summon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blood's whisper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the summon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -2265,12 +3549,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> less damage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When skill is inactive, deals </t>
+      <t xml:space="preserve"> enemies in for </t>
     </r>
     <r>
       <rPr>
@@ -2290,12 +3569,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">% of Tequila's ATK as Arts damage to the attacker when Tequila and operator behind is attacked </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When skill is inactive, deals </t>
+      <t xml:space="preserve"> seconds (prioritize elite and leader enemies). After target reach the summon, retreat the summon, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nearby enemies for </t>
     </r>
     <r>
       <rPr>
@@ -2315,7 +3609,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">% </t>
+      <t xml:space="preserve"> seconds, deal both </t>
     </r>
     <r>
       <rPr>
@@ -2325,25 +3619,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Tequila's ATK as Arts damage to the attacker when Tequila and operator behind is attacked </t>
-    </r>
-  </si>
-  <si>
-    <t>Crownslayer</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When in squad, all [Rhine Lab] Operators have -2 DP Cost, and the first [Rhine Lab] Operator deployed has an additional -1 DP Cost; When copy [Rhine Lab] operator, Muelsyse gain </t>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2353,22 +3629,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SP.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When in squad, all [Rhine Lab] Operators have -2 DP Cost, and the first [Rhine Lab] Operator deployed has an additional -2</t>
+      <t>{atk_scale:0%}</t>
     </r>
     <r>
       <rPr>
@@ -2378,17 +3639,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP Cost; When copy [Rhine Lab] operator, Muelsyse gain </t>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2398,22 +3669,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SP.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When in squad, all [Rhine Lab] Operators have -2 DP Cost, and the first [Rhine Lab] Operator deployed has an additional -2</t>
+      <t>{attack@ep_damage_ratio:0%}</t>
     </r>
     <r>
       <rPr>
@@ -2423,2723 +3679,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP Cost; When copy [Rhine Lab] operator, Muelsyse gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SP. Copied [Rhine Lab] operator gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SP when deploy.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When in squad, all [Rhine Lab] Operators have -2 DP Cost, and the first [Rhine Lab] Operator deployed has an additional -1 DP Cost; When copy [Rhine Lab] operator, Muelsyse gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SP. Copied [Rhine Lab] operator gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SP when deploy.</t>
-    </r>
-  </si>
-  <si>
-    <t>Silence the Paradigmatic</t>
-  </si>
-  <si>
-    <t>BLS-Y</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allies with less than 50% HP within this unit's Attack Range heal HP equal to 5% of this unit's ATK every second; effect doubles for [Rhine Lab] Operators. When allies within Attack Range have HP below 50% Max HP for the First time, gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; effect doubles for [Rhine Lab] Operators.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allies with less than 50% HP within this unit's Attack Range heal HP equal to 6% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+1%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of this unit's ATK every second; effect doubles for [Rhine Lab] Operators. When allies within Attack Range have HP below 50% Max HP for the First time, gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; effect doubles for [Rhine Lab] Operators.</t>
-    </r>
-  </si>
-  <si>
-    <t>Nervous Impairment - Player</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.neural2&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nervous Impairment - Player</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>LOR-D</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When dealing damage, deals an additional </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;10%&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>Paralysis</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Poisons the targets when attacking, dealing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;（+15）&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Arts damage to them per second, lasting 3 seconds (damage is doubled against Ranged enemies). When enemies under the burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, poison deals double damage as Elemental Damage instead</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Poisons the targets when attacking, dealing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Arts damage to them per second, lasting 3 seconds (damage is doubled against Ranged enemies). When enemies under the burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, poison deals double damage as Elemental Damage instead</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% more Physical damage to ground enemies that has not yet dealt damage to her. Increase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.stun&gt;Stun&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> duration by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> more Physical damage to ground enemies that has not yet dealt damage to her. Increase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.stun&gt;Stun&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> duration by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Normally does not attack and has 0 Block; When skill is inactive, ATK gradually increases up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;+{atk:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> over </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;{max_stack_cnt}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. ATK is reset when the skill ends; When deploy, gain 100% ATK trait effect immediately</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, ASPD+50,  restores 4% of Max HP every second </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks deal an additional 50% of ATK as Arts damage to the target with the lowest HP; in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, target 2 enemies with the lowest HP instead and drag enemies towards self with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>significant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> every 0.5 seconds; Catto has its own redeployment time </t>
+    </r>
+  </si>
+  <si>
+    <t>Cannot be blocked and move to target position.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.attract&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> force</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks deal an additional 50% of ATK as Arts damage to the target with the lowest HP; in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, target 2 enemies with the lowest HP instead and drag enemies towards self with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>significant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> force, while skill is activated, target 3 enemies with the lowest HP instead</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, for every operators with Offensive Recovery skill on the field, Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+1&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (up to +3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Every 2.5 seconds when deployed, restores 1 Skill Point to all deployed Sniper allies that have an Offensive Recovery skill; in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, restores 1 Skill Point to all operator that have an Offensive Recovery skill instead. When attacks, restores 1 Skill Point to all operator that have an Offensive Recovery skill.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Every 2.5 seconds when deployed, restores 1 Skill Point to all deployed Sniper allies that have an Offensive Recovery skill; in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, restores 1 Skill Point to all operator that have an Offensive Recovery skill instead. When attacks, restores 1 Skill Point to all operator that have an Offensive Recovery skill. When an operator activated thier Offensive Recovery skill, they gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK</t>
-    </r>
-  </si>
-  <si>
-    <t>Blocks 2 enemies, and can inflict &lt;@ba.kw&gt;Elemental Injury&lt;/&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shoots </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{times}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times in a row in the next attack, dealing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of ATK damage with every shot and reload </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{recover_cnt}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo for nearby [Laterano] operator with Ammo-based skill currently active</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, DEF+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When receiving lethel damage, consume </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo to block that attack instead.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@trigger_time}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restore all ammo to all other [Laterano] operators, MaxHP+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, DEF+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expand&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Stop attacking; When attacked, counterattack to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemies in Attack Range. Counterattack interval is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@trigger_time}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Blocks 2 enemies. Not affected by &lt;@ba.kw&gt;Deployment Limit&lt;/&gt;, but has a long Redeployment Time.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When Confess-47 block an enemy for the first time gains </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP immediately and put enemy to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sleep&gt;Sleep&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, can attack an addition enemy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@trigger_time}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ASPD+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When there is Wanted enemy, consume ammo and aiming at Wanted enemy for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds then snipe with ignore Physical Dodge shot (While aiming, gradully increase ATK to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. When ATK higher than sum of Target HP and DEF, snipe immediately)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@trigger_time}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and ammo capacity +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> after being deployed for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. Other [Laterano] operators ammo capacity +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elite and Leader enemies who remain within Attack Range of [Laterano] operators for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds are Wanted, taking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> increased damage from [Laterano] operators. Lemuen can attack all Wanted enemies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and ammo capacity +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> after being deployed for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when defeat enemies under the burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Interrupts enemy attacks once per stack. Can stack up to 3 times. Each stack lasts indefinitely until used. Enemies with resist lose 1 stack every 5 seconds.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prioritize aerial enemies. Attacks deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk_scale:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage. If cancelled manually, fire all remaining ammo at random enemies within Attack Range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@trigger_time}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ASPD from 1 operator within Attack Range (last until the skill ends or retreat). Exusiai and target operator gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and gradually depletes. Attack interval </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;reduced&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, each attack deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@trigger_time}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If Exusiai succeeded in Stealing Attack Speed, gain additional ammo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Stop attacking; consume </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo every </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds and lock on enemies one by one. When skill end, bombard at locked-on enemies location dealing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as AOE Physical damage (Deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK at center of impact)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@trigger_time}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When Trait effect reach maximum value, each attack deals 1 additional instance of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% ATK as Physical damage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When Trait effect reach maximum value, each attack deals 1 additional instance of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Recovers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP whenever an ally operator consumes ammo. Additionally, there is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% to deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% ATK as AOE Physical damage to enemies within that operator's Attack Range</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Shoots 5 times in a row, dealing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage with every shot. If </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{Delivery Marker}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is present, immediately deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as AOE Physical damage and deploy 1 ground operator with highest remaining redeployment time on that location. The deployed opearator gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Gain 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{Delivery Marker}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> after deployment. Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@trigger_time}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo (each attack consumes 5 ammo) and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage to all surrounding ground enemies. If enemies under the burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, deals Elemental Damage instead</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{ct}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> charges&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Recovers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP whenever an ally operator spends ammo. Additionally, there is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% to deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% ATK as AOE Physical damage to enemies within that operator's Attack Range</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Each attack deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage twice and additionally deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the damage dealt as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Arts damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to &lt;@ba.kw&gt;2&lt;/&gt; target; When skill is active, attacks instead restore the HP of &lt;@ba.kw&gt;2&lt;/&gt; allies (heal amount is equal to 75% of ATK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.palsy&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Paralysis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>ba.palsy</t>
-  </si>
-  <si>
-    <t>Explodes when at max (1000 for Normal and Elite, 2000 for Leaders), dealing 6000 Elemental Damage and inflict 3 &lt;$ba.palsy&gt;Paralysis&lt;/&gt; stack. 10s cooldown.</t>
+  </si>
+  <si>
+    <t>ba.attract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5195,15 +3804,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5216,14 +3818,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -5334,15 +3930,6 @@
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -5366,7 +3953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5435,7 +4022,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5469,22 +4055,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5510,81 +4088,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -5665,7 +4168,7 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
@@ -5678,8 +4181,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -6013,6 +4514,81 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -6168,7 +4744,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
@@ -6181,12 +4757,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -6498,9 +5068,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF49800"/>
       <color rgb="FF0098FF"/>
       <color rgb="FF00B0FF"/>
+      <color rgb="FFF49800"/>
       <color rgb="FFFF6237"/>
     </mruColors>
   </colors>
@@ -6545,38 +5115,38 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C12" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:C12" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{212359CB-4A30-4872-99A6-07552DAAAE97}" name="Details" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{212359CB-4A30-4872-99A6-07552DAAAE97}" name="Details" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:C45" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
-    <sortCondition ref="A2:A9"/>
-    <sortCondition ref="B2:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:C17" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{224BD11C-823E-43C3-A2EF-F8A264F71916}" name="Detail" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{224BD11C-823E-43C3-A2EF-F8A264F71916}" name="Detail" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCADEFEA-1805-4979-9482-D8E3D6498FC3}" name="Table5" displayName="Table5" ref="A1:D8" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:D8" xr:uid="{3AD9D22D-2502-4D5C-8AA0-534854093817}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCADEFEA-1805-4979-9482-D8E3D6498FC3}" name="Table5" displayName="Table5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D9" xr:uid="{3AD9D22D-2502-4D5C-8AA0-534854093817}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7324A2AE-1F85-4F21-8A09-2886AAE0CF24}" name="New" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A602D952-3063-4C60-8090-59FB6704A6C8}" name="From" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{249AEA3B-3B79-45AF-B657-BEED4FAD9C80}" name="Type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3FC14EBF-5FC4-4805-820A-A79DFFCA0084}" name="Detail" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7324A2AE-1F85-4F21-8A09-2886AAE0CF24}" name="New" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A602D952-3063-4C60-8090-59FB6704A6C8}" name="From" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{249AEA3B-3B79-45AF-B657-BEED4FAD9C80}" name="Type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3FC14EBF-5FC4-4805-820A-A79DFFCA0084}" name="Detail" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6845,11 +5415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E696680-5C0C-47EA-B8F5-3DDA6BE989A2}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6883,7 +5453,7 @@
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6900,7 +5470,7 @@
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -6917,7 +5487,7 @@
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6934,7 +5504,7 @@
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6951,7 +5521,7 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -6968,7 +5538,7 @@
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -6985,7 +5555,7 @@
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -7002,7 +5572,7 @@
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -7019,7 +5589,7 @@
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -7036,7 +5606,7 @@
       <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -7053,7 +5623,7 @@
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -7070,7 +5640,7 @@
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -7087,7 +5657,7 @@
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -7104,7 +5674,7 @@
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -7121,7 +5691,7 @@
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -7138,7 +5708,7 @@
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -7155,7 +5725,7 @@
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -7172,7 +5742,7 @@
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -7189,7 +5759,7 @@
       <c r="A20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -7206,7 +5776,7 @@
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -7223,7 +5793,7 @@
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -7240,7 +5810,7 @@
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -7257,7 +5827,7 @@
       <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -7274,7 +5844,7 @@
       <c r="A25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -7291,7 +5861,7 @@
       <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -7308,7 +5878,7 @@
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -7325,11 +5895,11 @@
       <c r="A28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>207</v>
+      <c r="B28" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D28" s="14">
         <v>0</v>
@@ -7342,7 +5912,7 @@
       <c r="A29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -7359,7 +5929,7 @@
       <c r="A30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -7376,7 +5946,7 @@
       <c r="A31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -7393,7 +5963,7 @@
       <c r="A32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -7410,7 +5980,7 @@
       <c r="A33" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -7427,7 +5997,7 @@
       <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -7444,7 +6014,7 @@
       <c r="A35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>104</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -7454,14 +6024,14 @@
         <v>0</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -7478,7 +6048,7 @@
       <c r="A37" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -7495,7 +6065,7 @@
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>112</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -7512,7 +6082,7 @@
       <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -7529,7 +6099,7 @@
       <c r="A40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -7546,7 +6116,7 @@
       <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -7563,7 +6133,7 @@
       <c r="A42" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -7580,7 +6150,7 @@
       <c r="A43" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -7590,14 +6160,14 @@
         <v>0</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -7614,7 +6184,7 @@
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>132</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -7624,14 +6194,14 @@
         <v>0</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -7648,11 +6218,11 @@
       <c r="A47" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>136</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D47" s="14">
         <v>0</v>
@@ -7665,7 +6235,7 @@
       <c r="A48" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>138</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -7675,14 +6245,14 @@
         <v>0</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -7692,14 +6262,14 @@
         <v>0</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -7709,31 +6279,31 @@
         <v>0</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>213</v>
+      <c r="B51" s="33" t="s">
+        <v>207</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D51" s="14">
         <v>0</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>194</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -7748,36 +6318,53 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>246</v>
+        <v>209</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="D53" s="14">
         <v>0</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>250</v>
+        <v>215</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>212</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="D54" s="14">
         <v>0</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>274</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7791,20 +6378,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="203.875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="203.875" style="29" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7815,97 +6399,73 @@
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>198</v>
+      <c r="A2" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>280</v>
+      <c r="C2" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>198</v>
+      <c r="A3" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>224</v>
+      <c r="C3" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>199</v>
+      <c r="A4" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>271</v>
+      <c r="C4" s="27" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>199</v>
+      <c r="A5" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>272</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>225</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="18">
-        <v>2</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>226</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="39">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>273</v>
-      </c>
+      <c r="A8" s="25"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="39">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>267</v>
-      </c>
+      <c r="A9" s="25"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7918,20 +6478,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="196.375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="196.375" style="31" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7942,130 +6499,106 @@
       <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>198</v>
+      <c r="A2" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>198</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>198</v>
+      <c r="A4" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>281</v>
+      <c r="C4" s="36" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>199</v>
+      <c r="A5" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>199</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
-        <v>199</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B7" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="39">
-        <v>1</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="39">
+      <c r="A8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="39">
-        <v>3</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>265</v>
-      </c>
+      <c r="C8" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>284</v>
-      </c>
+      <c r="A11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="18">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>282</v>
-      </c>
+      <c r="A12" s="40"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -8079,17 +6612,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="164.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.625" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8100,392 +6633,184 @@
       <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="28" t="s">
+      <c r="C5" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="28" t="s">
+      <c r="C13" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="29"/>
+      <c r="C15" s="27" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="A16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2</v>
+      </c>
       <c r="C16" s="28" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="28" t="s">
+      <c r="A17" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="28" t="s">
-        <v>261</v>
+      <c r="B17" s="18">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8499,10 +6824,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA072BA0-A74B-4D64-9677-E60E9F767C6E}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8510,7 +6835,7 @@
     <col min="1" max="1" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="177" style="32" customWidth="1"/>
+    <col min="4" max="4" width="177" style="31" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8524,107 +6849,87 @@
       <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>266</v>
+      <c r="A2" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="21" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>255</v>
+      <c r="A3" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="36" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>285</v>
+      <c r="A5" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="36" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>248</v>
-      </c>
+      <c r="A6" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="39"/>
       <c r="D6" s="21" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>256</v>
-      </c>
+      <c r="A7" s="37"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>259</v>
-      </c>
+      <c r="A8" s="37"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AN-EN-Tags-NEW\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AN-EN-Tags\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47A0F7-25B7-4FE7-B7BA-B0AEC575D252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEEBBB0-3331-415E-9424-0991D111C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="645" windowWidth="21600" windowHeight="14835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -19,17 +19,26 @@
     <sheet name="Mod" sheetId="3" r:id="rId4"/>
     <sheet name="Trait" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="250">
   <si>
     <t>Op</t>
   </si>
@@ -1827,7 +1836,404 @@
     <t>Explodes when at max (1000 for Normal and Elite, 2000 for Leaders), dealing 6000 Elemental Damage and inflict 3 &lt;$ba.palsy&gt;Paralysis&lt;/&gt; stack. 10s cooldown.</t>
   </si>
   <si>
-    <t>Miss Christine</t>
+    <r>
+      <t>&lt;$ba.dt.element&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elemental Injury</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Lure / Attract</t>
+  </si>
+  <si>
+    <t>Mod Trait</t>
+  </si>
+  <si>
+    <t>Cannot be blocked and move to target position.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.attract&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>ba.attract</t>
+  </si>
+  <si>
+    <t>Record Keeper</t>
+  </si>
+  <si>
+    <t>Leizi the Thunderbringer</t>
+  </si>
+  <si>
+    <t>Typhon</t>
+  </si>
+  <si>
+    <t>Heavy as the Swamp's Mire</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Goldenglow</t>
+  </si>
+  <si>
+    <t>Precise Redirection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Goldenglow and her Drones' attacks ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Goldenglow and her Drones' attacks ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+3)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When damaging an enemy for the first and the second times while a skill is active, ATK increases to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;Slows&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> targets for 3 seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When damaging an enemy for the first and the second times while a skill is active, ATK increases to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+10%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;Slows&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> targets for 3 seconds</t>
+    </r>
+  </si>
+  <si>
+    <t>Gavial the Invincible</t>
+  </si>
+  <si>
+    <t>Medical Background</t>
+  </si>
+  <si>
+    <t>SIE-Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The further away the enemy, the higher the damage dealt (up to an increase of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;{damage_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Details </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increases the heal amount of the next heal to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{heal_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK and heal one additional target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> charges&lt;/&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1836,12 +2242,702 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;+{atk:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, when healing target, cause target to recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP whenever taking damage for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When an operator in Attack Range activate skill, recover 1 SP and ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each tile within Attack Range has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% chance to Lightning strikes every second, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage to all enemies; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.fly&gt;Take Off&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when skill is inactive. When skill is active, increase ATK to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When skill is activated, Lightning strikes all ground tile within Attack Range, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% ATK as Arts damage to ground enemies and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.tremble&gt;frighten&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on frontal and side direction. Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% ATK as Physical damage to ground enemies in all three direction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> charges; Trait effect will not reset until all skill charges depleted&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> along ground tiles up to 3 tiles. Attack deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% ATK as Physical damage. ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> each time Lightning strikes during skill (up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stacks)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Attack Interval is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.vdown&gt;greatly increased&lt;/&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Attack deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% ATK as Physical damage and generate electric currents on target in all direction, currents travel for 3 tiles. When current hit Leizi or high ground, current rebound, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% ATK as Arts damage to enemies in currents tile every 0.6 seconds and has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% chance to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.tremble&gt;frighten&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enemies blocked by this unit receive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% Physical Fragility; Increases this unit's healing received by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">%, increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% when under half HP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enemies blocked by this unit receive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% Physical Fragility; Increases this unit's healing received by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.vup&gt;+</t>
+      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, increased to </t>
     </r>
     <r>
       <rPr>
@@ -1851,17 +2947,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/&gt;, attacks deal an additional </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
     </r>
     <r>
       <rPr>
@@ -1871,1884 +2967,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@ep_damage_ratio:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Arts damage as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enemies within Attack Range take </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Elemental Damage when they </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Stop attacking. Summon cat spirit at target location, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage to neaby enemies every second; if target is under the burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, deal an additional </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{attack@extra_ep_damage_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Elemental Damage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If this unit hasn't attacked for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds, dodge next attack.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tippi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.liftoff&gt;Takes Off&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, ATK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.liftoff&gt;Takes Off&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, ATK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Shoots </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{times}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times in a row; Only activated when attacked and dodge that attack</t>
-    </r>
-  </si>
-  <si>
-    <t>Tragodia</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Additionally, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to enemies near target.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enemies under the burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, ASPD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{-}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; Enemies within Attack Range receive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when attacking</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.dt.element&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Elemental Injury</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk_scale:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage twice and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.root&gt;bind&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemy for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. While Bound, the target takes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> more </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, prioritizing enemies not under a burst effect</t>
-    </r>
-  </si>
-  <si>
-    <t>Lure / Attract</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, ATK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and prioritizing enemies not under a burst effect. Enemies that have received </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from Tragodia will receive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Neural Impairment every second until Elemental burst; Enemies within Attack Range recover from burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> faster. Whenever a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst effect is triggered, summon/refresh the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cage of Madness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> at target location</t>
-    </r>
-  </si>
-  <si>
-    <t>Necrass</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>3+</t>
-  </si>
-  <si>
-    <t>Tecno</t>
-  </si>
-  <si>
-    <t>Mod Trait</t>
-  </si>
-  <si>
-    <t>Techno</t>
-  </si>
-  <si>
-    <t>When a ground enemy within Attack Range is defeated, create a stronger Puppet Dancer at its location (up to 5). Puppet Dancers deal Arts damage</t>
-  </si>
-  <si>
-    <t>Ascalon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks inflict the following effect on enemies: Movement Speed reduced by 18% and take 10% of Ascalon's current ATK as Arts damage per second for 25s, stacking up to 3 times. Recover </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP whenever an enemy is defeated while this effect is active.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When an enemy within Attack Range is defeated, ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds and summon The Servant of Lament at its location (up to 3). If no more Servant of Laments can be summoned, upgrade 1 Servant of Lament instead (increase Block Count, higher HP, higher ATK and higher DEF) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When a ground enemy within Attack Range is defeated, create a stronger Puppet Dancer at its location (up to 5). Puppet Dancers deal Arts damage. While a Puppet is present, ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When an enemy within Attack Range is defeated, self and summons ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds and summon The Servant of Lament at its location (up to 3). If no more Servant of Laments can be summoned, upgrade 1 Servant of Lament instead (increase Block Count, higher HP, higher ATK and higher DEF) </t>
-    </r>
-  </si>
-  <si>
-    <t>Dorothy</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy up to 8 Resonators (Can store up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">); The first enemy that steps on a Resonator will trigger its effect. On deployment, immediately deploys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Resonators within Attack Range </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy up to 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Resonators (Can store up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">); The first enemy that steps on a Resonator will trigger its effect. On deployment, immediately deploys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Resonators within Attack Range</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy up to 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Resonators (Can store up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">); The first enemy that steps on a Resonator will trigger its effect. On deployment, immediately deploys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Resonators within Attack Range; Has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to deploy an additional trap in Attack Range when deploying a trap</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy up to 8 Resonators (Can store up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">); The first enemy that steps on a Resonator will trigger its effect. On deployment, immediately deploys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Resonators within Attack Range; Has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to deploy an additional trap in Attack Range when deploying a trap</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> additional trap and trap deployment costs are reduced</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Check CN text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can attack enemy blocked by own summon; ATK is increased to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk_scale:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when attacking enemies blocked by own summon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elemental Injury dealt to Elite and Leader enemies increases by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Check CN text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deals Damage to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;all targets&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> within range\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>65%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to dodge Physical and Arts attacks and is less likely to be </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;targeted&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by enemies </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Check CN text)</t>
-    </r>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DEF +10%; Physical Dodge +15%; When dodge an attack, next attack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.tremble&gt;Frighten&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> target for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ASPD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{aspd:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, splash area effect of the first talent increased; Can summon </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blood's whisper</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, the summon </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>attact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemies in for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds (prioritize elite and leader enemies). After target reach the summon, retreat the summon, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nearby enemies for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds, deal both </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{atk_scale:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{attack@ep_damage_ratio:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> every 0.5 seconds; Catto has its own redeployment time </t>
-    </r>
-  </si>
-  <si>
-    <t>Cannot be blocked and move to target position.</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.attract&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Attract</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>ba.attract</t>
+      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when under half HP</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3800,6 +3037,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3953,7 +3204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4063,11 +3314,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
     <dxf>
       <font>
         <b val="0"/>
@@ -4322,6 +3577,34 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -5069,8 +4352,8 @@
   <colors>
     <mruColors>
       <color rgb="FF0098FF"/>
+      <color rgb="FFF49800"/>
       <color rgb="FF00B0FF"/>
-      <color rgb="FFF49800"/>
       <color rgb="FFFF6237"/>
     </mruColors>
   </colors>
@@ -5086,53 +4369,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C16CB9E1-C747-45DF-B3A2-348B6D400693}" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C16CB9E1-C747-45DF-B3A2-348B6D400693}" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:E52" xr:uid="{373BD71A-3DF4-4BC2-B1FE-B89A538D34FF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1BDC0A72-6D09-4EE6-A806-0E6B91CABBAA}" name="Keyword" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{07C2DF2B-28B9-440F-BAE8-1CBC9A743A7E}" name="Type" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{C0AE2D09-B9F4-4996-A1F9-3C21AB7EDA04}" name="kw" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{2D825A5B-8764-4E3E-8043-70A50DB4AB22}" name="Color" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{7C465D26-20BE-4736-A643-089B09CA7FD8}" name="Details" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{1BDC0A72-6D09-4EE6-A806-0E6B91CABBAA}" name="Keyword" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{07C2DF2B-28B9-440F-BAE8-1CBC9A743A7E}" name="Type" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{C0AE2D09-B9F4-4996-A1F9-3C21AB7EDA04}" name="kw" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{2D825A5B-8764-4E3E-8043-70A50DB4AB22}" name="Color" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{7C465D26-20BE-4736-A643-089B09CA7FD8}" name="Details" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6968D02B-2C35-4522-99E1-BA51530B4553}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6968D02B-2C35-4522-99E1-BA51530B4553}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:C9" xr:uid="{71236087-20BC-4953-BFDF-0CA4834863A9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D84A1065-D5C9-46A0-A7AB-4B9ADC68B4C5}" name="Op" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{38256F81-A768-4F88-935E-457B88738A34}" name="Talent" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{54030400-8D62-49B2-BCCF-83684F84DEAA}" name="Details" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{D84A1065-D5C9-46A0-A7AB-4B9ADC68B4C5}" name="Op" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{38256F81-A768-4F88-935E-457B88738A34}" name="Talent" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{54030400-8D62-49B2-BCCF-83684F84DEAA}" name="Details &lt;@ba.talpu&gt;{}&lt;/&gt;" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C12" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C12" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:C12" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{212359CB-4A30-4872-99A6-07552DAAAE97}" name="Details" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{212359CB-4A30-4872-99A6-07552DAAAE97}" name="Details " dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:C17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:C17" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:D17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:D17" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
     <sortCondition ref="A2:A8"/>
     <sortCondition ref="B2:B8"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="9"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{875AA631-11A6-427A-9BE7-3CC56886BA27}" name="Column1" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{224BD11C-823E-43C3-A2EF-F8A264F71916}" name="Detail" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5418,8 +4702,8 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5899,7 +5183,7 @@
         <v>202</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D28" s="14">
         <v>0</v>
@@ -6352,19 +5636,19 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D55" s="14">
         <v>0</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +5665,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6400,52 +5684,46 @@
         <v>7</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>225</v>
+      <c r="A2" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>225</v>
+      <c r="A3" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>219</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
@@ -6480,15 +5758,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="196.375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="255.625" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6500,85 +5778,73 @@
         <v>2</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>225</v>
+      <c r="C2" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>225</v>
+      <c r="C3" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>231</v>
+      <c r="C4" s="21" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="38">
-        <v>2</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>220</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -6612,205 +5878,241 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="164.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="164.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="B2" s="18">
-        <v>2</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="18">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="18">
-        <v>3</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="18">
-        <v>2</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B9" s="18">
-        <v>3</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B10" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C10" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B11" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="C12" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="C14" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="18">
         <v>3</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C16" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="18">
-        <v>2</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="B17" s="18">
-        <v>3</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>255</v>
+        <v>3.5</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6827,7 +6129,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6855,63 +6157,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="39" t="s">
+        <v>236</v>
+      </c>
       <c r="D2" s="21" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>232</v>
-      </c>
+      <c r="A3" s="39"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="30" t="s">
-        <v>251</v>
-      </c>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>237</v>
-      </c>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="36" t="s">
-        <v>250</v>
-      </c>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>239</v>
-      </c>
+      <c r="A5" s="39"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="36" t="s">
-        <v>253</v>
-      </c>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>244</v>
-      </c>
+      <c r="A6" s="39"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="21" t="s">
-        <v>249</v>
-      </c>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AN-EN-Tags\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEEBBB0-3331-415E-9424-0991D111C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BB26D9-80A4-45E9-9071-A9F3E96AD79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="645" windowWidth="21600" windowHeight="14835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="238">
   <si>
     <t>Op</t>
   </si>
@@ -1898,29 +1898,46 @@
     <t>ba.attract</t>
   </si>
   <si>
-    <t>Record Keeper</t>
-  </si>
-  <si>
-    <t>Leizi the Thunderbringer</t>
-  </si>
-  <si>
-    <t>Typhon</t>
-  </si>
-  <si>
-    <t>Heavy as the Swamp's Mire</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
-    <t>Goldenglow</t>
-  </si>
-  <si>
-    <t>Precise Redirection</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Goldenglow and her Drones' attacks ignore </t>
+    <r>
+      <t xml:space="preserve">The further away the enemy, the higher the damage dealt (up to an increase of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;{damage_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1935,17 +1952,39 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Goldenglow and her Drones' attacks ignore </t>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Details </t>
+  </si>
+  <si>
+    <t>Raidian</t>
+  </si>
+  <si>
+    <t>SO-A</t>
+  </si>
+  <si>
+    <t>summon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1955,6 +1994,343 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>+{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/&gt; ATK and launch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional shot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Passive: Summons may be deployed on melee tiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Active: Raidian and her summons gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{def:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{hp_ratio:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP last until the skill ends
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;Immediately gain 1 summon when the skill is activated&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{def:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/&gt; DEF and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> equal to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{hp_ratio:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP last until the skill ends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/&gt; ATK, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and inflict </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -1970,27 +2346,123 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.magicfragile&gt;Arts Fragility&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to target for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can use up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> summons (max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deployed at once). Summons’ effect changes based upon Skill </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Passive: Summons may be deployed on melee tiles and continuously launch a Straight Shot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Active: Raidian and her summons gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;(+3)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When damaging an enemy for the first and the second times while a skill is active, ATK increases to </t>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2000,6 +2472,163 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>+{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK and summon launch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional shot
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;Immediately gain 1 summon when the skill is activated&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Passive: Summons may be deployed on ranged tiles. When summon cannot find target in it own Attack Range, it can coordination attack with other summon in Attack Range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Active: Raidian and her summons gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{atk:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK, summon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and inflict </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -2010,7 +2639,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">% and </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2020,22 +2649,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.sluggish&gt;Slows&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> targets for 3 seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When damaging an enemy for the first and the second times while a skill is active, ATK increases to </t>
+      <t>&lt;$ba.magicfragile&gt;Arts Fragility&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to target for </t>
     </r>
     <r>
       <rPr>
@@ -2055,144 +2679,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+10%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;Slows&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> targets for 3 seconds</t>
-    </r>
-  </si>
-  <si>
-    <t>Gavial the Invincible</t>
-  </si>
-  <si>
-    <t>Medical Background</t>
-  </si>
-  <si>
-    <t>SIE-Y</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The further away the enemy, the higher the damage dealt (up to an increase of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;{damage_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Details </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Details </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increases the heal amount of the next heal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{heal_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK and heal one additional target</t>
+      <t xml:space="preserve"> seconds
+</t>
     </r>
     <r>
       <rPr>
@@ -2207,778 +2695,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> charges&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ATK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+{atk:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, when healing target, cause target to recover </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP whenever taking damage for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When an operator in Attack Range activate skill, recover 1 SP and ASPD+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Each tile within Attack Range has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% chance to Lightning strikes every second, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage to all enemies; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.fly&gt;Take Off&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when skill is inactive. When skill is active, increase ATK to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When skill is activated, Lightning strikes all ground tile within Attack Range, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% ATK as Arts damage to ground enemies and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.tremble&gt;frighten&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> them for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on frontal and side direction. Deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% ATK as Physical damage to ground enemies in all three direction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> charges; Trait effect will not reset until all skill charges depleted&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> along ground tiles up to 3 tiles. Attack deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% ATK as Physical damage. ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> each time Lightning strikes during skill (up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> stacks)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Attack Interval is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.vdown&gt;greatly increased&lt;/&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Attack deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% ATK as Physical damage and generate electric currents on target in all direction, currents travel for 3 tiles. When current hit Leizi or high ground, current rebound, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% ATK as Arts damage to enemies in currents tile every 0.6 seconds and has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% chance to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.tremble&gt;frighten&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> them for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enemies blocked by this unit receive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% Physical Fragility; Increases this unit's healing received by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">%, increased to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% when under half HP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enemies blocked by this unit receive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% Physical Fragility; Increases this unit's healing received by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, increased to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when under half HP</t>
-    </r>
+      <t>&lt;@ba.rem&gt;Immediately gain 1 summon when the skill is activated&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Summons gain &lt;$ba.inspire&gt;Inspiration&lt;/&gt; equal to {} of Raidian's HP, ATK and DEF</t>
   </si>
 </sst>
 </file>
@@ -3204,7 +2930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3317,7 +3043,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4352,8 +4077,8 @@
   <colors>
     <mruColors>
       <color rgb="FF0098FF"/>
+      <color rgb="FF00B0FF"/>
       <color rgb="FFF49800"/>
-      <color rgb="FF00B0FF"/>
       <color rgb="FFFF6237"/>
     </mruColors>
   </colors>
@@ -4702,8 +4427,8 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5665,7 +5390,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5684,41 +5409,35 @@
         <v>7</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>242</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -5758,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5778,68 +5497,68 @@
         <v>2</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B4" s="18">
         <v>3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="21" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="21" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -5880,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5901,219 +5620,115 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>224</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="7"/>
       <c r="D2" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="7"/>
       <c r="D3" s="27" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" s="18"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="27" t="s">
-        <v>242</v>
-      </c>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="18"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="27" t="s">
-        <v>242</v>
-      </c>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>232</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>233</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="18">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>232</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>233</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="18">
-        <v>2</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>230</v>
-      </c>
+      <c r="A10" s="25"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>231</v>
-      </c>
+      <c r="A11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>230</v>
-      </c>
+      <c r="A12" s="25"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>231</v>
-      </c>
+      <c r="A13" s="25"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="18">
-        <v>2</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>248</v>
-      </c>
+      <c r="A14" s="25"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>249</v>
-      </c>
+      <c r="A15" s="25"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="18">
-        <v>3</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>248</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>249</v>
-      </c>
+      <c r="A17" s="25"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6129,7 +5744,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6159,14 +5774,14 @@
       <c r="A2" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>225</v>
+      <c r="B2" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AN-EN-Tags\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BB26D9-80A4-45E9-9071-A9F3E96AD79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720CADC3-CF24-42D0-9CB3-EC4FCF04CE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -5390,7 +5390,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5478,7 +5478,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5599,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5743,8 +5743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA072BA0-A74B-4D64-9677-E60E9F767C6E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AN-EN-Tags\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720CADC3-CF24-42D0-9CB3-EC4FCF04CE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF470A80-7E07-4FA2-91DD-596006B22568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="292">
   <si>
     <t>Op</t>
   </si>
@@ -1864,70 +1864,1334 @@
     <t>Lure / Attract</t>
   </si>
   <si>
+    <t>Cannot be blocked and move to target position.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.attract&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>ba.attract</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Details </t>
+  </si>
+  <si>
+    <t>Hoshiguma the Breacher</t>
+  </si>
+  <si>
+    <t>Haruka</t>
+  </si>
+  <si>
+    <t>Matsukiri</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Strategist</t>
+  </si>
+  <si>
+    <t>Block 2 enemies\nCan support allies in the Deployment Waiting Zone</t>
+  </si>
+  <si>
+    <t>Kichisei</t>
+  </si>
+  <si>
+    <t>Nymph</t>
+  </si>
+  <si>
     <t>Mod Trait</t>
   </si>
   <si>
-    <t>Cannot be blocked and move to target position.</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.attract&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Attract</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
+    <t>Primal Caster</t>
+  </si>
+  <si>
+    <t>Increase damage dealt to enemies under elemental burst effect to 110%</t>
+  </si>
+  <si>
+    <t>Blaze the Igniting Spark</t>
+  </si>
+  <si>
+    <t>Diamante</t>
+  </si>
+  <si>
+    <t>Warmy</t>
+  </si>
+  <si>
+    <t>Miss.Christine</t>
+  </si>
+  <si>
+    <t>Ch'en the Holungday</t>
+  </si>
+  <si>
+    <t>Spreadshooter</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Gains 1 Coin upon skill activation (can be spent through skills). While a skill is active, gains 1 Coin each time DP is consumed by this unit's Trait, and +4% ATK (stacks up to 8 times)</t>
+  </si>
+  <si>
+    <t>Swire the Elegant Wit</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When Bubble pop, Bubble operator recovery HP for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increase damage for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for every unique enemy defeated (can stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gains up to +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK and +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.berserk&gt;Tenacity&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (reaches maximum bonus when losing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Every </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attack, grant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bubble to operator in Attack Range. When Bubble operator take damage, Bubble pop after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Defender]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Supporter]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operators on the field and Deployment Waiting Zone ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after Matsukiri has been deployed for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When HP down to 0, enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Self"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> state. During this period, cannot be healed by allies and accumulate all incoming damage. When accumulate damage higher than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP, reteated. When not received any damage for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds, recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP per seconds. When HP more than 0, exist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Self"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> state.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. When Bubble pop, grant Bubble to all nearby operators in the surrounding 8 tiles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hoshiguma throws her shield out, attack all blocked enemies and deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage thrice, shield spin around her once, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage every 0.5 second and inflict </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to nearby enemies for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds; Hoshiguma recover HP by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Shield damage dealt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Attack Range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;@ba.kw&gt;expand&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Max HP +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, attack up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies twice. When deactivate skill manually, retain skill effect for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds and cannot be defeated. Attack deal damage four-in-a-row insteads, receive lethal damage dealt on other operators in Attack Range, automatically retreat after effect end.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;Skill can be manually deactivated&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increase healing target and Bubble count by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When operators healed by Haruka, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of healing amount as Arts damage to enemies nearby.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;From second activation and on, ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, this skill has unlimited duration&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, attack interval </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;reduce&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Bubble </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> effectiveness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">x. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.levitate&gt;Levitate&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies that attack Bubble operator for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds and deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage every second to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.levitate&gt;Levitated&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Immediately gains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{cost}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>ba.attract</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The further away the enemy, the higher the damage dealt (up to an increase of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;{damage_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Details </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{-}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP cost of the right-most operator in Deployment Waiting Zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack interval </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vdown&gt;increase slightly&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. After every attack, ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (can stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack interval </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vdown&gt;increase&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Each attack randomly inflicts one of the following statuses to all targets hit (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.root&gt;bind&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.stun&gt;stun&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) for </t>
     </r>
     <r>
       <rPr>
@@ -1937,7 +3201,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;</t>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{sluggish}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gradually obtains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{trig_cnt}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP during the skill duration. While this skill is active, ATK+</t>
     </r>
     <r>
       <rPr>
@@ -1952,29 +3291,1159 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP every second. When skill end, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP cost and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP for all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Defender] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Supporter]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operators in Deployment Waiting Zone (can stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times until they retreated)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Reduces&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Deployment Cost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, reduce deployment cost and on-field DP cost by 30%. For every DP consumed, reduce the Redeployment time of least remaining redeployment time operator by 2 seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Reclamation Algorithm&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, when carry any resource, the Redeployment time greatly reduce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When deployed, all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Guard]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Operators gain +16% ATK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Reclamation Algorithm&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reveal Treasure chest location, attack create shockwave on all other </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Guard]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Reclamation Algorithm&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, reveal Treasure chest location, attack create 50% ATK shockwave on all other </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Guard]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operators. When has resource as Primary target create 50% ATK shockwave on all connected resources (up to 10 resources)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When Bubble pop, Bubble operator recovery HP for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK and has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to recover 1 SP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst effect is triggered, ATK +2%, stacking up to 10 times. After 10 stack, ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst effect is triggered, ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%, stacking up to 10 times. After 10 stack, ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever an enemy triggers a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst, immediately deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% ATK as Elemental Damage to that enemy, recovers 12% Max HP and ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever an enemy triggers a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst, immediately deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% ATK as Elemental Damage to that enemy, recovers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% Max HP and ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If there is an enemy within attack range under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enemies within Attack Range take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% ATK as Elemental Damage when they trigger a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies, increase ATK to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Enemies within Attack Range take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% ATK as Elemental Damage when they </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ASPD +8, when there is water terrain on the battlefield, the effect becomes ASPD +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ASPD +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, when there is water terrain on the battlefield, the effect becomes ASPD +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. When skill is active, regard the battlefield as water terrain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Coin limit +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, gains 1 extra Coin each time DP is consumed by this unit's Trait and gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional ATK stack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Coin limit +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, maximum ATK stack +1 for each Originium Ingot in possession (up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional max stacks), gains 1 extra Coin each time DP is consumed by this unit's Trait and gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional ATK stack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst effect is triggered, ATK +2%, stacking up to 12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Details </t>
-  </si>
-  <si>
-    <t>Raidian</t>
-  </si>
-  <si>
-    <t>SO-A</t>
-  </si>
-  <si>
-    <t>summon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gain </t>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times. After 10 stack, ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst effect is triggered, ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">%, stacking up to 12 </t>
     </r>
     <r>
       <rPr>
@@ -1984,73 +4453,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/&gt; ATK and launch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> additional shot</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Passive: Summons may be deployed on melee tiles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Active: Raidian and her summons gain </t>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times. After 10 stack, ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever an enemy triggers a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst, immediately deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
     </r>
     <r>
       <rPr>
@@ -2060,17 +4528,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{def:0%}</t>
+      <t>&lt;@ba.talpu&gt;(+30%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental Damage to that enemy, recovers 15% </t>
     </r>
     <r>
       <rPr>
@@ -2080,37 +4548,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to </t>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP and ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever an enemy triggers a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst, immediately deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
     </r>
     <r>
       <rPr>
@@ -2120,17 +4653,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{hp_ratio:0%}</t>
+      <t>&lt;@ba.talpu&gt;(+30%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental Damage to that enemy, recovers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
     </r>
     <r>
       <rPr>
@@ -2140,43 +4693,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP last until the skill ends
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Immediately gain 1 summon when the skill is activated&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gain </t>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP and ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If there is an enemy within attack range under the burst effect of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
     </r>
     <r>
       <rPr>
@@ -2186,47 +4798,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{def:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/&gt; DEF and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to</t>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enemies within Attack Range take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
     </r>
     <r>
       <rPr>
@@ -2236,17 +4833,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{hp_ratio:0%}</t>
+      <t>&lt;@ba.talpu&gt; (+20%) &lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ATK as Elemental Damage when they trigger a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies, increase ATK to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Enemies within Attack Range take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
     </r>
     <r>
       <rPr>
@@ -2256,22 +4938,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP last until the skill ends</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gain </t>
+      <t>&lt;@ba.talpu&gt;(+10%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental Damage when they </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gains 1 Coin upon skill activation (can be spent through skills). While a skill is active, gains 1 Coin each time DP is consumed by this unit's Trait, and +4% ATK (stacks up to 9 </t>
     </r>
     <r>
       <rPr>
@@ -2281,47 +4973,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/&gt; ATK, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and inflict </t>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When deployed, all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Guard]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Operators gain +20% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+4%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
     </r>
     <r>
       <rPr>
@@ -2341,27 +5053,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.magicfragile&gt;Arts Fragility&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to target for </t>
+      <t>, DEF+</t>
     </r>
     <r>
       <rPr>
@@ -2381,330 +5073,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can use up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> summons (max </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deployed at once). Summons’ effect changes based upon Skill </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Passive: Summons may be deployed on melee tiles and continuously launch a Straight Shot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Active: Raidian and her summons gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK and summon launch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> additional shot
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Immediately gain 1 summon when the skill is activated&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Passive: Summons may be deployed on ranged tiles. When summon cannot find target in it own Attack Range, it can coordination attack with other summon in Attack Range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Active: Raidian and her summons gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK, summon </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and inflict </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.magicfragile&gt;Arts Fragility&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to target for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Immediately gain 1 summon when the skill is activated&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Summons gain &lt;$ba.inspire&gt;Inspiration&lt;/&gt; equal to {} of Raidian's HP, ATK and DEF</t>
+      <t>. Deals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage to enemies that attack Hoshiguma\n&lt;@ba.rem&gt;From second activation and on, ATK+{}, this skill has unlimited duration&lt;/&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2930,7 +5320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3043,6 +5433,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4076,8 +6467,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00B0FF"/>
       <color rgb="FF0098FF"/>
-      <color rgb="FF00B0FF"/>
       <color rgb="FFF49800"/>
       <color rgb="FFFF6237"/>
     </mruColors>
@@ -4132,8 +6523,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:D17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:D17" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B14CCD12-F052-42BB-91EE-735614455405}" name="Table4" displayName="Table4" ref="A1:D35" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:D35" xr:uid="{8B5B2D93-E296-4982-9188-1B1EA292AE95}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
     <sortCondition ref="A2:A8"/>
     <sortCondition ref="B2:B8"/>
@@ -4427,8 +6818,8 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5361,19 +7752,19 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D55" s="14">
         <v>0</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +7781,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5409,50 +7800,74 @@
         <v>7</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>227</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
@@ -5477,15 +7892,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="255.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.5" style="31" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5497,88 +7912,118 @@
         <v>2</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="18">
         <v>3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
       <c r="C5" s="21" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2</v>
+      </c>
       <c r="C6" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
       <c r="C7" s="21" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="38">
+        <v>2</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="38">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="38">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
@@ -5597,10 +8042,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5608,7 +8053,7 @@
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="164.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="173.125" style="31" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5620,115 +8065,419 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="A2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="D2" s="27" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="18"/>
+      <c r="A3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="27" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="27"/>
+      <c r="D4" s="27" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2.5</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="27"/>
+      <c r="D5" s="27" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3.5</v>
+      </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2</v>
+      </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="18"/>
+      <c r="D8" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2.5</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="27" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="28"/>
+      <c r="A10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="27" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2.5</v>
+      </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3</v>
+      </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="18">
+        <v>3.5</v>
+      </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="27"/>
+      <c r="D15" s="28" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2</v>
+      </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2.5</v>
+      </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="18">
+        <v>2</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="18">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="18">
+        <v>2</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="18">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="18">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="18">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="18">
+        <v>2</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="18">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="18">
+        <v>2</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="18">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5743,8 +8492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA072BA0-A74B-4D64-9677-E60E9F767C6E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5752,7 +8501,7 @@
     <col min="1" max="1" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="177" style="31" customWidth="1"/>
+    <col min="4" max="4" width="183.75" style="31" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5772,41 +8521,73 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>227</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AN-EN-Tags\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF470A80-7E07-4FA2-91DD-596006B22568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20D2589-DB94-4E8F-B170-077309FF8A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="268">
   <si>
     <t>Op</t>
   </si>
@@ -1895,9 +1895,6 @@
     <t>ba.attract</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Details </t>
     </r>
@@ -1936,80 +1933,46 @@
     <t xml:space="preserve">Details </t>
   </si>
   <si>
-    <t>Hoshiguma the Breacher</t>
-  </si>
-  <si>
-    <t>Haruka</t>
-  </si>
-  <si>
-    <t>Matsukiri</t>
-  </si>
-  <si>
-    <t>Trait</t>
-  </si>
-  <si>
-    <t>Strategist</t>
-  </si>
-  <si>
-    <t>Block 2 enemies\nCan support allies in the Deployment Waiting Zone</t>
-  </si>
-  <si>
-    <t>Kichisei</t>
-  </si>
-  <si>
-    <t>Nymph</t>
-  </si>
-  <si>
     <t>Mod Trait</t>
   </si>
   <si>
-    <t>Primal Caster</t>
-  </si>
-  <si>
-    <t>Increase damage dealt to enemies under elemental burst effect to 110%</t>
-  </si>
-  <si>
-    <t>Blaze the Igniting Spark</t>
-  </si>
-  <si>
-    <t>Diamante</t>
-  </si>
-  <si>
-    <t>Warmy</t>
-  </si>
-  <si>
-    <t>Miss.Christine</t>
-  </si>
-  <si>
-    <t>Ch'en the Holungday</t>
-  </si>
-  <si>
-    <t>Spreadshooter</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Gains 1 Coin upon skill activation (can be spent through skills). While a skill is active, gains 1 Coin each time DP is consumed by this unit's Trait, and +4% ATK (stacks up to 8 times)</t>
-  </si>
-  <si>
-    <t>Swire the Elegant Wit</t>
-  </si>
-  <si>
-    <t>Pepe</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When Bubble pop, Bubble operator recovery HP for </t>
+    <t>Yutenji Nyamu</t>
+  </si>
+  <si>
+    <t>Yahata Umiri</t>
+  </si>
+  <si>
+    <t>Wakaba Mutsumi</t>
+  </si>
+  <si>
+    <t>Misumi Uika</t>
+  </si>
+  <si>
+    <t>Togawa Sakiko</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When activated, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.fear&gt;Fear&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies in Attack Range for </t>
     </r>
     <r>
       <rPr>
@@ -2029,12 +1992,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ATK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increase damage for </t>
+      <t xml:space="preserve"> seconds. Deal </t>
     </r>
     <r>
       <rPr>
@@ -2054,7 +2012,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> for every unique enemy defeated (can stack </t>
+      <t xml:space="preserve"> ATK as Arts damage to all enemies within Attack Range every seconds. Increase Talent 's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance </t>
     </r>
     <r>
       <rPr>
@@ -2064,6 +2042,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>by/to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -2074,12 +2072,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> times)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Gains up to +</t>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Convert </t>
     </r>
     <r>
       <rPr>
@@ -2089,6 +2087,265 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of Physical damage and Arts damage received by Mutsumi and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;subtitute&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis&gt;Necrosis Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by half amount; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;subtitute&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does not attack and DEF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When other Ave Mujica member attacks, has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to reduce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;subtitute&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> duration by 1 second</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Convert 30% of Physical damage and Arts damage received by Mutsumi and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;subtitute&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis&gt;Necrosis Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by half amount; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;subtitute&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does not attack and DEF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. When other Ave Mujica member attacks, has 20% chance to reduce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;subtitute&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> duration by 1 second</t>
+    </r>
+  </si>
+  <si>
+    <t>Blaze</t>
+  </si>
+  <si>
+    <t>Emergency Defibrillation</t>
+  </si>
+  <si>
+    <t>Talent Name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When this unit's HP falls beneath 25%, restores 50% HP (one time only) and prevents HP from falling under 50% for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -2099,7 +2356,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ATK and +</t>
+      <t xml:space="preserve"> seconds. While HP is above </t>
     </r>
     <r>
       <rPr>
@@ -2119,7 +2376,256 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RES </t>
+      <t xml:space="preserve">%, attack ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When this unit's HP falls beneath 25% or 50% for the first time, restores 50% HP (one time only) and prevents HP from falling under 50% for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. While HP is above </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, attack ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When this unit's HP falls beneath 25%, restores 50% HP (one time only) and prevents HP from falling under 50% for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. While HP is above </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, attack ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When this unit's HP falls beneath 25% or 50% for the first time, restores 50% HP (one time only) and prevents HP from falling under 50% for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. While HP is above </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, attack ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF</t>
+    </r>
+  </si>
+  <si>
+    <t>Mental Inversion</t>
+  </si>
+  <si>
+    <t>Virtuosa</t>
+  </si>
+  <si>
+    <t>RIT-Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks deal </t>
     </r>
     <r>
       <rPr>
@@ -2129,17 +2635,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.berserk&gt;Tenacity&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (reaches maximum bonus when losing </t>
+      <t>&lt;@ba.kw&gt;Arts damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and can inflict </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;Elemental Injury&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Inflict 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.elementfragile&gt;Elemental Fragility&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to enemies within Attack Range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All enemies take 20% more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
@@ -2149,6 +2740,136 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Increase Elemental Damage amount during </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All enemies take 22% more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Increase Elemental Damage amount during </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continuous attack; Has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to inflict </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -2159,12 +2880,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Max HP) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Every </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.fragile&gt;Fragile&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to target for </t>
     </r>
     <r>
       <rPr>
@@ -2184,7 +2920,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> attack, grant </t>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continuous attack; Each attack become Musical note that tracking on enemy. Musical Note will disappear when out of Attack Range for a while. For every Musical Note exist, every Ave Mujica members ignore </t>
     </r>
     <r>
       <rPr>
@@ -2204,27 +2945,877 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> DEF and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RES (up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stacks)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Each attack hit thrice, which has ATK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and splash area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expanded&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the 1st hit while ATK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the rest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, each attack hit eight-in-a-row, which has ATK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the 1st and the 5th hit while ATK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the rest. Attacks random enemies within attack range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When dealing damage, has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> target for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. While skill is active, Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When dealing damage, has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> target for 3 seconds. While skill is active, Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage 5 times to all ground enemies within Attack Range. When other Ave Mujica member activate their skill, activate this skill. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ct}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> charges&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DEF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Block count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, more likely to be attacked. When Mutsumi receiving lethal damage, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Substitute&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> retain skill effect and can block until </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Substitute&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leave the field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Attack interval </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;sligthly reduced&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Each attack deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage thrice to random enemy within attack range. When attack enemies, take </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Arts damage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continuous attack; Each attack become Musical note that tracking on enemy. Musical Note will disappear when out of Attack Range for a while. For every Musical Note exist, every Ave Mujica members ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF and 2% RES (up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stacks). Ranged attacks no longer deal reduced damage during skill</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continuous attack; Each attack become Musical note that tracking on enemy. Musical Note will disappear when out of Attack Range for a while. For every Musical Note exist, every Ave Mujica members ignore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RES (up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stacks). Ranged attacks no longer deal reduced damage during skill</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. All other ally units within Attack Range gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.inspire&gt;Inspiration&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{atk:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of this unit's ATK and DEF. When unit in Attack Range has been attacked, heal them for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stop HP recovering Trait effect. Every </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage to random enemy within Attack Range and heal an ally within Attack Range by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. All other ally units within Attack Range gain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF0098FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bubble to operator in Attack Range. When Bubble operator take damage, Bubble pop after </t>
+      <t>&lt;$ba.inspire&gt;Inspiration&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{atk:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of this unit's ATK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When dealing damage, increase Fever. If Attack Range of other Ave Mujica member overlap with sakiko's original Attack Range, treat theirs as sakiko 's Attack Range. Operator within Attack Range ASPD</t>
     </r>
     <r>
       <rPr>
@@ -2234,6 +3825,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>+{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Play Piano and Organ at the same time, plays 2 Notes each, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -2244,10 +3870,346 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seconds.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> ATK as Physical damage and Arts damage which tracking on enemy with highest RES and DEF respectively</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;During Fever Time, Ave Mujica members will not defeated when receiving lethal damage and will retreated after Fever Time ends instead&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;Can switch instrument between Piano and Organ:&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Piano : ATK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Notes flight speed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;increased&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. After Note hit the target, pass through the target and deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Organ : ASPD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Notes flight speed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF6237"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vdown&gt;reduced&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Note deal Arts damage.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF49800"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;During Fever Time, play 2 Notes instead&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plays several Notes, each note dealing Arts damage and gradually reduce damage dealt to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ct}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> charges. Automatically activate when max charges once.&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When skill is not active, heal lowest HP operator in Attack Range by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {}%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK every </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. When skill is active, prioritize healing Togawa Sakiko instead.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When skill is not active, heal lowest HP operator in Attack Range by 30% ATK every </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. When skill is active, prioritize healing Togawa Sakiko instead.</t>
+    </r>
+  </si>
+  <si>
+    <t>ba.permanentatk</t>
+  </si>
+  <si>
+    <t>Continuous Attack</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.permanentatk&gt;</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2256,2844 +4218,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[Defender]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Supporter]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> operators on the field and Deployment Waiting Zone ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> after Matsukiri has been deployed for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When HP down to 0, enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Self"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> state. During this period, cannot be healed by allies and accumulate all incoming damage. When accumulate damage higher than </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP, reteated. When not received any damage for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds, recover </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP per seconds. When HP more than 0, exist </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Self"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> state.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ASPD+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. When Bubble pop, grant Bubble to all nearby operators in the surrounding 8 tiles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hoshiguma throws her shield out, attack all blocked enemies and deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage thrice, shield spin around her once, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage every 0.5 second and inflict </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to nearby enemies for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds; Hoshiguma recover HP by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Shield damage dealt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Attack Range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;@ba.kw&gt;expand&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Max HP +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, attack up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemies twice. When deactivate skill manually, retain skill effect for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds and cannot be defeated. Attack deal damage four-in-a-row insteads, receive lethal damage dealt on other operators in Attack Range, automatically retreat after effect end.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Skill can be manually deactivated&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increase healing target and Bubble count by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When operators healed by Haruka, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of healing amount as Arts damage to enemies nearby.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;From second activation and on, ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, this skill has unlimited duration&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;expand&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, attack interval </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;reduce&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Bubble </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> effectiveness </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">x. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.levitate&gt;Levitate&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemies that attack Bubble operator for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds and deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage every second to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.levitate&gt;Levitated&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemies.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Immediately gains </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{cost}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
+      <t>Continuously Attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{-}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP cost of the right-most operator in Deployment Waiting Zone</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack interval </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vdown&gt;increase slightly&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. After every attack, ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (can stack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack interval </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vdown&gt;increase&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Each attack randomly inflicts one of the following statuses to all targets hit (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.root&gt;bind&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.stun&gt;stun&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{sluggish}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gradually obtains </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{trig_cnt}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP during the skill duration. While this skill is active, ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and recover </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP every second. When skill end, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DP cost and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP for all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [Defender] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Supporter]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> operators in Deployment Waiting Zone (can stack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times until they retreated)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Reduces&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Deployment Cost</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, reduce deployment cost and on-field DP cost by 30%. For every DP consumed, reduce the Redeployment time of least remaining redeployment time operator by 2 seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Reclamation Algorithm&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, when carry any resource, the Redeployment time greatly reduce</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When deployed, all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Guard]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Operators gain +16% ATK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Reclamation Algorithm&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, reveal Treasure chest location, attack create shockwave on all other </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Guard]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> operators</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Reclamation Algorithm&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, reveal Treasure chest location, attack create 50% ATK shockwave on all other </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Guard]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> operators. When has resource as Primary target create 50% ATK shockwave on all connected resources (up to 10 resources)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When Bubble pop, Bubble operator recovery HP for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK and has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to recover 1 SP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whenever a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst effect is triggered, ATK +2%, stacking up to 10 times. After 10 stack, ASPD+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whenever a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst effect is triggered, ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%, stacking up to 10 times. After 10 stack, ASPD+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whenever an enemy triggers a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst, immediately deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% ATK as Elemental Damage to that enemy, recovers 12% Max HP and ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whenever an enemy triggers a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst, immediately deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% ATK as Elemental Damage to that enemy, recovers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% Max HP and ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If there is an enemy within attack range under the burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enemies within Attack Range take </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% ATK as Elemental Damage when they trigger a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When attack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemies, increase ATK to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Enemies within Attack Range take </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% ATK as Elemental Damage when they </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ASPD +8, when there is water terrain on the battlefield, the effect becomes ASPD +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ASPD +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, when there is water terrain on the battlefield, the effect becomes ASPD +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. When skill is active, regard the battlefield as water terrain</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Coin limit +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, gains 1 extra Coin each time DP is consumed by this unit's Trait and gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> additional ATK stack</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Integrated Strategies&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Coin limit +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, maximum ATK stack +1 for each Originium Ingot in possession (up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> additional max stacks), gains 1 extra Coin each time DP is consumed by this unit's Trait and gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> additional ATK stack</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whenever a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst effect is triggered, ATK +2%, stacking up to 12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times. After 10 stack, ASPD+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whenever a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst effect is triggered, ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">%, stacking up to 12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times. After 10 stack, ASPD+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whenever an enemy triggers a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst, immediately deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+30%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Elemental Damage to that enemy, recovers 15% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP and ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Whenever an enemy triggers a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst, immediately deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+30%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Elemental Damage to that enemy, recovers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP and ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If there is an enemy within attack range under the burst effect of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ATK +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enemies within Attack Range take </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt; (+20%) &lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ATK as Elemental Damage when they trigger a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.burning2&gt;Burn damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When attack </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemies, increase ATK to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Enemies within Attack Range take </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+10%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Elemental Damage when they </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.palsy&gt;Paralyze&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gains 1 Coin upon skill activation (can be spent through skills). While a skill is active, gains 1 Coin each time DP is consumed by this unit's Trait, and +4% ATK (stacks up to 9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When deployed, all </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Guard]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Operators gain +20% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+4%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ATK+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, DEF+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Deals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage to enemies that attack Hoshiguma\n&lt;@ba.rem&gt;From second activation and on, ATK+{}, this skill has unlimited duration&lt;/&gt;</t>
     </r>
   </si>
 </sst>
@@ -6467,8 +5602,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0098FF"/>
       <color rgb="FF00B0FF"/>
-      <color rgb="FF0098FF"/>
       <color rgb="FFF49800"/>
       <color rgb="FFFF6237"/>
     </mruColors>
@@ -6532,7 +5667,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{230E321A-FD9D-4A88-BDB2-D4521C6A9226}" name="Op" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{F0081EE5-F0F2-4F94-AA73-769EF87E7EB6}" name="Level" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{875AA631-11A6-427A-9BE7-3CC56886BA27}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{875AA631-11A6-427A-9BE7-3CC56886BA27}" name="Talent Name" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{224BD11C-823E-43C3-A2EF-F8A264F71916}" name="Detail" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6815,11 +5950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E696680-5C0C-47EA-B8F5-3DDA6BE989A2}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7767,6 +6902,21 @@
         <v>219</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7781,7 +6931,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7800,10 +6950,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>225</v>
       </c>
@@ -7811,62 +6961,62 @@
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B5" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B6" s="18">
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -7892,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7912,7 +7062,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7923,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7934,101 +7084,107 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="41" t="s">
         <v>226</v>
       </c>
       <c r="B5" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="18">
-        <v>3</v>
-      </c>
       <c r="C7" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="38">
+        <v>228</v>
+      </c>
+      <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>260</v>
+      <c r="C8" s="21" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="38">
+        <v>228</v>
+      </c>
+      <c r="B9" s="18">
         <v>2</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="38">
+        <v>229</v>
+      </c>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="38">
-        <v>2</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -8045,7 +7201,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8065,419 +7221,331 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B2" s="18">
         <v>2</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B3" s="18">
         <v>3</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B5" s="18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="27" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B6" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="27" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B7" s="18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="27" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>236</v>
+      <c r="A8" s="41" t="s">
+        <v>226</v>
       </c>
       <c r="B8" s="18">
         <v>2</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>226</v>
       </c>
       <c r="B9" s="18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="27" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>236</v>
+      <c r="A10" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="B10" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="B11" s="18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="27" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>234</v>
+      </c>
       <c r="D12" s="28" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B13" s="18">
         <v>2.5</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>234</v>
+      </c>
       <c r="D13" s="28" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B14" s="18">
         <v>3</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>234</v>
+      </c>
       <c r="D14" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B15" s="18">
         <v>3.5</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>234</v>
+      </c>
       <c r="D15" s="28" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B16" s="18">
         <v>2</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>240</v>
+      </c>
       <c r="D16" s="28" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B17" s="18">
         <v>2.5</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>240</v>
+      </c>
       <c r="D17" s="28" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B18" s="18">
         <v>3</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="28" t="s">
-        <v>276</v>
-      </c>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B19" s="18">
         <v>3.5</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="28" t="s">
-        <v>287</v>
-      </c>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="18">
-        <v>2</v>
-      </c>
+      <c r="A20" s="25"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="28" t="s">
-        <v>277</v>
-      </c>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="18">
-        <v>2.5</v>
-      </c>
+      <c r="A21" s="25"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>288</v>
-      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="18">
-        <v>3</v>
-      </c>
+      <c r="A22" s="25"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="28" t="s">
-        <v>277</v>
-      </c>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="18">
-        <v>3.5</v>
-      </c>
+      <c r="A23" s="25"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>288</v>
-      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="18">
-        <v>2</v>
-      </c>
+      <c r="A24" s="25"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="28" t="s">
-        <v>278</v>
-      </c>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="18">
-        <v>3</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="28" t="s">
-        <v>279</v>
-      </c>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" s="18">
-        <v>2</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="27" t="s">
-        <v>250</v>
-      </c>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="18">
-        <v>3</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="27" t="s">
-        <v>250</v>
-      </c>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="18">
-        <v>2</v>
-      </c>
+      <c r="A28" s="25"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="28" t="s">
-        <v>244</v>
-      </c>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="B29" s="18">
-        <v>2.5</v>
-      </c>
+      <c r="A29" s="25"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="28" t="s">
-        <v>289</v>
-      </c>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" s="18">
-        <v>3</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="18">
-        <v>3.5</v>
-      </c>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="27" t="s">
-        <v>281</v>
-      </c>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="18">
-        <v>2</v>
-      </c>
+      <c r="A32" s="25"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="28" t="s">
-        <v>267</v>
-      </c>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33" s="18">
-        <v>2.5</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="27" t="s">
-        <v>290</v>
-      </c>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B34" s="18">
-        <v>3</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="B35" s="18">
-        <v>3.5</v>
-      </c>
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="27" t="s">
-        <v>269</v>
-      </c>
+      <c r="D35" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8493,7 +7561,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8521,73 +7589,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>235</v>
-      </c>
+      <c r="A3" s="39"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>264</v>
-      </c>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>265</v>
-      </c>
+      <c r="A5" s="39"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>266</v>
-      </c>
+      <c r="A6" s="39"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AN-EN-Tags\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20D2589-DB94-4E8F-B170-077309FF8A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF1667-6DF4-48BD-A565-392E89D80860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="274">
   <si>
     <t>Op</t>
   </si>
@@ -1933,26 +1933,870 @@
     <t xml:space="preserve">Details </t>
   </si>
   <si>
+    <t>Talent Name</t>
+  </si>
+  <si>
+    <t>ba.permanentatk</t>
+  </si>
+  <si>
+    <t>Continuous Attack</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.permanentatk&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continuously Attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Snegurochka</t>
+  </si>
+  <si>
+    <t>Vetochki</t>
+  </si>
+  <si>
+    <t>Mantra</t>
+  </si>
+  <si>
+    <t>Regardlass of whether there are targets within Attack Range, attack continually</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When deployed, each attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steals&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) from the target</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When deployed, each attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steals&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+20)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+10)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) from the target. If target the in the 8 surrounding tiles, double steal amount.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When deployed, each attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steals&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+20)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DEF (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+10)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) from the target. If the target in the 8 surrounding tiles, double steal amount.</t>
+    </r>
+  </si>
+  <si>
+    <t>'I See, I Take'</t>
+  </si>
+  <si>
     <t>Mod Trait</t>
   </si>
   <si>
-    <t>Yutenji Nyamu</t>
-  </si>
-  <si>
-    <t>Yahata Umiri</t>
-  </si>
-  <si>
-    <t>Wakaba Mutsumi</t>
-  </si>
-  <si>
-    <t>Misumi Uika</t>
-  </si>
-  <si>
-    <t>Togawa Sakiko</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When activated, </t>
+    <t>Narantuya</t>
+  </si>
+  <si>
+    <t>Practiced Knot-Tier</t>
+  </si>
+  <si>
+    <t>Brigid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After dealing damage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times, ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, gains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Physical Dodge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After dealing damage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times, ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, gains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Physical Dodge</t>
+    </r>
+  </si>
+  <si>
+    <t>Caper</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attacking, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to increase that attack's ATK to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attacking, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to increase that attack's ATK to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+10%)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Larking About</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The next attack deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ep_damage_atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as </t>
     </r>
     <r>
       <rPr>
@@ -1962,17 +2806,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.fear&gt;Fear&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> enemies in Attack Range for </t>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> damage. If target under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst effect, deal additional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1982,6 +2856,101 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental damage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Interval </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;reduced&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;, deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage and jump to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -1992,7 +2961,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seconds. Deal </t>
+      <t xml:space="preserve"> enemies. Each jump deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2002,6 +2981,201 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as Arts damage. Deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of damage dealt as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> damage to each enemies. If enemies under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> burst effect, deal additional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental damage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attack Range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;expand&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, enemies in Attack Range lose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.invisible&gt;Invisible&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and reduce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.palsy&gt;Paralysis&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> max stack to 2, ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -2012,7 +3186,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ATK as Arts damage to all enemies within Attack Range every seconds. Increase Talent 's </t>
+      <t xml:space="preserve"> and attack up to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> targets simultaneously. When operator in Attack Range activate their skill (including Mantra), grant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2022,17 +3236,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance </t>
+      <t>&lt;$ba.palsy&gt;Paralysis&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stack to enemies in Attack Range (up to </t>
     </r>
     <r>
       <rPr>
@@ -2042,17 +3256,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>by/to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stack). Each exceed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.palsy&gt;Paralysis&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stack jump between target and an enemy once, deal </t>
     </r>
     <r>
       <rPr>
@@ -2072,12 +3306,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Convert </t>
+      <t xml:space="preserve"> ATK as Elemental damage, with short interval between each jump.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DEF+</t>
     </r>
     <r>
       <rPr>
@@ -2087,17 +3321,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Physical damage and Arts damage received by Mutsumi and </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, RES+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Immediately inflict </t>
     </r>
     <r>
       <rPr>
@@ -2107,17 +3356,207 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;subtitute&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
+      <t>&lt;$ba.tremble&gt;Frighten&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to ground enemies nearby; ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, DEF+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, attacks all blocked enemies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The next attack deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage, gains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{cost}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, each attack grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{cost}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DP and </t>
     </r>
     <r>
       <rPr>
@@ -2127,17 +3566,92 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.dt.apoptosis&gt;Necrosis Damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by half amount; </t>
+      <t>&lt;$ba.sluggish&gt;Slows&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the target for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lost effect after taking damage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP after skill ends.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever an enemy triggers </t>
     </r>
     <r>
       <rPr>
@@ -2147,17 +3661,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;subtitute&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> does not attack and DEF</t>
+      <t>&lt;$ba.palsy&gt;Paralysis&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, immediately deals </t>
     </r>
     <r>
       <rPr>
@@ -2167,17 +3681,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When other Ave Mujica member attacks, has </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental Damage to that enemy; Has </t>
     </r>
     <r>
       <rPr>
@@ -2187,17 +3701,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to reduce </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to not consume </t>
     </r>
     <r>
       <rPr>
@@ -2207,22 +3721,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;subtitute&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> duration by 1 second</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Convert 30% of Physical damage and Arts damage received by Mutsumi and </t>
+      <t>&lt;$ba.palsy&gt;Paralysis&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stack when triggered</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nearest Incursion Point spawns enemies with 1 </t>
     </r>
     <r>
       <rPr>
@@ -2232,17 +3746,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;subtitute&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
+      <t>&lt;$ba.palsy&gt;Paralysis&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stack</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whenever an enemy triggers </t>
     </r>
     <r>
       <rPr>
@@ -2252,17 +3771,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.dt.apoptosis&gt;Necrosis Damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by half amount; </t>
+      <t>&lt;$ba.palsy&gt;Paralysis&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, immediately deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Elemental Damage to that enemy; Has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to not consume </t>
     </r>
     <r>
       <rPr>
@@ -2272,17 +3831,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;subtitute&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> does not attack and DEF</t>
+      <t>&lt;$ba.palsy&gt;Paralysis&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stack when triggered</t>
+    </r>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <r>
+      <t>DEF+</t>
     </r>
     <r>
       <rPr>
@@ -2292,17 +3859,118 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. When other Ave Mujica member attacks, has 20% chance to reduce </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during skill duration; Recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP after skill ends.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DEF+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during skill duration; Recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP after skill ends.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}&lt;@ba.talpu&gt;(+3)&lt;/&gt;,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lost effect after taking damage.</t>
+    </r>
+  </si>
+  <si>
+    <t>REA-Y</t>
+  </si>
+  <si>
+    <t>Executor the Ex Foedere</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can only attack while holding a </t>
     </r>
     <r>
       <rPr>
@@ -2312,31 +3980,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;subtitute&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> duration by 1 second</t>
-    </r>
-  </si>
-  <si>
-    <t>Blaze</t>
-  </si>
-  <si>
-    <t>Emergency Defibrillation</t>
-  </si>
-  <si>
-    <t>Talent Name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When this unit's HP falls beneath 25%, restores 50% HP (one time only) and prevents HP from falling under 50% for </t>
+      <t>&lt;@ba.kw&gt;boomerang projectile&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (projectile takes time to return); ATK increased to </t>
     </r>
     <r>
       <rPr>
@@ -2346,6 +4000,117 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>110%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when attacking enemies in the 8 surrounding tiles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cannot be healed by allies; Attacks deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;AOE Damage&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Recovers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;50&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP for every enemy hit during attacks, up to Block count; ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if there are 2 or more enemies in Attack Range.</t>
+    </r>
+  </si>
+  <si>
+    <t>Empathy by Shotgun</t>
+  </si>
+  <si>
+    <t>Wild Fire</t>
+  </si>
+  <si>
+    <t>Eyjafjalla</t>
+  </si>
+  <si>
+    <t>Immediately obtains a small random number of Skill Points after deployment. When deploy, if there is elite or leader enemy in Attack Range, obtains maximum value of Skill Points instead.</t>
+  </si>
+  <si>
+    <t>Immediately obtains a large random number of Skill Points after deployment. When deploy, if there is elite or leader enemy in Attack Range, obtains maximum value of Skill Points instead.</t>
+  </si>
+  <si>
+    <t>Immediately obtains a small random number of Skill Points and ASPD after deployment. When deploy, if there is elite or leader enemy in Attack Range, obtains maximum value of Skill Points and ASPD instead.</t>
+  </si>
+  <si>
+    <t>Immediately obtains a large random number of Skill Points and ASPD after deployment. When deploy, if there is elite or leader enemy in Attack Range, obtains maximum value of Skill Points and ASPD instead.</t>
+  </si>
+  <si>
+    <r>
+      <t>For every Laterano Operator deployed, increases the ammo capacity of this unit's ammo-based skills by +1 (stacks up to 4 times); During Ammo-based skill duration, ATK +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
@@ -2356,7 +4121,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seconds. While HP is above </t>
+      <t xml:space="preserve"> and gain </t>
     </r>
     <r>
       <rPr>
@@ -2376,1859 +4141,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">%, attack ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When this unit's HP falls beneath 25% or 50% for the first time, restores 50% HP (one time only) and prevents HP from falling under 50% for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. While HP is above </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, attack ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When this unit's HP falls beneath 25%, restores 50% HP (one time only) and prevents HP from falling under 50% for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+1)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. While HP is above </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, attack ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When this unit's HP falls beneath 25% or 50% for the first time, restores 50% HP (one time only) and prevents HP from falling under 50% for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. While HP is above </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, attack ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF</t>
-    </r>
-  </si>
-  <si>
-    <t>Mental Inversion</t>
-  </si>
-  <si>
-    <t>Virtuosa</t>
-  </si>
-  <si>
-    <t>RIT-Y</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Arts damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, and can inflict </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;Elemental Injury&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Inflict 10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.elementfragile&gt;Elemental Fragility&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to enemies within Attack Range</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All enemies take 20% more </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Increase Elemental Damage amount during </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All enemies take 22% more </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Increase Elemental Damage amount during </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.apoptosis2&gt;Necrosis damage&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> burst</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Continuous attack; Has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to inflict </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.fragile&gt;Fragile&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to target for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Continuous attack; Each attack become Musical note that tracking on enemy. Musical Note will disappear when out of Attack Range for a while. For every Musical Note exist, every Ave Mujica members ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RES (up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> stacks)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Each attack hit thrice, which has ATK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and splash area </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expanded&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the 1st hit while ATK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the rest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, each attack hit eight-in-a-row, which has ATK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the 1st and the 5th hit while ATK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the rest. Attacks random enemies within attack range</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When dealing damage, has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> target for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. While skill is active, Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When dealing damage, has </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.sluggish&gt;Slow&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> target for 3 seconds. While skill is active, Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage 5 times to all ground enemies within Attack Range. When other Ave Mujica member activate their skill, activate this skill. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{ct}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> charges&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DEF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Block count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, more likely to be attacked. When Mutsumi receiving lethal damage, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Substitute&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> retain skill effect and can block until </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Substitute&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> leave the field</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Attack interval </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;sligthly reduced&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Each attack deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage thrice to random enemy within attack range. When attack enemies, take </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Arts damage.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Continuous attack; Each attack become Musical note that tracking on enemy. Musical Note will disappear when out of Attack Range for a while. For every Musical Note exist, every Ave Mujica members ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF and 2% RES (up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> stacks). Ranged attacks no longer deal reduced damage during skill</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Continuous attack; Each attack become Musical note that tracking on enemy. Musical Note will disappear when out of Attack Range for a while. For every Musical Note exist, every Ave Mujica members ignore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DEF and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RES (up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> stacks). Ranged attacks no longer deal reduced damage during skill</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. All other ally units within Attack Range gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.inspire&gt;Inspiration&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{atk:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of this unit's ATK and DEF. When unit in Attack Range has been attacked, heal them for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Stop HP recovering Trait effect. Every </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage to random enemy within Attack Range and heal an ally within Attack Range by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ATK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. All other ally units within Attack Range gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.inspire&gt;Inspiration&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{atk:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of this unit's ATK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When dealing damage, increase Fever. If Attack Range of other Ave Mujica member overlap with sakiko's original Attack Range, treat theirs as sakiko 's Attack Range. Operator within Attack Range ASPD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Play Piano and Organ at the same time, plays 2 Notes each, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage and Arts damage which tracking on enemy with highest RES and DEF respectively</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;During Fever Time, Ave Mujica members will not defeated when receiving lethal damage and will retreated after Fever Time ends instead&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Can switch instrument between Piano and Organ:&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Piano : ATK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Notes flight speed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;increased&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. After Note hit the target, pass through the target and deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Organ : ASPD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Notes flight speed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF6237"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vdown&gt;reduced&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Note deal Arts damage.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;During Fever Time, play 2 Notes instead&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plays several Notes, each note dealing Arts damage and gradually reduce damage dealt to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Can store </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{ct}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> charges. Automatically activate when max charges once.&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When skill is not active, heal lowest HP operator in Attack Range by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK every </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. When skill is active, prioritize healing Togawa Sakiko instead.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When skill is not active, heal lowest HP operator in Attack Range by 30% ATK every </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds. When skill is active, prioritize healing Togawa Sakiko instead.</t>
-    </r>
-  </si>
-  <si>
-    <t>ba.permanentatk</t>
-  </si>
-  <si>
-    <t>Continuous Attack</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.permanentatk&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Continuously Attack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
+      <t xml:space="preserve"> dodge when ammo is at or below half of ammo capacity</t>
     </r>
   </si>
 </sst>
@@ -4236,7 +4149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4288,20 +4201,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4455,7 +4354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4569,6 +4468,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5604,8 +5506,8 @@
     <mruColors>
       <color rgb="FF0098FF"/>
       <color rgb="FF00B0FF"/>
+      <color rgb="FFFF6237"/>
       <color rgb="FFF49800"/>
-      <color rgb="FFFF6237"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5952,9 +5854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E696680-5C0C-47EA-B8F5-3DDA6BE989A2}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6904,18 +6806,20 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="D56" s="14">
         <v>0</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="16" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6931,7 +6835,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6955,35 +6859,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B3" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6994,30 +6898,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>247</v>
-      </c>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="18">
-        <v>2</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>259</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
@@ -7043,7 +6935,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7065,70 +6957,70 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="18">
-        <v>2</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B6" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -7136,55 +7028,31 @@
         <v>228</v>
       </c>
       <c r="B8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="18">
-        <v>2</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>258</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="18">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>260</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -7201,7 +7069,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7221,307 +7089,419 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B2" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="43" t="s">
+        <v>235</v>
+      </c>
       <c r="D2" s="27" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B3" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="18">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="43" t="s">
+        <v>235</v>
+      </c>
       <c r="D4" s="27" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B5" s="18">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>235</v>
+      </c>
       <c r="D5" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="D6" s="27" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B7" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="18">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="D8" s="27" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>226</v>
+      <c r="A9" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="B9" s="18">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="D9" s="27" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B10" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="D10" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B11" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="C12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="C14" s="25"/>
+      <c r="D14" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="18">
         <v>2.5</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="C15" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="18">
         <v>3</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="C16" s="25"/>
+      <c r="D16" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="18">
         <v>3.5</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="18">
+      <c r="C17" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="18">
         <v>2</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="C18" s="7"/>
+      <c r="D18" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="18">
         <v>2.5</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="C19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="18">
         <v>3</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="18">
+      <c r="C20" s="25"/>
+      <c r="D20" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="18">
         <v>3.5</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="18">
+        <v>2</v>
+      </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="28"/>
+      <c r="D22" s="27" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="18">
+        <v>3</v>
+      </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="27" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="27"/>
+      <c r="A25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="18">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="18">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="28"/>
+      <c r="A28" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="18">
+        <v>2</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="27"/>
+      <c r="A29" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" s="18">
+        <v>3</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
@@ -7560,8 +7540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA072BA0-A74B-4D64-9677-E60E9F767C6E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7588,24 +7568,28 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>241</v>
+      <c r="A2" s="39"/>
+      <c r="B2" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>263</v>
+      </c>
       <c r="C3" s="24"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="30" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AN-EN-Tags\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF1667-6DF4-48BD-A565-392E89D80860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5425712-6DD7-4E20-84EE-59CE9E504166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KW" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="277">
   <si>
     <t>Op</t>
   </si>
@@ -4143,6 +4143,15 @@
       </rPr>
       <t xml:space="preserve"> dodge when ammo is at or below half of ammo capacity</t>
     </r>
+  </si>
+  <si>
+    <t>; In &lt;@ba.kw&gt;[Sui's Garden of Grotesqueries]&lt;/&gt;, can attack additional target.</t>
+  </si>
+  <si>
+    <t>Can use up to 5 summons (max 3 deployed at once). Summons’ effect changes based upon Skill; In &lt;@ba.kw&gt;[Sui's Garden of Grotesqueries]&lt;/&gt;, retrieve summon in the 4 adjacent tiles, recover {} HP and attack deal addition {} ATK% as Arts damage (up to {} times)</t>
+  </si>
+  <si>
+    <t>Can use up to 5 summons (max 3 deployed at once). Summons’ effect changes based upon Skill; In &lt;@ba.kw&gt;[Sui's Garden of Grotesqueries]&lt;/&gt;, retrieve summon in the 4 adjacent tiles, recover {} HP and each attack deal addition {} ATK% as Arts damage (up to {} times)</t>
   </si>
 </sst>
 </file>
@@ -7068,8 +7077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7509,17 +7518,21 @@
       <c r="C32" s="25"/>
       <c r="D32" s="28"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="18"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="18"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="27" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
@@ -7540,8 +7553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA072BA0-A74B-4D64-9677-E60E9F767C6E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7601,7 +7614,9 @@
       <c r="A5" s="39"/>
       <c r="B5" s="7"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="42"/>
+      <c r="D5" s="42" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\AN-EN-Tags\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF82126-656E-4BD6-8DB9-02E9B846EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E59B9F-5B41-4404-8C74-A5A9D0940C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="269">
   <si>
     <t>Op</t>
   </si>
@@ -1939,58 +1939,2104 @@
     <t>Regardlass of whether there are targets within Attack Range, attack continually</t>
   </si>
   <si>
-    <t>Trait</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
     <t>Talent Name</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Details </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;$ba.attract&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Varkaris</t>
+  </si>
+  <si>
+    <t>Perfumer the Distilled</t>
+  </si>
+  <si>
+    <t>Titi</t>
+  </si>
+  <si>
+    <r>
+      <t>When deployed, [Minoan] and [Sargon] Operators gain +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ASPD when their HP more than</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% HP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Titi can attack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;Sleeping&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies and deals additional </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ATK as Arts damage to stationary enemies; While on the field, deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage every second to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;Sleeping&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When deployed, all [Minoan] Operators gain +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% ATK when attacking target with HP percentage less than theirs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perfumer grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to operators in Attack Range whose current HP percentage lower or equal to hers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When deployed, ASPD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the first Talent effect increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x. Each heal grants ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and loss </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP per seconds effect to target for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds (does not stack)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, each attacks has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to puts enemies to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;Sleep&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When skill is active, ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, puts her and operator with lowest HP percentage within Attack Range to sleep, the first Talent effect increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;Skill can be manually deactivated (skill can be interrupted at any time)&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATK+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and attacks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{max_target}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies simultaneously; When attacking non-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;Sleeping&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enemies, put them to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;Sleep&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds. During skill duration, when an enemy awaken from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;sleep&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;, deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Arts damage (increases up to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and puts another nearby enemies to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;Sleep&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds, when other operators in Attack Range receive lethal damage, put them to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.sleep&gt;Sleep&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> until they fully restored or skill ends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Immediately heals target by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK and grants DEF+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds (does not stack)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;Can hold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>charges&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The next attack deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage and attacks thrice consecutively</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each attack deals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK as Physical damage and restores </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% HP; Any HP gain exceeding this unit's Max HP is converted into a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.rem&gt;The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can stack up to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{max_scale}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x Max HP, and gradually depletes after the skill ends&lt;/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perfumer grants </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to operators in Attack Range whose current HP percentage lower or equal to hers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When deployed, all [Minoan] Operators gain +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ATK when attacking target with HP percentage less than theirs</t>
+    </r>
+  </si>
+  <si>
+    <t>Blood Bank</t>
+  </si>
+  <si>
+    <t>Entelechia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP from the target (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+50)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Arts damage per second to the target for 5s; While Arts damage effect is active on the field, recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP per second</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP from the target (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Arts damage per second to the target for 5s; While Arts damage effect is active on the field, recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP per second</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP from the target (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+50)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Arts damage per second to the target for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s; While Arts damage effect is active on the field, recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP per second</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.steal&gt;Steal&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Max HP from the target (Caps at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and deal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Arts damage per second to the target for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s; While Arts damage effect is active on the field, recover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HP per second</t>
+    </r>
+  </si>
+  <si>
+    <t>Hoe</t>
+  </si>
+  <si>
     <t>Mod Trait</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Details </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>CRU-Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attacks </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;@ba.talpu&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>&lt;@ba.kw&gt;all blocked enemies&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Damage is increased to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.kw&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>{atk_scale:0%}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when attacking blocked enemies</t>
+    </r>
+  </si>
+  <si>
+    <t>Do or Die</t>
+  </si>
+  <si>
+    <t>Hoederer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ATK increases to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{}</t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% when attacking an enemy; if the target is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.stun&gt;stunned&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.root&gt;bound&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ATK further increases to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">%; When attack blocked enemies for the first time, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.stun&gt;stuns&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <t>Ideal Student</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <r>
+      <t>When this unit is in the squad, all [Ursus Student Self-Governing Group] Operators gain +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% ATK; When each [Ursus Student Self-Governing Group] Operators active their skills, further increases ATK effect by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (up to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When this unit is in the squad, all [Ursus Student Self-Governing Group] Operators gain +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% ATK </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF00B0FF"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;$ba.attract&gt;</t>
+      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; When each [Ursus Student Self-Governing Group] Operators active their skills, further increases ATK effect by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% (up to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Viviana</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attacking an elite or leader enemy, there is an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% chance to gain a </t>
     </r>
     <r>
       <rPr>
@@ -2000,40 +4046,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Lure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Skybreaker</t>
-  </si>
-  <si>
-    <t>Nasti</t>
-  </si>
-  <si>
-    <t>Skybox</t>
-  </si>
-  <si>
-    <t>Cairn</t>
-  </si>
-  <si>
-    <t>Chain Medic</t>
-  </si>
-  <si>
-    <t>Monchan</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When damaging an enemy for the first time, disables enemies' special abilities for </t>
+      <t>&lt;$ba.shield&gt;Shield&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that only blocks melee attacks (max 1 stack)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attacking an elite or leader enemy, there is a </t>
     </r>
     <r>
       <rPr>
@@ -2053,12 +4081,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gain </t>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to gain a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0098FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;$ba.shield&gt;Shield&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that only blocks melee attacks (max 1 stack)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attacking an elite or leader enemy, there is an </t>
     </r>
     <r>
       <rPr>
@@ -2068,7 +4136,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{}%</t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% chance to gain a </t>
     </r>
     <r>
       <rPr>
@@ -2078,17 +4156,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> &lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; When ranged enemies appear, change to grants </t>
+      <t>&lt;$ba.shield&gt;Shield&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that only blocks melee attacks (max </t>
     </r>
     <r>
       <rPr>
@@ -2098,17 +4176,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{}%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stack)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When attacking an elite or leader enemy, there is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chance to gain a </t>
     </r>
     <r>
       <rPr>
@@ -2118,17 +4241,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to self and all Ranged operator on the field and gain 1 SP every </t>
+      <t>&lt;$ba.shield&gt;Shield&lt;/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that only blocks melee attacks (max </t>
     </r>
     <r>
       <rPr>
@@ -2148,2065 +4271,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s</t>
-    </r>
-  </si>
-  <si>
-    <t>Self-Repair</t>
-  </si>
-  <si>
-    <t>Mon3tr</t>
-  </si>
-  <si>
-    <t>Papyrus</t>
-  </si>
-  <si>
-    <t>Erudite of Ancient Scrolls</t>
-  </si>
-  <si>
-    <t>Focused Attention</t>
-  </si>
-  <si>
-    <t>Paprika</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can carry </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;Support Devices&gt; (deploy up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), with different effects depending on Skill.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>HUN-Y</t>
-  </si>
-  <si>
-    <t>Extreme Focus</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After deployment, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.fly&gt;Takes Off&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and only attack Aerial enemies while </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.fly&gt;Takes Off&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. When skill is active, lands and deal AOE Physical damage.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restores HP of allies, bouncing between </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;3&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> allies. Healing reduced by 15% per bounce.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks consume Ammo to increase ATK to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;133%&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; While not attacking, Ammo will be slowly reloaded (max capacity 8).</t>
-    </r>
-  </si>
-  <si>
-    <t>Can carry 2 &lt;Support Devices&gt; (deploy up to 1), with different effects depending on Skill.</t>
-  </si>
-  <si>
-    <t>Can carry 2 &lt;Support Devices&gt; (deploy up to 2), with different effects depending on Skill.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can carry 3 &lt;Support Devices&gt; (deploy up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), with different effects depending on Skill.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Gain 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; When ranged enemies appear, change to grants 15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to self and all Ranged operator on the field, and gain 1 SP every 6s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Gain 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; When ranged enemies appear, change to grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18%&lt;@ba.talpu&gt;(+3%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.protect&gt;Sanctuary&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to self and all Ranged operator on the field, and gain 1 SP every </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-  </si>
-  <si>
-    <t>token_10059_nasti_nstdef</t>
-  </si>
-  <si>
-    <t>Quality Inspector</t>
-  </si>
-  <si>
-    <t>Nasti 's Token</t>
-  </si>
-  <si>
-    <t>Cannot be attacked, can be deployed on both Melee and Ranged tiles</t>
-  </si>
-  <si>
-    <t>Grant an operator in front +17% DEF</t>
-  </si>
-  <si>
-    <t>Grant an operator in front +20% DEF</t>
-  </si>
-  <si>
-    <t>Grant an operator in front +25% DEF</t>
-  </si>
-  <si>
-    <t>token_10060_nasti_nstchr</t>
-  </si>
-  <si>
-    <t>token_10061_nasti_nstbld</t>
-  </si>
-  <si>
-    <t>Site Supervisor</t>
-  </si>
-  <si>
-    <t>Max HP is fixed at 6 with 1 HP on deployment. HP can only be recovered by it own skill.</t>
-  </si>
-  <si>
-    <t>Max HP is fixed at 7 with 2 HP on deployment. HP can only be recovered by it own skill.</t>
-  </si>
-  <si>
-    <t>Max HP is fixed at 8 with 3 HP on deployment. HP can only be recovered by it own skill.</t>
-  </si>
-  <si>
-    <t>Emergency Support Team</t>
-  </si>
-  <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>When damaging an enemy for the first time, disables enemies' special abilities for 4s</t>
-  </si>
-  <si>
-    <t>When damaging an enemy for the first time, disables enemies' special abilities for 7s</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blocked enemies receive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% ATK as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> per second </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocked enemies receive 5%&lt;@ba.talpu&gt;(+1%)&lt;/&gt; ATK as &lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt; per second </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocked enemies receive 4% ATK as &lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt; per second </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocked enemies receive 9% ATK as &lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt; per second </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocked enemies receive 10%&lt;@ba.talpu&gt;(+1%)&lt;/&gt; ATK as &lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt; per second </t>
-  </si>
-  <si>
-    <t>After deployment, construct high platform in front (Only 1 high platform can exist at the same time); The high platform in front can be recoverd by 1% Max HP of device per second but device lose 2% HP per second. The recovering effect is doubled during Nasti's skill</t>
-  </si>
-  <si>
-    <t>Nasti TOK</t>
-  </si>
-  <si>
-    <t>When Nasti's skill is active, device effect changes to grant Block &lt;@ba.vup&gt;+1&lt;/&gt; and DEF &lt;@ba.vup&gt;+{talent@def:0%}&lt;/&gt; but device loses 2% HP per second.</t>
-  </si>
-  <si>
-    <r>
-      <t>When this skill is equipped: Device recover HP when deployed. When active, devices lose 1 HP every 0.5 seconds but gives an ally Operator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;@ba.vup&gt;1&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SP and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{talent@shield_each_hp_rate:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Nasti's Max HP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When skill is activated, activates all devices on the field, stop attacking and gains </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{attack@nasti_s2[update_shield].shield_each_hp_rate:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> every 0.5 seconds (Barrier cannot exceed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{talent@shield_max_hp_rate:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Gain 1 device when skill expires&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When this skill is equipped: Device gives an ally Operator DEF in front</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ATK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, DEF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{def:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, and attack all blocked enemies. Device effect changes to grant Block </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+1&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and DEF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;+{talent@def:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> but devices lose </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP per second.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Gain 1 device when skill is activated&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>When skill is actived, restores 1 HP; When Nasti's skill is activated, loses 1 HP every 0.5 seconds, gives an ally Operator &lt;@ba.vup&gt;1&lt;/&gt; SP and &lt;@ba.vup&gt;{talent@shield_each_hp_rate:0%}&lt;/&gt; of Nasti's Max HP &lt;$ba.barrier&gt;Barrier&lt;/&gt; (Barrier cannot exceed {talent@shield_max_hp_rate:0%} Max HP). All active devices are destroyed when Nasti's skill expires</t>
-  </si>
-  <si>
-    <t>Device has 2 forms; Little Engineer and High Platform. When in the Little Engineer form, cannot be attacked. Can be deployed on both Melee and Ranged tiles</t>
-  </si>
-  <si>
-    <r>
-      <t>When this skill is equipped: Device can constructs and upgrades a special platform that Ranged operators can be deployed on with special benefit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When activated, ATK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{atk:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, DEF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+{def:0%}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, double the Little Engineer's SP and HP recovering effect on special platform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Gain 1 device when skill is activated&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The next attack throws originium bomb with splash area &lt;@ba.vup&gt;expands&lt;/&gt;, deal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Physical damage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.rem&gt;Can hold 1 charges&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Little Engineer form: Grant 1 SP to High Platform device in front, effect is doubled during Nasti's skill\nHigh Platform form: Upgrades when SP is full (up to 3 times). After the first upgrade, can block 1 enemy and allow operator to be deployed on. Each upgrade grant deployed operator Max HP and ATK &lt;@ba.vup&gt;+{attack@nasti_nstbld[m4_bonus].atk:0%}&lt;/&gt;. After the third upgrade, High Platform can be remain on the field after Nasti retreated.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attack Range </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;expands&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ATK is increased to &lt;@ba.vup&gt;{attack@atk_scale:0%}&lt;/&gt; when attacking\n&lt;$ba.overdrive&gt;Overload&lt;/&gt;: When manually deactivated, fires all remaining ammo at random enemies within Attack Range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;@ba.rem&gt;Skill activation grants </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{attack@trigger_time}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFF49800"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ammo and the skill ends when all ammo is used (Can manually deactivate skill)&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Max HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;@ba.vup&gt;+{max_hp:0%}&lt;/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Immediately gain </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{shield_hp_ratio:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Max HP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Barrier last for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{buff_duration}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds and cannot exceed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{shield_max_hp_ratio:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Max HP). for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{buff_duration}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds, deals </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{atk_scale:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as Arts damage and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.vup&gt;{ep_damage_ratio:0%}&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.dt.neural2&gt;Nervous Impairment&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to ground enemies every second</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy a Reconstruction on the ground within Attack Range that can only be healed by Mon3tr; the Reconstruction grants surrounding allies </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK; when the Reconstruction receives healing from itself or Mon3tr, it performs an additional healing bounce that does not weaken</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy a Reconstruction on the ground within Attack Range that can only be healed by Mon3tr; the Reconstruction grants surrounding allies </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% ATK; when the Reconstruction receives healing from itself or Mon3tr, it performs an additional healing bounce that does not weaken</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy a Reconstruction on the ground within Attack Range that can only be healed by Mon3tr; the Reconstruction grants surrounding allies </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% ATK; when the Reconstruction receives healing from itself or Mon3tr, it performs an additional healing bounce that does not weaken and the next bounce also does not weaken</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can deploy a Reconstruction on the ground within Attack Range that can only be healed by Mon3tr; the Reconstruction grants surrounding allies </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+5%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ATK; when the Reconstruction receives healing from itself or Mon3tr, it performs an additional healing bounce that does not weaken and the next bounce also does not weaken</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Healing grants the target Operator a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% of Papyrus's ATK, lasting 8 seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Healing grants the target Operator a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Papyrus's ATK, lasting 8 seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Healing grants the target Operator a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% of Papyrus's ATK, lasting </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Healing grants the target Operator a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;$ba.barrier&gt;Barrier&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equal to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+2%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Papyrus's ATK, lasting </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> seconds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When healing, heal an extra </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>170</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP if target HP is below 40%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When healing, heal an extra </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>180</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+10)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP if target HP is below 40%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When healing, heal an extra </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>210</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+10)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP if target HP is below </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When healing, heal an extra </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HP if target HP is below </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Attacks consume Ammo to increase ATK to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0098FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.kw&gt;133%&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; While not attacking, Ammo will be slowly reloaded (max capacity {value}).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When attacking the same target, each attack increases ATK by 8%, stacking up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When attacking the same target, each attack increases ATK by 9% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+1%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, stacking up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When attacking the same target, each attack increases ATK by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">%, stacking up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When attacking the same target, each attack increases ATK by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0FF"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;@ba.talpu&gt;(+1%)&lt;/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, stacking up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> times</t>
-    </r>
-  </si>
-  <si>
-    <t>Can carry 3 &lt;Support Devices&gt; (deploy up to 2), with different effects depending on Skill. Deployment Cost of the first &lt;Support Devices&gt; is reduced.</t>
-  </si>
-  <si>
-    <t>Can carry 3 &lt;Support Devices&gt; (deploy up to 2), with different effects depending on Skill. Deployment Cost of the first &lt;Support Devices&gt; is reduced; &lt;Support Devices&gt; can provide effects in conjuction with other &lt;Support Devices&gt; in their Attack Range</t>
+      <t xml:space="preserve"> stack)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4282,6 +4355,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4621,11 +4701,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5441,10 +5521,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0098FF"/>
       <color rgb="FF00B0FF"/>
+      <color rgb="FFFF6237"/>
       <color rgb="FFF49800"/>
-      <color rgb="FF0098FF"/>
-      <color rgb="FFFF6237"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5485,8 +5565,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C16" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:C16" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{89FBA152-941F-4C6C-9390-9532CA4293BB}" name="Table3" displayName="Table3" ref="A1:C15" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:C15" xr:uid="{7164C410-742E-4DED-83AD-C968A0703731}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{02CB2482-4BEC-4C01-B0C0-4F5BA3430F91}" name="Op" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{2BC33E28-91E4-4508-BBCC-48E211CE6FDE}" name="Skill" dataDxfId="9"/>
@@ -5775,8 +5855,8 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6715,7 +6795,7 @@
         <v>217</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D55" s="14">
         <v>0</v>
@@ -6752,10 +6832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6779,46 +6859,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6827,29 +6907,19 @@
       <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>253</v>
-      </c>
+      <c r="A7" s="44"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="38"/>
-      <c r="C8" s="27" t="s">
-        <v>254</v>
-      </c>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="27" t="s">
-        <v>255</v>
-      </c>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
@@ -6857,133 +6927,14 @@
       <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>256</v>
-      </c>
+      <c r="A11" s="44"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="29" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C24" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>279</v>
-      </c>
+      <c r="C12" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6996,10 +6947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87E8A4C-DD19-471A-8655-5F20C6D67CEA}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7021,81 +6972,81 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>287</v>
+      <c r="C4" s="51" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B8" s="18">
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7132,47 +7083,6 @@
       <c r="A15" s="25"/>
       <c r="B15" s="38"/>
       <c r="C15" s="36"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="36"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="18">
-        <v>2</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="B20" s="18">
-        <v>3</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -7188,8 +7098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42A22B-36CC-4810-BF3A-03B3869F0BF4}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7206,274 +7116,274 @@
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>241</v>
+      <c r="A2" s="52" t="s">
+        <v>232</v>
       </c>
       <c r="B2" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>240</v>
-      </c>
+      <c r="C2" s="43"/>
       <c r="D2" s="27" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>241</v>
+      <c r="A3" s="52" t="s">
+        <v>232</v>
       </c>
       <c r="B3" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>240</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3" s="43"/>
       <c r="D3" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="18">
-        <v>3</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>240</v>
-      </c>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="18">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>240</v>
-      </c>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="27" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="27" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="27" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B8" s="18">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="C10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="18">
         <v>3.5</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="C11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="C12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="18">
-        <v>3.5</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>259</v>
+      </c>
       <c r="D14" s="27" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="B15" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="18">
         <v>3</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="18">
-        <v>2</v>
-      </c>
       <c r="C16" s="25" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>260</v>
       </c>
       <c r="B17" s="18">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B18" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B19" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="18">
+        <v>3</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="18">
         <v>3.5</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
@@ -7570,7 +7480,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7598,77 +7508,47 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>251</v>
-      </c>
+      <c r="A3" s="39"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>252</v>
-      </c>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="7"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="42" t="s">
-        <v>305</v>
-      </c>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>261</v>
-      </c>
+      <c r="A6" s="39"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="39">
-        <v>3</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>286</v>
-      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="37"/>
